--- a/slots.xlsx
+++ b/slots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohit\Desktop\College\ISTE\ISTE-NITK_Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC95B7B-5901-48E9-99FA-4CD106E7B2E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6120590E-0566-4A18-88B7-28CBF2B9330B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="1048">
   <si>
     <t>Name</t>
   </si>
@@ -3184,6 +3184,12 @@
   </si>
   <si>
     <t>bh sai ram karthik varma</t>
+  </si>
+  <si>
+    <t>8800090441</t>
+  </si>
+  <si>
+    <t>9686749909</t>
   </si>
 </sst>
 </file>
@@ -3716,7 +3722,7 @@
     <col min="2" max="2" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3733,7 +3739,7 @@
       </c>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="14.4">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -3747,7 +3753,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="14.4">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -3761,7 +3767,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="14.4">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -3775,7 +3781,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="14.4">
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
@@ -3789,7 +3795,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="14.4">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -3803,7 +3809,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="14.4">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -3817,7 +3823,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="14.4">
       <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
@@ -3831,7 +3837,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="14.4">
       <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
@@ -3845,7 +3851,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="14.4">
       <c r="A10" s="1" t="s">
         <v>49</v>
       </c>
@@ -3861,7 +3867,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="14.4">
       <c r="A11" s="1" t="s">
         <v>52</v>
       </c>
@@ -3875,7 +3881,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="14.4">
       <c r="A12" s="1" t="s">
         <v>54</v>
       </c>
@@ -3889,7 +3895,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="14.4">
       <c r="A13" s="1" t="s">
         <v>57</v>
       </c>
@@ -3903,7 +3909,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="14.4">
       <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
@@ -3919,7 +3925,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="14.4">
       <c r="A15" s="1" t="s">
         <v>65</v>
       </c>
@@ -3933,7 +3939,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="14.4">
       <c r="A16" s="1" t="s">
         <v>68</v>
       </c>
@@ -3947,7 +3953,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="14.4">
       <c r="A17" s="1" t="s">
         <v>72</v>
       </c>
@@ -3961,7 +3967,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="14.4">
       <c r="A18" s="1" t="s">
         <v>76</v>
       </c>
@@ -3977,7 +3983,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="14.4">
       <c r="A19" s="1" t="s">
         <v>80</v>
       </c>
@@ -3990,7 +3996,7 @@
       <c r="D19" s="1"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="14.4">
       <c r="A20" s="1" t="s">
         <v>84</v>
       </c>
@@ -4004,7 +4010,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="14.4">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
@@ -4018,7 +4024,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="14.4">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
@@ -4032,7 +4038,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="14.4">
       <c r="A23" s="1" t="s">
         <v>96</v>
       </c>
@@ -4046,7 +4052,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="14.4">
       <c r="A24" s="1" t="s">
         <v>98</v>
       </c>
@@ -4060,7 +4066,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="14.4">
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
@@ -4074,7 +4080,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="14.4">
       <c r="A26" s="1" t="s">
         <v>100</v>
       </c>
@@ -4088,7 +4094,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" ht="14.4">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -4102,7 +4108,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="14.4">
       <c r="A28" s="1" t="s">
         <v>102</v>
       </c>
@@ -4116,7 +4122,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" ht="14.4">
       <c r="A29" s="1" t="s">
         <v>104</v>
       </c>
@@ -4130,7 +4136,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" ht="14.4">
       <c r="A30" s="1" t="s">
         <v>107</v>
       </c>
@@ -4146,7 +4152,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" ht="14.4">
       <c r="A31" s="1" t="s">
         <v>117</v>
       </c>
@@ -4160,7 +4166,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" ht="14.4">
       <c r="A32" s="1" t="s">
         <v>119</v>
       </c>
@@ -4174,7 +4180,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" ht="14.4">
       <c r="A33" s="1" t="s">
         <v>121</v>
       </c>
@@ -4188,7 +4194,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" ht="14.4">
       <c r="A34" s="1" t="s">
         <v>110</v>
       </c>
@@ -4202,7 +4208,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" ht="14.4">
       <c r="A35" s="1" t="s">
         <v>112</v>
       </c>
@@ -4216,7 +4222,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" ht="14.4">
       <c r="A36" s="1" t="s">
         <v>123</v>
       </c>
@@ -4230,7 +4236,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" ht="14.4">
       <c r="A37" s="1" t="s">
         <v>125</v>
       </c>
@@ -4244,7 +4250,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" ht="14.4">
       <c r="A38" s="1" t="s">
         <v>127</v>
       </c>
@@ -4258,7 +4264,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" ht="14.4">
       <c r="A39" s="1" t="s">
         <v>129</v>
       </c>
@@ -4272,7 +4278,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" ht="14.4">
       <c r="A40" s="1" t="s">
         <v>131</v>
       </c>
@@ -4286,7 +4292,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" ht="14.4">
       <c r="A41" s="1" t="s">
         <v>133</v>
       </c>
@@ -4301,7 +4307,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" ht="14.4">
       <c r="A42" s="1" t="s">
         <v>136</v>
       </c>
@@ -4315,7 +4321,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" ht="14.4">
       <c r="A43" s="1" t="s">
         <v>138</v>
       </c>
@@ -4329,7 +4335,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" ht="14.4">
       <c r="A44" s="1" t="s">
         <v>140</v>
       </c>
@@ -4343,7 +4349,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" ht="14.4">
       <c r="A45" s="1" t="s">
         <v>144</v>
       </c>
@@ -4357,7 +4363,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" ht="14.4">
       <c r="A46" s="1" t="s">
         <v>147</v>
       </c>
@@ -4371,7 +4377,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" ht="14.4">
       <c r="A47" s="1" t="s">
         <v>150</v>
       </c>
@@ -4385,7 +4391,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" ht="14.4">
       <c r="A48" s="1" t="s">
         <v>154</v>
       </c>
@@ -4399,7 +4405,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" ht="14.4">
       <c r="A49" s="1" t="s">
         <v>158</v>
       </c>
@@ -4413,7 +4419,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" ht="14.4">
       <c r="A50" s="1" t="s">
         <v>162</v>
       </c>
@@ -4427,7 +4433,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" ht="14.4">
       <c r="A51" s="1" t="s">
         <v>164</v>
       </c>
@@ -4441,7 +4447,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" ht="14.4">
       <c r="A52" s="1" t="s">
         <v>166</v>
       </c>
@@ -4455,7 +4461,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" ht="14.4">
       <c r="A53" s="1" t="s">
         <v>170</v>
       </c>
@@ -4469,7 +4475,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" ht="14.4">
       <c r="A54" s="1" t="s">
         <v>174</v>
       </c>
@@ -4483,7 +4489,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" ht="14.4">
       <c r="A55" s="1" t="s">
         <v>178</v>
       </c>
@@ -4497,7 +4503,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" ht="14.4">
       <c r="A56" s="1" t="s">
         <v>151</v>
       </c>
@@ -4511,7 +4517,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" ht="14.4">
       <c r="A57" s="1" t="s">
         <v>181</v>
       </c>
@@ -4525,7 +4531,7 @@
       <c r="E57" s="2"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" ht="14.4">
       <c r="A58" s="1" t="s">
         <v>183</v>
       </c>
@@ -4539,7 +4545,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" ht="14.4">
       <c r="A59" s="1" t="s">
         <v>185</v>
       </c>
@@ -4553,7 +4559,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" ht="14.4">
       <c r="A60" s="1" t="s">
         <v>188</v>
       </c>
@@ -4567,7 +4573,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" ht="14.4">
       <c r="A61" s="1" t="s">
         <v>190</v>
       </c>
@@ -4581,7 +4587,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" ht="14.4">
       <c r="A62" s="1" t="s">
         <v>193</v>
       </c>
@@ -4595,7 +4601,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" ht="14.4">
       <c r="A63" s="1" t="s">
         <v>196</v>
       </c>
@@ -4609,7 +4615,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" ht="14.4">
       <c r="A64" s="1" t="s">
         <v>200</v>
       </c>
@@ -4623,7 +4629,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" ht="14.4">
       <c r="A65" s="1" t="s">
         <v>202</v>
       </c>
@@ -4637,7 +4643,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" ht="14.4">
       <c r="A66" s="1" t="s">
         <v>206</v>
       </c>
@@ -4651,7 +4657,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" ht="14.4">
       <c r="A67" s="1" t="s">
         <v>208</v>
       </c>
@@ -4665,7 +4671,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" ht="14.4">
       <c r="A68" s="1" t="s">
         <v>211</v>
       </c>
@@ -4679,7 +4685,7 @@
       <c r="E68" s="2"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" ht="14.4">
       <c r="A69" s="1" t="s">
         <v>215</v>
       </c>
@@ -4693,7 +4699,7 @@
       <c r="E69" s="2"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" ht="14.4">
       <c r="A70" s="1" t="s">
         <v>218</v>
       </c>
@@ -4707,7 +4713,7 @@
       <c r="E70" s="2"/>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" ht="14.4">
       <c r="A71" s="1" t="s">
         <v>222</v>
       </c>
@@ -4721,7 +4727,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" ht="14.4">
       <c r="A72" s="1" t="s">
         <v>225</v>
       </c>
@@ -4735,7 +4741,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" ht="14.4">
       <c r="A73" s="1" t="s">
         <v>228</v>
       </c>
@@ -4751,7 +4757,7 @@
       <c r="E73" s="2"/>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" ht="14.4">
       <c r="A74" s="1" t="s">
         <v>230</v>
       </c>
@@ -4765,7 +4771,7 @@
       <c r="E74" s="2"/>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" ht="14.4">
       <c r="A75" s="1" t="s">
         <v>233</v>
       </c>
@@ -4779,7 +4785,7 @@
       <c r="E75" s="2"/>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" ht="14.4">
       <c r="A76" s="1" t="s">
         <v>237</v>
       </c>
@@ -4795,7 +4801,7 @@
       <c r="E76" s="2"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" ht="14.4">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
@@ -4809,7 +4815,7 @@
       <c r="E77" s="2"/>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" ht="14.4">
       <c r="A78" s="1" t="s">
         <v>243</v>
       </c>
@@ -4823,7 +4829,7 @@
       <c r="E78" s="2"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" ht="14.4">
       <c r="A79" s="1" t="s">
         <v>247</v>
       </c>
@@ -4837,7 +4843,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" ht="14.4">
       <c r="A80" s="1" t="s">
         <v>253</v>
       </c>
@@ -4851,7 +4857,7 @@
       <c r="E80" s="2"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" ht="14.4">
       <c r="A81" s="1" t="s">
         <v>258</v>
       </c>
@@ -4867,7 +4873,7 @@
       <c r="E81" s="2"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" ht="14.4">
       <c r="A82" s="1" t="s">
         <v>263</v>
       </c>
@@ -4881,7 +4887,7 @@
       <c r="E82" s="2"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" ht="14.4">
       <c r="A83" s="1" t="s">
         <v>268</v>
       </c>
@@ -4895,7 +4901,7 @@
       <c r="E83" s="2"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" ht="14.4">
       <c r="A84" s="1" t="s">
         <v>273</v>
       </c>
@@ -4909,7 +4915,7 @@
       <c r="E84" s="2"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" ht="14.4">
       <c r="A85" s="1" t="s">
         <v>278</v>
       </c>
@@ -4923,7 +4929,7 @@
       <c r="E85" s="2"/>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" ht="14.4">
       <c r="A86" s="1" t="s">
         <v>283</v>
       </c>
@@ -4937,7 +4943,7 @@
       <c r="E86" s="2"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" ht="14.4">
       <c r="A87" s="1" t="s">
         <v>286</v>
       </c>
@@ -4951,7 +4957,7 @@
       <c r="E87" s="2"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" ht="14.4">
       <c r="A88" s="1" t="s">
         <v>288</v>
       </c>
@@ -4965,7 +4971,7 @@
       <c r="E88" s="2"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" ht="14.4">
       <c r="A89" s="1" t="s">
         <v>292</v>
       </c>
@@ -4979,7 +4985,7 @@
       <c r="E89" s="2"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" ht="14.4">
       <c r="A90" s="1" t="s">
         <v>294</v>
       </c>
@@ -4993,7 +4999,7 @@
       <c r="E90" s="2"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" ht="14.4">
       <c r="A91" s="1" t="s">
         <v>45</v>
       </c>
@@ -5007,7 +5013,7 @@
       <c r="E91" s="2"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" ht="14.4">
       <c r="A92" s="1" t="s">
         <v>298</v>
       </c>
@@ -5021,7 +5027,7 @@
       <c r="E92" s="2"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" ht="14.4">
       <c r="A93" s="1" t="s">
         <v>302</v>
       </c>
@@ -5035,7 +5041,7 @@
       <c r="E93" s="2"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" ht="14.4">
       <c r="A94" s="1" t="s">
         <v>304</v>
       </c>
@@ -5049,7 +5055,7 @@
       <c r="E94" s="2"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" ht="14.4">
       <c r="A95" s="1" t="s">
         <v>309</v>
       </c>
@@ -5063,7 +5069,7 @@
       <c r="E95" s="2"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" ht="14.4">
       <c r="A96" s="1" t="s">
         <v>311</v>
       </c>
@@ -5077,7 +5083,7 @@
       <c r="E96" s="2"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" ht="14.4">
       <c r="A97" s="1" t="s">
         <v>315</v>
       </c>
@@ -5091,7 +5097,7 @@
       <c r="E97" s="2"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" ht="14.4">
       <c r="A98" s="1" t="s">
         <v>318</v>
       </c>
@@ -5105,7 +5111,7 @@
       <c r="E98" s="2"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" ht="14.4">
       <c r="A99" s="1" t="s">
         <v>322</v>
       </c>
@@ -5119,7 +5125,7 @@
       <c r="E99" s="2"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" ht="14.4">
       <c r="A100" s="1" t="s">
         <v>329</v>
       </c>
@@ -5133,7 +5139,7 @@
       <c r="E100" s="2"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" ht="14.4">
       <c r="A101" s="1" t="s">
         <v>333</v>
       </c>
@@ -5147,7 +5153,7 @@
       <c r="E101" s="2"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" ht="14.4">
       <c r="A102" s="1" t="s">
         <v>337</v>
       </c>
@@ -5161,7 +5167,7 @@
       <c r="E102" s="2"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" ht="14.4">
       <c r="A103" s="1" t="s">
         <v>341</v>
       </c>
@@ -5175,7 +5181,7 @@
       <c r="E103" s="2"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" ht="14.4">
       <c r="A104" s="1" t="s">
         <v>345</v>
       </c>
@@ -5189,7 +5195,7 @@
       <c r="E104" s="2"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" ht="14.4">
       <c r="A105" s="1" t="s">
         <v>348</v>
       </c>
@@ -5203,7 +5209,7 @@
       <c r="E105" s="2"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" ht="14.4">
       <c r="A106" s="1" t="s">
         <v>28</v>
       </c>
@@ -5219,7 +5225,7 @@
       <c r="E106" s="2"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" ht="14.4">
       <c r="A107" s="1" t="s">
         <v>353</v>
       </c>
@@ -5233,7 +5239,7 @@
       <c r="E107" s="2"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" ht="14.4">
       <c r="A108" s="1" t="s">
         <v>359</v>
       </c>
@@ -5247,7 +5253,7 @@
       <c r="E108" s="2"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" ht="14.4">
       <c r="A109" s="1" t="s">
         <v>232</v>
       </c>
@@ -5261,7 +5267,7 @@
       <c r="E109" s="2"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" ht="14.4">
       <c r="A110" s="1" t="s">
         <v>363</v>
       </c>
@@ -5275,7 +5281,7 @@
       <c r="E110" s="2"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" ht="14.4">
       <c r="A111" s="1" t="s">
         <v>369</v>
       </c>
@@ -5289,7 +5295,7 @@
       <c r="E111" s="2"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" ht="14.4">
       <c r="A112" s="1" t="s">
         <v>375</v>
       </c>
@@ -5303,7 +5309,7 @@
       <c r="E112" s="2"/>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" ht="14.4">
       <c r="A113" s="1" t="s">
         <v>380</v>
       </c>
@@ -5317,7 +5323,7 @@
       <c r="E113" s="2"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" ht="14.4">
       <c r="A114" s="1" t="s">
         <v>385</v>
       </c>
@@ -5331,7 +5337,7 @@
       <c r="E114" s="2"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" ht="14.4">
       <c r="A115" s="1" t="s">
         <v>389</v>
       </c>
@@ -5345,7 +5351,7 @@
       <c r="E115" s="2"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" ht="14.4">
       <c r="A116" s="1" t="s">
         <v>395</v>
       </c>
@@ -5361,7 +5367,7 @@
       <c r="E116" s="2"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" ht="14.4">
       <c r="A117" s="1" t="s">
         <v>397</v>
       </c>
@@ -5375,7 +5381,7 @@
       <c r="E117" s="2"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" ht="14.4">
       <c r="A118" s="1" t="s">
         <v>401</v>
       </c>
@@ -5391,7 +5397,7 @@
       <c r="E118" s="2"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" ht="14.4">
       <c r="A119" s="1" t="s">
         <v>407</v>
       </c>
@@ -5405,7 +5411,7 @@
       <c r="E119" s="2"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" ht="14.4">
       <c r="A120" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,7 +5425,7 @@
       <c r="E120" s="2"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" ht="14.4">
       <c r="A121" s="1" t="s">
         <v>413</v>
       </c>
@@ -5433,7 +5439,7 @@
       <c r="E121" s="2"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" ht="14.4">
       <c r="A122" s="1" t="s">
         <v>417</v>
       </c>
@@ -5447,7 +5453,7 @@
       <c r="E122" s="2"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" ht="14.4">
       <c r="A123" s="1" t="s">
         <v>423</v>
       </c>
@@ -5461,7 +5467,7 @@
       <c r="E123" s="2"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" ht="14.4">
       <c r="A124" s="1" t="s">
         <v>428</v>
       </c>
@@ -5476,7 +5482,7 @@
       <c r="E124" s="2"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" ht="14.4">
       <c r="A125" s="1" t="s">
         <v>33</v>
       </c>
@@ -5490,7 +5496,7 @@
       <c r="E125" s="2"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" ht="14.4">
       <c r="A126" s="1" t="s">
         <v>448</v>
       </c>
@@ -5504,7 +5510,7 @@
       <c r="E126" s="2"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" ht="14.4">
       <c r="A127" s="1" t="s">
         <v>454</v>
       </c>
@@ -5518,7 +5524,7 @@
       <c r="E127" s="2"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" ht="14.4">
       <c r="A128" s="1" t="s">
         <v>393</v>
       </c>
@@ -5532,7 +5538,7 @@
       <c r="E128" s="2"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" ht="14.4">
       <c r="A129" s="1" t="s">
         <v>339</v>
       </c>
@@ -5546,7 +5552,7 @@
       <c r="E129" s="2"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" ht="14.4">
       <c r="A130" s="1" t="s">
         <v>464</v>
       </c>
@@ -5560,7 +5566,7 @@
       <c r="E130" s="2"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" ht="14.4">
       <c r="A131" s="1" t="s">
         <v>469</v>
       </c>
@@ -5574,7 +5580,7 @@
       <c r="E131" s="2"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" ht="14.4">
       <c r="A132" s="1" t="s">
         <v>474</v>
       </c>
@@ -5588,7 +5594,7 @@
       <c r="E132" s="2"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" ht="14.4">
       <c r="A133" s="1" t="s">
         <v>478</v>
       </c>
@@ -5602,7 +5608,7 @@
       <c r="E133" s="2"/>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" ht="14.4">
       <c r="A134" s="1" t="s">
         <v>481</v>
       </c>
@@ -5616,7 +5622,7 @@
       <c r="E134" s="2"/>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" ht="14.4">
       <c r="A135" s="1" t="s">
         <v>484</v>
       </c>
@@ -5630,7 +5636,7 @@
       <c r="E135" s="2"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" ht="14.4">
       <c r="A136" s="1" t="s">
         <v>487</v>
       </c>
@@ -5644,7 +5650,7 @@
       <c r="E136" s="2"/>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" ht="14.4">
       <c r="A137" s="1" t="s">
         <v>489</v>
       </c>
@@ -5658,7 +5664,7 @@
       <c r="E137" s="2"/>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" ht="14.4">
       <c r="A138" s="1" t="s">
         <v>491</v>
       </c>
@@ -5672,7 +5678,7 @@
       <c r="E138" s="2"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" ht="14.4">
       <c r="A139" s="1" t="s">
         <v>493</v>
       </c>
@@ -5686,7 +5692,7 @@
       <c r="E139" s="2"/>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" ht="14.4">
       <c r="A140" s="1" t="s">
         <v>496</v>
       </c>
@@ -5700,7 +5706,7 @@
       <c r="E140" s="2"/>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" ht="14.4">
       <c r="A141" s="1" t="s">
         <v>330</v>
       </c>
@@ -5714,7 +5720,7 @@
       <c r="E141" s="2"/>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" ht="14.4">
       <c r="A142" s="1" t="s">
         <v>501</v>
       </c>
@@ -5728,7 +5734,7 @@
       <c r="E142" s="2"/>
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" ht="14.4">
       <c r="A143" s="1" t="s">
         <v>504</v>
       </c>
@@ -5742,7 +5748,7 @@
       <c r="E143" s="2"/>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" ht="14.4">
       <c r="A144" s="1" t="s">
         <v>508</v>
       </c>
@@ -5756,7 +5762,7 @@
       <c r="E144" s="2"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" ht="14.4">
       <c r="A145" s="1" t="s">
         <v>244</v>
       </c>
@@ -5770,7 +5776,7 @@
       <c r="E145" s="2"/>
       <c r="F145" s="3"/>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" ht="14.4">
       <c r="A146" s="1" t="s">
         <v>515</v>
       </c>
@@ -5784,7 +5790,7 @@
       <c r="E146" s="2"/>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" ht="14.4">
       <c r="A147" s="1" t="s">
         <v>519</v>
       </c>
@@ -5800,7 +5806,7 @@
       <c r="E147" s="2"/>
       <c r="F147" s="3"/>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" ht="14.4">
       <c r="A148" s="1" t="s">
         <v>521</v>
       </c>
@@ -5814,7 +5820,7 @@
       <c r="E148" s="2"/>
       <c r="F148" s="3"/>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" ht="14.4">
       <c r="A149" s="1" t="s">
         <v>523</v>
       </c>
@@ -5828,7 +5834,7 @@
       <c r="E149" s="2"/>
       <c r="F149" s="3"/>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" ht="14.4">
       <c r="A150" s="1" t="s">
         <v>525</v>
       </c>
@@ -5844,7 +5850,7 @@
       <c r="E150" s="2"/>
       <c r="F150" s="3"/>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" ht="14.4">
       <c r="A151" s="1" t="s">
         <v>529</v>
       </c>
@@ -5858,7 +5864,7 @@
       <c r="E151" s="2"/>
       <c r="F151" s="3"/>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" ht="14.4">
       <c r="A152" s="1" t="s">
         <v>532</v>
       </c>
@@ -5872,7 +5878,7 @@
       <c r="E152" s="2"/>
       <c r="F152" s="3"/>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" ht="14.4">
       <c r="A153" s="1" t="s">
         <v>535</v>
       </c>
@@ -5886,7 +5892,7 @@
       <c r="E153" s="2"/>
       <c r="F153" s="3"/>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" ht="14.4">
       <c r="A154" s="1" t="s">
         <v>539</v>
       </c>
@@ -5900,7 +5906,7 @@
       <c r="E154" s="2"/>
       <c r="F154" s="3"/>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" ht="14.4">
       <c r="A155" s="1" t="s">
         <v>543</v>
       </c>
@@ -5914,7 +5920,7 @@
       <c r="E155" s="2"/>
       <c r="F155" s="3"/>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" ht="14.4">
       <c r="A156" s="1" t="s">
         <v>547</v>
       </c>
@@ -5928,7 +5934,7 @@
       <c r="E156" s="2"/>
       <c r="F156" s="3"/>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" ht="14.4">
       <c r="A157" s="1" t="s">
         <v>550</v>
       </c>
@@ -5941,7 +5947,7 @@
       <c r="D157" s="1"/>
       <c r="F157" s="3"/>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" ht="14.4">
       <c r="A158" s="1" t="s">
         <v>554</v>
       </c>
@@ -5955,7 +5961,7 @@
       <c r="E158" s="2"/>
       <c r="F158" s="3"/>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" ht="14.4">
       <c r="A159" s="1" t="s">
         <v>557</v>
       </c>
@@ -5969,7 +5975,7 @@
       <c r="E159" s="2"/>
       <c r="F159" s="3"/>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" ht="14.4">
       <c r="A160" s="1" t="s">
         <v>559</v>
       </c>
@@ -5983,7 +5989,7 @@
       <c r="E160" s="2"/>
       <c r="F160" s="3"/>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" ht="14.4">
       <c r="A161" s="1" t="s">
         <v>561</v>
       </c>
@@ -5997,7 +6003,7 @@
       <c r="E161" s="2"/>
       <c r="F161" s="3"/>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" ht="14.4">
       <c r="A162" s="1" t="s">
         <v>565</v>
       </c>
@@ -6013,7 +6019,7 @@
       <c r="E162" s="2"/>
       <c r="F162" s="3"/>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" ht="14.4">
       <c r="A163" s="1" t="s">
         <v>567</v>
       </c>
@@ -6027,7 +6033,7 @@
       <c r="E163" s="2"/>
       <c r="F163" s="3"/>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" ht="14.4">
       <c r="A164" s="1" t="s">
         <v>569</v>
       </c>
@@ -6041,7 +6047,7 @@
       <c r="E164" s="2"/>
       <c r="F164" s="3"/>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" ht="14.4">
       <c r="A165" s="1" t="s">
         <v>571</v>
       </c>
@@ -6055,7 +6061,7 @@
       <c r="E165" s="2"/>
       <c r="F165" s="3"/>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" ht="14.4">
       <c r="A166" s="1" t="s">
         <v>574</v>
       </c>
@@ -6071,7 +6077,7 @@
       <c r="E166" s="2"/>
       <c r="F166" s="3"/>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" ht="14.4">
       <c r="A167" s="1" t="s">
         <v>577</v>
       </c>
@@ -6085,7 +6091,7 @@
       <c r="E167" s="2"/>
       <c r="F167" s="3"/>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" ht="14.4">
       <c r="A168" s="1" t="s">
         <v>580</v>
       </c>
@@ -6099,7 +6105,7 @@
       <c r="E168" s="2"/>
       <c r="F168" s="3"/>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" ht="14.4">
       <c r="A169" s="1" t="s">
         <v>582</v>
       </c>
@@ -6113,7 +6119,7 @@
       <c r="E169" s="2"/>
       <c r="F169" s="3"/>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" ht="14.4">
       <c r="A170" s="1" t="s">
         <v>584</v>
       </c>
@@ -6127,7 +6133,7 @@
       <c r="E170" s="2"/>
       <c r="F170" s="3"/>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" ht="14.4">
       <c r="A171" s="1" t="s">
         <v>586</v>
       </c>
@@ -6141,7 +6147,7 @@
       <c r="E171" s="2"/>
       <c r="F171" s="3"/>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" ht="14.4">
       <c r="A172" s="1" t="s">
         <v>588</v>
       </c>
@@ -6155,7 +6161,7 @@
       <c r="E172" s="2"/>
       <c r="F172" s="3"/>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" ht="14.4">
       <c r="A173" s="1" t="s">
         <v>476</v>
       </c>
@@ -6169,7 +6175,7 @@
       <c r="E173" s="2"/>
       <c r="F173" s="3"/>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" ht="14.4">
       <c r="A174" s="1" t="s">
         <v>590</v>
       </c>
@@ -6183,7 +6189,7 @@
       <c r="E174" s="2"/>
       <c r="F174" s="3"/>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" ht="14.4">
       <c r="A175" s="1" t="s">
         <v>592</v>
       </c>
@@ -6197,7 +6203,7 @@
       <c r="E175" s="2"/>
       <c r="F175" s="3"/>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" ht="14.4">
       <c r="A176" s="1" t="s">
         <v>594</v>
       </c>
@@ -6211,7 +6217,7 @@
       <c r="E176" s="2"/>
       <c r="F176" s="3"/>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" ht="14.4">
       <c r="A177" s="1" t="s">
         <v>596</v>
       </c>
@@ -6225,7 +6231,7 @@
       <c r="E177" s="2"/>
       <c r="F177" s="3"/>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" ht="14.4">
       <c r="A178" s="1" t="s">
         <v>598</v>
       </c>
@@ -6239,7 +6245,7 @@
       <c r="E178" s="2"/>
       <c r="F178" s="3"/>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" ht="14.4">
       <c r="A179" s="1" t="s">
         <v>600</v>
       </c>
@@ -6255,7 +6261,7 @@
       <c r="E179" s="2"/>
       <c r="F179" s="3"/>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" ht="14.4">
       <c r="A180" s="1" t="s">
         <v>142</v>
       </c>
@@ -6269,7 +6275,7 @@
       <c r="E180" s="2"/>
       <c r="F180" s="3"/>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" ht="14.4">
       <c r="A181" s="1" t="s">
         <v>82</v>
       </c>
@@ -6283,7 +6289,7 @@
       <c r="E181" s="2"/>
       <c r="F181" s="3"/>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" ht="14.4">
       <c r="A182" s="1" t="s">
         <v>602</v>
       </c>
@@ -6297,7 +6303,7 @@
       <c r="E182" s="2"/>
       <c r="F182" s="3"/>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" ht="14.4">
       <c r="A183" s="1" t="s">
         <v>604</v>
       </c>
@@ -6311,7 +6317,7 @@
       <c r="E183" s="2"/>
       <c r="F183" s="3"/>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" ht="14.4">
       <c r="A184" s="1" t="s">
         <v>541</v>
       </c>
@@ -6325,7 +6331,7 @@
       <c r="E184" s="2"/>
       <c r="F184" s="3"/>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" ht="14.4">
       <c r="A185" s="1" t="s">
         <v>606</v>
       </c>
@@ -6339,7 +6345,7 @@
       <c r="E185" s="2"/>
       <c r="F185" s="3"/>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" ht="14.4">
       <c r="A186" s="1" t="s">
         <v>443</v>
       </c>
@@ -6353,7 +6359,7 @@
       <c r="E186" s="2"/>
       <c r="F186" s="3"/>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" ht="14.4">
       <c r="A187" s="1" t="s">
         <v>367</v>
       </c>
@@ -6367,7 +6373,7 @@
       <c r="E187" s="2"/>
       <c r="F187" s="3"/>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" ht="14.4">
       <c r="A188" s="1" t="s">
         <v>608</v>
       </c>
@@ -6381,7 +6387,7 @@
       <c r="E188" s="2"/>
       <c r="F188" s="3"/>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" ht="14.4">
       <c r="A189" s="1" t="s">
         <v>610</v>
       </c>
@@ -6395,7 +6401,7 @@
       <c r="E189" s="2"/>
       <c r="F189" s="3"/>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" ht="14.4">
       <c r="A190" s="1" t="s">
         <v>277</v>
       </c>
@@ -6409,7 +6415,7 @@
       <c r="E190" s="2"/>
       <c r="F190" s="3"/>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" ht="14.4">
       <c r="A191" s="1" t="s">
         <v>612</v>
       </c>
@@ -6423,7 +6429,7 @@
       <c r="E191" s="2"/>
       <c r="F191" s="3"/>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" ht="14.4">
       <c r="A192" s="1" t="s">
         <v>614</v>
       </c>
@@ -6437,7 +6443,7 @@
       <c r="E192" s="2"/>
       <c r="F192" s="3"/>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" ht="14.4">
       <c r="A193" s="1" t="s">
         <v>616</v>
       </c>
@@ -6451,7 +6457,7 @@
       <c r="E193" s="2"/>
       <c r="F193" s="3"/>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" ht="14.4">
       <c r="A194" s="1" t="s">
         <v>618</v>
       </c>
@@ -6465,7 +6471,7 @@
       <c r="E194" s="2"/>
       <c r="F194" s="3"/>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" ht="14.4">
       <c r="A195" s="1" t="s">
         <v>620</v>
       </c>
@@ -6479,7 +6485,7 @@
       <c r="E195" s="2"/>
       <c r="F195" s="3"/>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" ht="14.4">
       <c r="A196" s="1" t="s">
         <v>622</v>
       </c>
@@ -6493,7 +6499,7 @@
       <c r="E196" s="2"/>
       <c r="F196" s="3"/>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" ht="14.4">
       <c r="A197" s="1" t="s">
         <v>536</v>
       </c>
@@ -6507,7 +6513,7 @@
       <c r="E197" s="2"/>
       <c r="F197" s="3"/>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" ht="14.4">
       <c r="A198" s="1" t="s">
         <v>624</v>
       </c>
@@ -6521,7 +6527,7 @@
       <c r="E198" s="2"/>
       <c r="F198" s="3"/>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" ht="14.4">
       <c r="A199" s="1" t="s">
         <v>626</v>
       </c>
@@ -6535,7 +6541,7 @@
       <c r="E199" s="2"/>
       <c r="F199" s="3"/>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" ht="14.4">
       <c r="A200" s="1" t="s">
         <v>628</v>
       </c>
@@ -6549,7 +6555,7 @@
       <c r="E200" s="2"/>
       <c r="F200" s="3"/>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" ht="14.4">
       <c r="A201" s="1" t="s">
         <v>271</v>
       </c>
@@ -6563,7 +6569,7 @@
       <c r="E201" s="2"/>
       <c r="F201" s="3"/>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" ht="14.4">
       <c r="A202" s="1" t="s">
         <v>630</v>
       </c>
@@ -6577,7 +6583,7 @@
       <c r="E202" s="2"/>
       <c r="F202" s="3"/>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" ht="14.4">
       <c r="A203" s="1" t="s">
         <v>632</v>
       </c>
@@ -6591,7 +6597,7 @@
       <c r="E203" s="2"/>
       <c r="F203" s="3"/>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" ht="14.4">
       <c r="A204" s="1" t="s">
         <v>634</v>
       </c>
@@ -6605,7 +6611,7 @@
       <c r="E204" s="2"/>
       <c r="F204" s="3"/>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" ht="14.4">
       <c r="A205" s="1" t="s">
         <v>636</v>
       </c>
@@ -6619,7 +6625,7 @@
       <c r="E205" s="2"/>
       <c r="F205" s="3"/>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" ht="14.4">
       <c r="A206" s="1" t="s">
         <v>638</v>
       </c>
@@ -6633,7 +6639,7 @@
       <c r="E206" s="2"/>
       <c r="F206" s="3"/>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" ht="14.4">
       <c r="A207" s="1" t="s">
         <v>640</v>
       </c>
@@ -6649,7 +6655,7 @@
       <c r="E207" s="2"/>
       <c r="F207" s="3"/>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" ht="14.4">
       <c r="A208" s="1" t="s">
         <v>334</v>
       </c>
@@ -6663,7 +6669,7 @@
       <c r="E208" s="2"/>
       <c r="F208" s="3"/>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" ht="14.4">
       <c r="A209" s="1" t="s">
         <v>642</v>
       </c>
@@ -6677,7 +6683,7 @@
       <c r="E209" s="2"/>
       <c r="F209" s="3"/>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" ht="14.4">
       <c r="A210" s="1" t="s">
         <v>644</v>
       </c>
@@ -6691,7 +6697,7 @@
       <c r="E210" s="2"/>
       <c r="F210" s="3"/>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" ht="14.4">
       <c r="A211" s="1" t="s">
         <v>646</v>
       </c>
@@ -6705,7 +6711,7 @@
       <c r="E211" s="2"/>
       <c r="F211" s="3"/>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" ht="14.4">
       <c r="A212" s="1" t="s">
         <v>648</v>
       </c>
@@ -6721,7 +6727,7 @@
       <c r="E212" s="2"/>
       <c r="F212" s="3"/>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" ht="14.4">
       <c r="A213" s="1" t="s">
         <v>650</v>
       </c>
@@ -6735,7 +6741,7 @@
       <c r="E213" s="2"/>
       <c r="F213" s="3"/>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" ht="14.4">
       <c r="A214" s="1" t="s">
         <v>652</v>
       </c>
@@ -6749,7 +6755,7 @@
       <c r="E214" s="2"/>
       <c r="F214" s="3"/>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" ht="14.4">
       <c r="A215" s="1" t="s">
         <v>654</v>
       </c>
@@ -6763,7 +6769,7 @@
       <c r="E215" s="2"/>
       <c r="F215" s="3"/>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" ht="14.4">
       <c r="A216" s="1" t="s">
         <v>656</v>
       </c>
@@ -6777,7 +6783,7 @@
       <c r="E216" s="2"/>
       <c r="F216" s="3"/>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" ht="14.4">
       <c r="A217" s="1" t="s">
         <v>658</v>
       </c>
@@ -6793,7 +6799,7 @@
       <c r="E217" s="2"/>
       <c r="F217" s="3"/>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" ht="14.4">
       <c r="A218" s="1" t="s">
         <v>660</v>
       </c>
@@ -6807,7 +6813,7 @@
       <c r="E218" s="2"/>
       <c r="F218" s="3"/>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" ht="14.4">
       <c r="A219" s="1" t="s">
         <v>662</v>
       </c>
@@ -6821,7 +6827,7 @@
       <c r="E219" s="2"/>
       <c r="F219" s="3"/>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" ht="14.4">
       <c r="A220" s="1" t="s">
         <v>664</v>
       </c>
@@ -9949,7 +9955,7 @@
       <c r="E998" s="15"/>
       <c r="F998" s="15"/>
     </row>
-    <row r="999" spans="5:6">
+    <row r="999" spans="5:6" ht="14.4">
       <c r="E999" s="2"/>
       <c r="F999" s="15"/>
     </row>
@@ -9975,7 +9981,7 @@
     <col min="8" max="8" width="10.33203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" ht="14.4">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -10017,7 +10023,7 @@
       <c r="Y1" s="39"/>
       <c r="Z1" s="39"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" ht="14.4">
       <c r="A2" s="1" t="s">
         <v>90</v>
       </c>
@@ -10041,7 +10047,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" ht="14.4">
       <c r="A3" s="1" t="s">
         <v>567</v>
       </c>
@@ -10065,7 +10071,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" ht="14.4">
       <c r="A4" s="56" t="s">
         <v>966</v>
       </c>
@@ -10089,7 +10095,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" ht="14.4">
       <c r="A5" s="1" t="s">
         <v>353</v>
       </c>
@@ -10113,7 +10119,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" ht="14.4">
       <c r="A6" s="1" t="s">
         <v>969</v>
       </c>
@@ -10137,7 +10143,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" ht="14.4">
       <c r="A7" s="50" t="s">
         <v>971</v>
       </c>
@@ -10161,7 +10167,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" ht="14.4">
       <c r="A8" s="1" t="s">
         <v>974</v>
       </c>
@@ -10185,7 +10191,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" ht="14.4">
       <c r="A9" s="1" t="s">
         <v>824</v>
       </c>
@@ -10209,7 +10215,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" ht="14.4">
       <c r="A10" s="1" t="s">
         <v>68</v>
       </c>
@@ -10233,7 +10239,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" ht="14.4">
       <c r="A11" s="1" t="s">
         <v>573</v>
       </c>
@@ -10257,7 +10263,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" ht="14.4">
       <c r="A12" s="1" t="s">
         <v>88</v>
       </c>
@@ -10281,7 +10287,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" ht="14.4">
       <c r="A13" s="1" t="s">
         <v>760</v>
       </c>
@@ -10305,7 +10311,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" ht="14.4">
       <c r="A14" s="1" t="s">
         <v>192</v>
       </c>
@@ -10329,7 +10335,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" ht="14.4">
       <c r="A15" s="1" t="s">
         <v>938</v>
       </c>
@@ -10354,7 +10360,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" ht="14.4">
       <c r="A16" s="1" t="s">
         <v>142</v>
       </c>
@@ -10379,7 +10385,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" ht="14.4">
       <c r="A17" s="1" t="s">
         <v>976</v>
       </c>
@@ -10403,7 +10409,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" ht="14.4">
       <c r="A18" s="1" t="s">
         <v>978</v>
       </c>
@@ -10427,7 +10433,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" ht="14.4">
       <c r="A19" s="1" t="s">
         <v>343</v>
       </c>
@@ -10451,7 +10457,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" ht="14.4">
       <c r="A20" s="1" t="s">
         <v>980</v>
       </c>
@@ -10476,7 +10482,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" ht="14.4">
       <c r="A21" s="1" t="s">
         <v>86</v>
       </c>
@@ -10501,7 +10507,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" ht="14.4">
       <c r="A22" s="1" t="s">
         <v>934</v>
       </c>
@@ -10525,7 +10531,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" ht="14.4">
       <c r="A23" s="1" t="s">
         <v>982</v>
       </c>
@@ -10549,7 +10555,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" ht="14.4">
       <c r="A24" s="1" t="s">
         <v>69</v>
       </c>
@@ -10573,7 +10579,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" ht="14.4">
       <c r="A25" s="1" t="s">
         <v>984</v>
       </c>
@@ -10597,7 +10603,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" ht="14.4">
       <c r="A26" s="1" t="s">
         <v>61</v>
       </c>
@@ -10621,7 +10627,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" ht="14.4">
       <c r="A27" s="1" t="s">
         <v>986</v>
       </c>
@@ -10645,7 +10651,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" ht="14.4">
       <c r="A28" s="1" t="s">
         <v>936</v>
       </c>
@@ -10669,7 +10675,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" ht="14.4">
       <c r="A29" s="1" t="s">
         <v>654</v>
       </c>
@@ -10693,7 +10699,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" ht="14.4">
       <c r="A30" s="1" t="s">
         <v>469</v>
       </c>
@@ -10717,7 +10723,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" ht="14.4">
       <c r="A31" s="1" t="s">
         <v>100</v>
       </c>
@@ -10741,7 +10747,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" ht="14.4">
       <c r="A32" s="1" t="s">
         <v>208</v>
       </c>
@@ -10765,7 +10771,7 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:26" ht="14.4">
       <c r="A33" s="56" t="s">
         <v>582</v>
       </c>
@@ -10789,7 +10795,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" ht="14.4">
       <c r="A34" s="4" t="s">
         <v>989</v>
       </c>
@@ -10813,7 +10819,7 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" ht="14.4">
       <c r="A35" s="1" t="s">
         <v>991</v>
       </c>
@@ -10837,7 +10843,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" ht="14.4">
       <c r="A36" s="1" t="s">
         <v>325</v>
       </c>
@@ -10861,7 +10867,7 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" ht="14.4">
       <c r="A37" s="1" t="s">
         <v>878</v>
       </c>
@@ -10882,7 +10888,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" ht="14.4">
       <c r="A38" s="45"/>
       <c r="B38" s="45"/>
       <c r="C38" s="45"/>
@@ -10910,7 +10916,7 @@
       <c r="Y38" s="60"/>
       <c r="Z38" s="60"/>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" ht="14.4">
       <c r="A39" s="8" t="s">
         <v>786</v>
       </c>
@@ -10935,7 +10941,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:26" ht="14.4">
       <c r="A40" s="8" t="s">
         <v>994</v>
       </c>
@@ -10960,7 +10966,7 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:26" ht="14.4">
       <c r="A41" s="8" t="s">
         <v>913</v>
       </c>
@@ -10984,7 +10990,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" ht="14.4">
       <c r="A42" s="8" t="s">
         <v>73</v>
       </c>
@@ -11008,7 +11014,7 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" ht="14.4">
       <c r="A43" s="8" t="s">
         <v>160</v>
       </c>
@@ -11032,7 +11038,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" ht="14.4">
       <c r="A44" s="8" t="s">
         <v>929</v>
       </c>
@@ -11051,7 +11057,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" ht="14.4">
       <c r="A45" s="8" t="s">
         <v>996</v>
       </c>
@@ -11070,7 +11076,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" ht="14.4">
       <c r="A46" s="8" t="s">
         <v>998</v>
       </c>
@@ -11089,7 +11095,7 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" ht="14.4">
       <c r="A47" s="8" t="s">
         <v>915</v>
       </c>
@@ -11108,7 +11114,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" ht="14.4">
       <c r="A48" s="8" t="s">
         <v>1000</v>
       </c>
@@ -11127,7 +11133,7 @@
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" ht="14.4">
       <c r="A49" s="8" t="s">
         <v>405</v>
       </c>
@@ -11147,7 +11153,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" ht="14.4">
       <c r="A50" s="31" t="s">
         <v>1002</v>
       </c>
@@ -11166,7 +11172,7 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" ht="14.4">
       <c r="A51" s="63" t="s">
         <v>1004</v>
       </c>
@@ -11185,7 +11191,7 @@
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" ht="14.4">
       <c r="A52" s="63" t="s">
         <v>43</v>
       </c>
@@ -11204,7 +11210,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" ht="14.4">
       <c r="A53" s="8" t="s">
         <v>185</v>
       </c>
@@ -11223,7 +11229,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" ht="14.4">
       <c r="A54" s="8" t="s">
         <v>820</v>
       </c>
@@ -11242,7 +11248,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" ht="14.4">
       <c r="A55" s="8" t="s">
         <v>1008</v>
       </c>
@@ -11261,7 +11267,7 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" ht="14.4">
       <c r="A56" s="8" t="s">
         <v>858</v>
       </c>
@@ -11280,7 +11286,7 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" ht="14.4">
       <c r="A57" s="8" t="s">
         <v>372</v>
       </c>
@@ -11299,7 +11305,7 @@
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" ht="14.4">
       <c r="A58" s="63" t="s">
         <v>1010</v>
       </c>
@@ -11318,7 +11324,7 @@
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" ht="14.4">
       <c r="A59" s="8" t="s">
         <v>1013</v>
       </c>
@@ -11337,7 +11343,7 @@
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" ht="14.4">
       <c r="A60" s="8" t="s">
         <v>164</v>
       </c>
@@ -11356,7 +11362,7 @@
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" ht="14.4">
       <c r="A61" s="8" t="s">
         <v>1015</v>
       </c>
@@ -11375,7 +11381,7 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" ht="14.4">
       <c r="A62" s="8" t="s">
         <v>123</v>
       </c>
@@ -11394,7 +11400,7 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" ht="14.4">
       <c r="A63" s="8" t="s">
         <v>1017</v>
       </c>
@@ -11413,7 +11419,7 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" ht="14.4">
       <c r="A64" s="8" t="s">
         <v>347</v>
       </c>
@@ -11432,7 +11438,7 @@
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" ht="14.4">
       <c r="A65" s="8" t="s">
         <v>1019</v>
       </c>
@@ -11451,7 +11457,7 @@
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" ht="14.4">
       <c r="A66" s="31" t="s">
         <v>1021</v>
       </c>
@@ -11470,7 +11476,7 @@
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" ht="14.4">
       <c r="A67" s="8" t="s">
         <v>569</v>
       </c>
@@ -11489,7 +11495,7 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" ht="14.4">
       <c r="A68" s="8" t="s">
         <v>478</v>
       </c>
@@ -11508,7 +11514,7 @@
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" ht="14.4">
       <c r="A69" s="8" t="s">
         <v>816</v>
       </c>
@@ -11527,7 +11533,7 @@
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" ht="14.4">
       <c r="A70" s="8" t="s">
         <v>106</v>
       </c>
@@ -11546,7 +11552,7 @@
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" ht="14.4">
       <c r="A71" s="8" t="s">
         <v>225</v>
       </c>
@@ -11565,7 +11571,7 @@
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" ht="14.4">
       <c r="A72" s="8" t="s">
         <v>472</v>
       </c>
@@ -11584,7 +11590,7 @@
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" ht="14.4">
       <c r="A73" s="8" t="s">
         <v>480</v>
       </c>
@@ -11603,7 +11609,7 @@
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" ht="14.4">
       <c r="A74" s="8" t="s">
         <v>167</v>
       </c>
@@ -11622,7 +11628,7 @@
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" ht="14.4">
       <c r="A75" s="8" t="s">
         <v>1022</v>
       </c>
@@ -11642,7 +11648,7 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" ht="14.4">
       <c r="A76" s="8" t="s">
         <v>1024</v>
       </c>
@@ -11661,7 +11667,7 @@
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" ht="14.4">
       <c r="A77" s="8" t="s">
         <v>1026</v>
       </c>
@@ -11681,7 +11687,7 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" ht="14.4">
       <c r="A78" s="8" t="s">
         <v>1028</v>
       </c>
@@ -11700,7 +11706,7 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" ht="14.4">
       <c r="A79" s="8" t="s">
         <v>487</v>
       </c>
@@ -11719,7 +11725,7 @@
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" ht="14.4">
       <c r="A80" s="8" t="s">
         <v>531</v>
       </c>
@@ -11738,7 +11744,7 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" ht="14.4">
       <c r="A81" s="8" t="s">
         <v>1030</v>
       </c>
@@ -11757,7 +11763,7 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" ht="14.4">
       <c r="A82" s="8" t="s">
         <v>37</v>
       </c>
@@ -11776,7 +11782,7 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" ht="14.4">
       <c r="A83" s="8" t="s">
         <v>1032</v>
       </c>
@@ -11795,7 +11801,7 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" ht="14.4">
       <c r="A84" s="65" t="s">
         <v>1034</v>
       </c>
@@ -11831,7 +11837,7 @@
       <c r="Y84" s="60"/>
       <c r="Z84" s="60"/>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" ht="14.4">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -11859,7 +11865,7 @@
       <c r="Y85" s="27"/>
       <c r="Z85" s="27"/>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:26" ht="14.4">
       <c r="A86" s="8" t="s">
         <v>1037</v>
       </c>
@@ -11878,7 +11884,7 @@
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" ht="14.4">
       <c r="A87" s="8" t="s">
         <v>690</v>
       </c>
@@ -11897,7 +11903,7 @@
       <c r="I87" s="3"/>
       <c r="J87" s="15"/>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" ht="14.4">
       <c r="A88" s="8" t="s">
         <v>345</v>
       </c>
@@ -11916,7 +11922,7 @@
       <c r="I88" s="3"/>
       <c r="J88" s="15"/>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" ht="14.4">
       <c r="A89" s="8" t="s">
         <v>692</v>
       </c>
@@ -11935,7 +11941,7 @@
       <c r="I89" s="3"/>
       <c r="J89" s="15"/>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" ht="14.4">
       <c r="A90" s="8" t="s">
         <v>60</v>
       </c>
@@ -11954,7 +11960,7 @@
       <c r="I90" s="3"/>
       <c r="J90" s="15"/>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" ht="14.4">
       <c r="A91" s="8" t="s">
         <v>682</v>
       </c>
@@ -11973,7 +11979,7 @@
       <c r="I91" s="3"/>
       <c r="J91" s="15"/>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" ht="14.4">
       <c r="A92" s="8" t="s">
         <v>18</v>
       </c>
@@ -11992,7 +11998,7 @@
       <c r="I92" s="3"/>
       <c r="J92" s="15"/>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:26" ht="14.4">
       <c r="A93" s="8" t="s">
         <v>172</v>
       </c>
@@ -12011,7 +12017,7 @@
       <c r="I93" s="3"/>
       <c r="J93" s="15"/>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" ht="14.4">
       <c r="A94" s="8" t="s">
         <v>257</v>
       </c>
@@ -12030,7 +12036,7 @@
       <c r="I94" s="3"/>
       <c r="J94" s="15"/>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" ht="14.4">
       <c r="A95" s="8" t="s">
         <v>756</v>
       </c>
@@ -12049,7 +12055,7 @@
       <c r="I95" s="3"/>
       <c r="J95" s="15"/>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" ht="14.4">
       <c r="A96" s="8" t="s">
         <v>1039</v>
       </c>
@@ -12068,7 +12074,7 @@
       <c r="I96" s="3"/>
       <c r="J96" s="15"/>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:26" ht="14.4">
       <c r="A97" s="8" t="s">
         <v>1041</v>
       </c>
@@ -12087,7 +12093,7 @@
       <c r="I97" s="3"/>
       <c r="J97" s="15"/>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:26" ht="14.4">
       <c r="A98" s="8" t="s">
         <v>521</v>
       </c>
@@ -12106,7 +12112,7 @@
       <c r="I98" s="3"/>
       <c r="J98" s="15"/>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" spans="1:26" ht="14.4">
       <c r="A99" s="8" t="s">
         <v>1043</v>
       </c>
@@ -12125,7 +12131,7 @@
       <c r="I99" s="3"/>
       <c r="J99" s="15"/>
     </row>
-    <row r="100" spans="1:26">
+    <row r="100" spans="1:26" ht="14.4">
       <c r="A100" s="8" t="s">
         <v>1045</v>
       </c>
@@ -17597,8 +17603,8 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -17606,7 +17612,7 @@
     <col min="2" max="2" width="14.44140625" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17621,7 +17627,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="14.4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -17637,7 +17643,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="14.4">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -17653,7 +17659,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="14.4">
       <c r="A4" s="1" t="s">
         <v>223</v>
       </c>
@@ -17669,7 +17675,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="14.4">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -17685,7 +17691,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="14.4">
       <c r="A6" s="1" t="s">
         <v>232</v>
       </c>
@@ -17701,7 +17707,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="14.4">
       <c r="A7" s="1" t="s">
         <v>238</v>
       </c>
@@ -17717,7 +17723,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="14.4">
       <c r="A8" s="1" t="s">
         <v>241</v>
       </c>
@@ -17733,7 +17739,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="14.4">
       <c r="A9" s="1" t="s">
         <v>244</v>
       </c>
@@ -17749,7 +17755,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="14.4">
       <c r="A10" s="1" t="s">
         <v>249</v>
       </c>
@@ -17765,7 +17771,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="14.4">
       <c r="A11" s="1" t="s">
         <v>255</v>
       </c>
@@ -17781,7 +17787,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="14.4">
       <c r="A12" s="1" t="s">
         <v>261</v>
       </c>
@@ -17797,7 +17803,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="14.4">
       <c r="A13" s="1" t="s">
         <v>267</v>
       </c>
@@ -17813,7 +17819,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="14.4">
       <c r="A14" s="1" t="s">
         <v>274</v>
       </c>
@@ -17829,7 +17835,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="14.4">
       <c r="A15" s="1" t="s">
         <v>281</v>
       </c>
@@ -17845,7 +17851,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="14.4">
       <c r="A16" s="1" t="s">
         <v>146</v>
       </c>
@@ -17861,7 +17867,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="14.4">
       <c r="A17" s="1" t="s">
         <v>290</v>
       </c>
@@ -17877,7 +17883,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="14.4">
       <c r="A18" s="1" t="s">
         <v>160</v>
       </c>
@@ -17893,7 +17899,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="14.4">
       <c r="A19" s="1" t="s">
         <v>296</v>
       </c>
@@ -17911,7 +17917,7 @@
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="14.4">
       <c r="A20" s="1" t="s">
         <v>300</v>
       </c>
@@ -17927,7 +17933,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="14.4">
       <c r="A21" s="1" t="s">
         <v>167</v>
       </c>
@@ -17945,7 +17951,7 @@
       </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="14.4">
       <c r="A22" s="1" t="s">
         <v>306</v>
       </c>
@@ -17961,7 +17967,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="14.4">
       <c r="A23" s="1" t="s">
         <v>218</v>
       </c>
@@ -17977,7 +17983,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="14.4">
       <c r="A24" s="1" t="s">
         <v>313</v>
       </c>
@@ -17993,7 +17999,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="14.4">
       <c r="A25" s="1" t="s">
         <v>317</v>
       </c>
@@ -18009,7 +18015,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="14.4">
       <c r="A26" s="1" t="s">
         <v>321</v>
       </c>
@@ -18025,7 +18031,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" ht="14.4">
       <c r="A27" s="1" t="s">
         <v>327</v>
       </c>
@@ -18041,7 +18047,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="14.4">
       <c r="A28" s="1" t="s">
         <v>351</v>
       </c>
@@ -18059,7 +18065,7 @@
       </c>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" ht="14.4">
       <c r="A29" s="1" t="s">
         <v>354</v>
       </c>
@@ -18077,7 +18083,7 @@
       </c>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" ht="14.4">
       <c r="A30" s="1" t="s">
         <v>347</v>
       </c>
@@ -18093,7 +18099,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" ht="14.4">
       <c r="A31" s="1" t="s">
         <v>361</v>
       </c>
@@ -18109,7 +18115,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" ht="14.4">
       <c r="A32" s="1" t="s">
         <v>364</v>
       </c>
@@ -18125,7 +18131,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" ht="14.4">
       <c r="A33" s="1" t="s">
         <v>98</v>
       </c>
@@ -18141,7 +18147,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" ht="14.4">
       <c r="A34" s="1" t="s">
         <v>371</v>
       </c>
@@ -18157,7 +18163,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" ht="14.4">
       <c r="A35" s="1" t="s">
         <v>376</v>
       </c>
@@ -18175,7 +18181,7 @@
       </c>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" ht="14.4">
       <c r="A36" s="1" t="s">
         <v>379</v>
       </c>
@@ -18193,7 +18199,7 @@
       </c>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" ht="14.4">
       <c r="A37" s="1" t="s">
         <v>383</v>
       </c>
@@ -18209,7 +18215,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" ht="14.4">
       <c r="A38" s="1" t="s">
         <v>387</v>
       </c>
@@ -18225,7 +18231,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" ht="14.4">
       <c r="A39" s="1" t="s">
         <v>393</v>
       </c>
@@ -18243,7 +18249,7 @@
       </c>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" ht="14.4">
       <c r="A40" s="1" t="s">
         <v>211</v>
       </c>
@@ -18261,7 +18267,7 @@
       </c>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" ht="14.4">
       <c r="A41" s="1" t="s">
         <v>398</v>
       </c>
@@ -18279,7 +18285,7 @@
       </c>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" ht="14.4">
       <c r="A42" s="1" t="s">
         <v>402</v>
       </c>
@@ -18295,7 +18301,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" ht="14.4">
       <c r="A43" s="1" t="s">
         <v>405</v>
       </c>
@@ -18311,7 +18317,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" ht="14.4">
       <c r="A44" s="1" t="s">
         <v>409</v>
       </c>
@@ -18329,7 +18335,7 @@
       </c>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" ht="14.4">
       <c r="A45" s="1" t="s">
         <v>411</v>
       </c>
@@ -18347,7 +18353,7 @@
       </c>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" ht="14.4">
       <c r="A46" s="1" t="s">
         <v>418</v>
       </c>
@@ -18363,7 +18369,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" ht="14.4">
       <c r="A47" s="1" t="s">
         <v>425</v>
       </c>
@@ -18379,7 +18385,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" ht="14.4">
       <c r="A48" s="1" t="s">
         <v>430</v>
       </c>
@@ -18397,7 +18403,7 @@
       </c>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" ht="14.4">
       <c r="A49" s="1" t="s">
         <v>434</v>
       </c>
@@ -18415,7 +18421,7 @@
       </c>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" ht="14.4">
       <c r="A50" s="1" t="s">
         <v>436</v>
       </c>
@@ -18431,7 +18437,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" ht="14.4">
       <c r="A51" s="1" t="s">
         <v>447</v>
       </c>
@@ -18447,7 +18453,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" ht="14.4">
       <c r="A52" s="1" t="s">
         <v>452</v>
       </c>
@@ -18463,7 +18469,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" ht="14.4">
       <c r="A53" s="1" t="s">
         <v>457</v>
       </c>
@@ -18479,7 +18485,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" ht="14.4">
       <c r="A54" s="1" t="s">
         <v>459</v>
       </c>
@@ -18495,7 +18501,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" ht="14.4">
       <c r="A55" s="1" t="s">
         <v>461</v>
       </c>
@@ -18513,7 +18519,7 @@
       </c>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" ht="14.4">
       <c r="A56" s="1" t="s">
         <v>467</v>
       </c>
@@ -18533,6 +18539,9 @@
       <c r="A57" s="4" t="s">
         <v>470</v>
       </c>
+      <c r="B57" s="70" t="s">
+        <v>1046</v>
+      </c>
       <c r="E57" s="4" t="s">
         <v>51</v>
       </c>
@@ -18540,6 +18549,9 @@
     <row r="58" spans="1:6" ht="15.75" customHeight="1">
       <c r="A58" s="4" t="s">
         <v>21</v>
+      </c>
+      <c r="B58" s="70" t="s">
+        <v>1047</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>51</v>
@@ -24346,7 +24358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="14.4">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -24363,7 +24375,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="14.4">
       <c r="A3" s="1" t="s">
         <v>110</v>
       </c>
@@ -24380,7 +24392,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="14.4">
       <c r="A4" s="1" t="s">
         <v>84</v>
       </c>
@@ -24397,7 +24409,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="14.4">
       <c r="A5" s="1" t="s">
         <v>347</v>
       </c>
@@ -24414,7 +24426,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="14.4">
       <c r="A6" s="1" t="s">
         <v>531</v>
       </c>
@@ -24431,7 +24443,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="14.4">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
@@ -24448,7 +24460,7 @@
         <v>0.60416666666666663</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="14.4">
       <c r="A8" s="1" t="s">
         <v>106</v>
       </c>
@@ -24465,7 +24477,7 @@
         <v>0.60416666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="14.4">
       <c r="A9" s="1" t="s">
         <v>250</v>
       </c>
@@ -24482,7 +24494,7 @@
         <v>0.60416666666666663</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="14.4">
       <c r="A10" s="1" t="s">
         <v>98</v>
       </c>
@@ -24499,7 +24511,7 @@
         <v>0.60416666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="14.4">
       <c r="A11" s="1" t="s">
         <v>536</v>
       </c>
@@ -24516,7 +24528,7 @@
         <v>0.60416666666666663</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" ht="14.4">
       <c r="A12" s="1" t="s">
         <v>60</v>
       </c>
@@ -24533,7 +24545,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="14.4">
       <c r="A13" s="1" t="s">
         <v>142</v>
       </c>
@@ -24550,7 +24562,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="14.4">
       <c r="A14" s="1" t="s">
         <v>264</v>
       </c>
@@ -24567,7 +24579,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" ht="14.4">
       <c r="A15" s="1" t="s">
         <v>432</v>
       </c>
@@ -24584,7 +24596,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="14.4">
       <c r="A16" s="1" t="s">
         <v>545</v>
       </c>
@@ -24601,7 +24613,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="14.4">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -24618,7 +24630,7 @@
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="14.4">
       <c r="A18" s="1" t="s">
         <v>167</v>
       </c>
@@ -24652,7 +24664,7 @@
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="14.4">
       <c r="A20" s="1" t="s">
         <v>438</v>
       </c>
@@ -24669,7 +24681,7 @@
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="14.4">
       <c r="A21" s="17" t="s">
         <v>578</v>
       </c>
@@ -24686,7 +24698,7 @@
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="14.4">
       <c r="A22" s="1" t="s">
         <v>73</v>
       </c>
@@ -24964,7 +24976,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="14.4">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -24984,7 +24996,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="14.4">
       <c r="A2" s="18" t="s">
         <v>550</v>
       </c>
@@ -25000,7 +25012,7 @@
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="14.4">
       <c r="A3" s="18" t="s">
         <v>57</v>
       </c>
@@ -25016,7 +25028,7 @@
       <c r="E3" s="19"/>
       <c r="F3" s="20"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="14.4">
       <c r="A4" s="18" t="s">
         <v>117</v>
       </c>
@@ -25032,7 +25044,7 @@
       <c r="E4" s="19"/>
       <c r="F4" s="20"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="14.4">
       <c r="A5" s="18" t="s">
         <v>674</v>
       </c>
@@ -25050,7 +25062,7 @@
       </c>
       <c r="F5" s="20"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="14.4">
       <c r="A6" s="18" t="s">
         <v>676</v>
       </c>
@@ -25068,7 +25080,7 @@
       </c>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="14.4">
       <c r="A7" s="18" t="s">
         <v>268</v>
       </c>
@@ -25086,7 +25098,7 @@
       </c>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="14.4">
       <c r="A8" s="18" t="s">
         <v>678</v>
       </c>
@@ -25102,7 +25114,7 @@
       <c r="E8" s="19"/>
       <c r="F8" s="20"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="14.4">
       <c r="A9" s="18" t="s">
         <v>680</v>
       </c>
@@ -25118,7 +25130,7 @@
       <c r="E9" s="19"/>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="14.4">
       <c r="A10" s="18" t="s">
         <v>682</v>
       </c>
@@ -25134,7 +25146,7 @@
       <c r="E10" s="19"/>
       <c r="F10" s="20"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="14.4">
       <c r="A11" s="18" t="s">
         <v>158</v>
       </c>
@@ -25152,7 +25164,7 @@
       </c>
       <c r="F11" s="20"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="14.4">
       <c r="A12" s="18" t="s">
         <v>684</v>
       </c>
@@ -25168,7 +25180,7 @@
       <c r="E12" s="19"/>
       <c r="F12" s="20"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="14.4">
       <c r="A13" s="18" t="s">
         <v>348</v>
       </c>
@@ -25184,7 +25196,7 @@
       <c r="E13" s="19"/>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="14.4">
       <c r="A14" s="18" t="s">
         <v>464</v>
       </c>
@@ -25200,7 +25212,7 @@
       <c r="E14" s="19"/>
       <c r="F14" s="20"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="14.4">
       <c r="A15" s="18" t="s">
         <v>686</v>
       </c>
@@ -25216,7 +25228,7 @@
       <c r="E15" s="19"/>
       <c r="F15" s="20"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="14.4">
       <c r="A16" s="18" t="s">
         <v>140</v>
       </c>
@@ -25232,7 +25244,7 @@
       <c r="E16" s="19"/>
       <c r="F16" s="20"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="14.4">
       <c r="A17" s="18" t="s">
         <v>258</v>
       </c>
@@ -25250,7 +25262,7 @@
       </c>
       <c r="F17" s="20"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="14.4">
       <c r="A18" s="18" t="s">
         <v>688</v>
       </c>
@@ -25266,7 +25278,7 @@
       <c r="E18" s="19"/>
       <c r="F18" s="20"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="14.4">
       <c r="A19" s="18" t="s">
         <v>114</v>
       </c>
@@ -25282,7 +25294,7 @@
       <c r="E19" s="19"/>
       <c r="F19" s="20"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="14.4">
       <c r="A20" s="18" t="s">
         <v>45</v>
       </c>
@@ -25298,7 +25310,7 @@
       <c r="E20" s="19"/>
       <c r="F20" s="20"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="14.4">
       <c r="A21" s="18" t="s">
         <v>690</v>
       </c>
@@ -25314,7 +25326,7 @@
       <c r="E21" s="19"/>
       <c r="F21" s="20"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="14.4">
       <c r="A22" s="18" t="s">
         <v>692</v>
       </c>
@@ -25330,7 +25342,7 @@
       <c r="E22" s="19"/>
       <c r="F22" s="20"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="14.4">
       <c r="A23" s="18" t="s">
         <v>694</v>
       </c>
@@ -25346,7 +25358,7 @@
       <c r="E23" s="19"/>
       <c r="F23" s="20"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="14.4">
       <c r="A24" s="18" t="s">
         <v>353</v>
       </c>
@@ -25362,7 +25374,7 @@
       <c r="E24" s="19"/>
       <c r="F24" s="20"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="14.4">
       <c r="A25" s="18" t="s">
         <v>696</v>
       </c>
@@ -25378,7 +25390,7 @@
       <c r="E25" s="19"/>
       <c r="F25" s="20"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="14.4">
       <c r="A26" s="18" t="s">
         <v>698</v>
       </c>
@@ -25394,7 +25406,7 @@
       <c r="E26" s="19"/>
       <c r="F26" s="20"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" ht="14.4">
       <c r="A27" s="18" t="s">
         <v>700</v>
       </c>
@@ -25410,7 +25422,7 @@
       <c r="E27" s="19"/>
       <c r="F27" s="20"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="14.4">
       <c r="A28" s="18" t="s">
         <v>702</v>
       </c>
@@ -25428,7 +25440,7 @@
       </c>
       <c r="F28" s="20"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" ht="14.4">
       <c r="A29" s="18" t="s">
         <v>448</v>
       </c>
@@ -25444,7 +25456,7 @@
       <c r="E29" s="19"/>
       <c r="F29" s="20"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" ht="14.4">
       <c r="A30" s="18" t="s">
         <v>704</v>
       </c>
@@ -25460,7 +25472,7 @@
       <c r="E30" s="19"/>
       <c r="F30" s="20"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" ht="14.4">
       <c r="A31" s="18" t="s">
         <v>706</v>
       </c>
@@ -25476,7 +25488,7 @@
       <c r="E31" s="19"/>
       <c r="F31" s="20"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" ht="14.4">
       <c r="A32" s="18" t="s">
         <v>577</v>
       </c>
@@ -25492,7 +25504,7 @@
       <c r="E32" s="19"/>
       <c r="F32" s="20"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" ht="14.4">
       <c r="A33" s="18" t="s">
         <v>56</v>
       </c>
@@ -25508,7 +25520,7 @@
       <c r="E33" s="19"/>
       <c r="F33" s="20"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" ht="14.4">
       <c r="A34" s="18" t="s">
         <v>708</v>
       </c>
@@ -25524,7 +25536,7 @@
       <c r="E34" s="19"/>
       <c r="F34" s="20"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" ht="14.4">
       <c r="A35" s="18" t="s">
         <v>710</v>
       </c>
@@ -25540,7 +25552,7 @@
       <c r="E35" s="19"/>
       <c r="F35" s="20"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" ht="14.4">
       <c r="A36" s="18" t="s">
         <v>712</v>
       </c>
@@ -25556,7 +25568,7 @@
       <c r="E36" s="19"/>
       <c r="F36" s="20"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" ht="14.4">
       <c r="A37" s="18" t="s">
         <v>714</v>
       </c>
@@ -25572,7 +25584,7 @@
       <c r="E37" s="19"/>
       <c r="F37" s="20"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" ht="14.4">
       <c r="A38" s="18" t="s">
         <v>716</v>
       </c>
@@ -25590,7 +25602,7 @@
       </c>
       <c r="F38" s="20"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" ht="14.4">
       <c r="A39" s="18" t="s">
         <v>612</v>
       </c>
@@ -25606,7 +25618,7 @@
       <c r="E39" s="19"/>
       <c r="F39" s="20"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" ht="14.4">
       <c r="A40" s="18" t="s">
         <v>718</v>
       </c>
@@ -25622,7 +25634,7 @@
       <c r="E40" s="19"/>
       <c r="F40" s="20"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" ht="14.4">
       <c r="A41" s="18" t="s">
         <v>720</v>
       </c>
@@ -25638,7 +25650,7 @@
       <c r="E41" s="19"/>
       <c r="F41" s="20"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" ht="14.4">
       <c r="A42" s="18" t="s">
         <v>722</v>
       </c>
@@ -25656,7 +25668,7 @@
       </c>
       <c r="F42" s="20"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" ht="14.4">
       <c r="A43" s="18" t="s">
         <v>724</v>
       </c>
@@ -25672,7 +25684,7 @@
       <c r="E43" s="19"/>
       <c r="F43" s="20"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" ht="14.4">
       <c r="A44" s="18" t="s">
         <v>726</v>
       </c>
@@ -25688,7 +25700,7 @@
       <c r="E44" s="19"/>
       <c r="F44" s="20"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" ht="14.4">
       <c r="A45" s="18" t="s">
         <v>728</v>
       </c>
@@ -25704,7 +25716,7 @@
       <c r="E45" s="19"/>
       <c r="F45" s="20"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" ht="14.4">
       <c r="A46" s="18" t="s">
         <v>243</v>
       </c>
@@ -25720,7 +25732,7 @@
       <c r="E46" s="19"/>
       <c r="F46" s="20"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" ht="14.4">
       <c r="A47" s="18" t="s">
         <v>730</v>
       </c>
@@ -25736,7 +25748,7 @@
       <c r="E47" s="19"/>
       <c r="F47" s="20"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" ht="14.4">
       <c r="A48" s="18" t="s">
         <v>732</v>
       </c>
@@ -25754,7 +25766,7 @@
       </c>
       <c r="F48" s="20"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" ht="14.4">
       <c r="A49" s="18" t="s">
         <v>734</v>
       </c>
@@ -25770,7 +25782,7 @@
       <c r="E49" s="19"/>
       <c r="F49" s="20"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" ht="14.4">
       <c r="A50" s="18" t="s">
         <v>736</v>
       </c>
@@ -25788,7 +25800,7 @@
       </c>
       <c r="F50" s="20"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" ht="14.4">
       <c r="A51" s="18" t="s">
         <v>610</v>
       </c>
@@ -25804,7 +25816,7 @@
       <c r="E51" s="19"/>
       <c r="F51" s="20"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" ht="14.4">
       <c r="A52" s="18" t="s">
         <v>15</v>
       </c>
@@ -25820,7 +25832,7 @@
       <c r="E52" s="19"/>
       <c r="F52" s="20"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" ht="14.4">
       <c r="A53" s="18" t="s">
         <v>738</v>
       </c>
@@ -25838,7 +25850,7 @@
       </c>
       <c r="F53" s="20"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" ht="14.4">
       <c r="A54" s="18" t="s">
         <v>740</v>
       </c>
@@ -25854,7 +25866,7 @@
       <c r="E54" s="19"/>
       <c r="F54" s="20"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" ht="14.4">
       <c r="A55" s="18" t="s">
         <v>742</v>
       </c>
@@ -25870,7 +25882,7 @@
       <c r="E55" s="19"/>
       <c r="F55" s="20"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" ht="14.4">
       <c r="A56" s="18" t="s">
         <v>744</v>
       </c>
@@ -25886,7 +25898,7 @@
       <c r="E56" s="19"/>
       <c r="F56" s="20"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" ht="14.4">
       <c r="A57" s="18" t="s">
         <v>746</v>
       </c>
@@ -25902,7 +25914,7 @@
       <c r="E57" s="19"/>
       <c r="F57" s="20"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" ht="14.4">
       <c r="A58" s="18" t="s">
         <v>136</v>
       </c>
@@ -25920,7 +25932,7 @@
       </c>
       <c r="F58" s="20"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" ht="14.4">
       <c r="A59" s="18" t="s">
         <v>748</v>
       </c>
@@ -25937,7 +25949,7 @@
       <c r="E59" s="19"/>
       <c r="F59" s="20"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" ht="14.4">
       <c r="A60" s="18" t="s">
         <v>622</v>
       </c>
@@ -25955,7 +25967,7 @@
       </c>
       <c r="F60" s="20"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" ht="14.4">
       <c r="A61" s="18" t="s">
         <v>750</v>
       </c>
@@ -25971,7 +25983,7 @@
       <c r="E61" s="19"/>
       <c r="F61" s="20"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" ht="14.4">
       <c r="A62" s="18" t="s">
         <v>752</v>
       </c>
@@ -25987,7 +25999,7 @@
       <c r="E62" s="19"/>
       <c r="F62" s="20"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" ht="14.4">
       <c r="A63" s="18" t="s">
         <v>754</v>
       </c>
@@ -26005,7 +26017,7 @@
       </c>
       <c r="F63" s="20"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" ht="14.4">
       <c r="A64" s="18" t="s">
         <v>756</v>
       </c>
@@ -26021,7 +26033,7 @@
       <c r="E64" s="19"/>
       <c r="F64" s="20"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" ht="14.4">
       <c r="A65" s="18" t="s">
         <v>758</v>
       </c>
@@ -26039,7 +26051,7 @@
       </c>
       <c r="F65" s="20"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" ht="14.4">
       <c r="A66" s="18" t="s">
         <v>760</v>
       </c>
@@ -26055,7 +26067,7 @@
       <c r="E66" s="19"/>
       <c r="F66" s="20"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" ht="14.4">
       <c r="A67" s="18" t="s">
         <v>129</v>
       </c>
@@ -26071,7 +26083,7 @@
       <c r="E67" s="19"/>
       <c r="F67" s="20"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" ht="14.4">
       <c r="A68" s="18" t="s">
         <v>762</v>
       </c>
@@ -26087,7 +26099,7 @@
       <c r="E68" s="19"/>
       <c r="F68" s="20"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" ht="14.4">
       <c r="A69" s="18" t="s">
         <v>764</v>
       </c>
@@ -26103,7 +26115,7 @@
       <c r="E69" s="19"/>
       <c r="F69" s="20"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" ht="14.4">
       <c r="A70" s="18" t="s">
         <v>200</v>
       </c>
@@ -26121,7 +26133,7 @@
       </c>
       <c r="F70" s="20"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" ht="14.4">
       <c r="A71" s="18" t="s">
         <v>766</v>
       </c>
@@ -26139,7 +26151,7 @@
       </c>
       <c r="F71" s="20"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" ht="14.4">
       <c r="A72" s="18" t="s">
         <v>768</v>
       </c>
@@ -26155,7 +26167,7 @@
       <c r="E72" s="19"/>
       <c r="F72" s="20"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" ht="14.4">
       <c r="A73" s="18" t="s">
         <v>133</v>
       </c>
@@ -26172,7 +26184,7 @@
       <c r="E73" s="19"/>
       <c r="F73" s="20"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" ht="14.4">
       <c r="A74" s="18" t="s">
         <v>190</v>
       </c>
@@ -26190,7 +26202,7 @@
       </c>
       <c r="F74" s="20"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" ht="14.4">
       <c r="A75" s="18" t="s">
         <v>770</v>
       </c>
@@ -26208,7 +26220,7 @@
       </c>
       <c r="F75" s="20"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" ht="14.4">
       <c r="A76" s="18" t="s">
         <v>142</v>
       </c>
@@ -26224,7 +26236,7 @@
       <c r="E76" s="19"/>
       <c r="F76" s="20"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" ht="14.4">
       <c r="A77" s="18" t="s">
         <v>772</v>
       </c>
@@ -26240,7 +26252,7 @@
       <c r="E77" s="19"/>
       <c r="F77" s="20"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" ht="14.4">
       <c r="A78" s="18" t="s">
         <v>774</v>
       </c>
@@ -26256,7 +26268,7 @@
       <c r="E78" s="19"/>
       <c r="F78" s="20"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" ht="14.4">
       <c r="A79" s="18" t="s">
         <v>86</v>
       </c>
@@ -26272,7 +26284,7 @@
       <c r="E79" s="19"/>
       <c r="F79" s="20"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" ht="14.4">
       <c r="A80" s="18" t="s">
         <v>208</v>
       </c>
@@ -26288,7 +26300,7 @@
       <c r="E80" s="19"/>
       <c r="F80" s="20"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" ht="14.4">
       <c r="A81" s="18" t="s">
         <v>776</v>
       </c>
@@ -26304,7 +26316,7 @@
       <c r="E81" s="19"/>
       <c r="F81" s="20"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" ht="14.4">
       <c r="A82" s="18" t="s">
         <v>60</v>
       </c>
@@ -26320,7 +26332,7 @@
       <c r="E82" s="19"/>
       <c r="F82" s="20"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" ht="14.4">
       <c r="A83" s="18" t="s">
         <v>529</v>
       </c>
@@ -26336,7 +26348,7 @@
       <c r="E83" s="19"/>
       <c r="F83" s="20"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" ht="14.4">
       <c r="A84" s="18" t="s">
         <v>778</v>
       </c>
@@ -26354,7 +26366,7 @@
       </c>
       <c r="F84" s="20"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" ht="14.4">
       <c r="A85" s="18" t="s">
         <v>380</v>
       </c>
@@ -26370,7 +26382,7 @@
       <c r="E85" s="19"/>
       <c r="F85" s="20"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" ht="14.4">
       <c r="A86" s="18" t="s">
         <v>541</v>
       </c>
@@ -26386,7 +26398,7 @@
       <c r="E86" s="19"/>
       <c r="F86" s="20"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" ht="14.4">
       <c r="A87" s="18" t="s">
         <v>638</v>
       </c>
@@ -26402,7 +26414,7 @@
       <c r="E87" s="19"/>
       <c r="F87" s="20"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" ht="14.4">
       <c r="A88" s="18" t="s">
         <v>170</v>
       </c>
@@ -26418,7 +26430,7 @@
       <c r="E88" s="19"/>
       <c r="F88" s="20"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" ht="14.4">
       <c r="A89" s="18" t="s">
         <v>532</v>
       </c>
@@ -26434,7 +26446,7 @@
       <c r="E89" s="19"/>
       <c r="F89" s="20"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" ht="14.4">
       <c r="A90" s="18" t="s">
         <v>780</v>
       </c>
@@ -26452,7 +26464,7 @@
       </c>
       <c r="F90" s="20"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" ht="14.4">
       <c r="A91" s="18" t="s">
         <v>339</v>
       </c>
@@ -26470,7 +26482,7 @@
       </c>
       <c r="F91" s="20"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" ht="14.4">
       <c r="A92" s="18" t="s">
         <v>782</v>
       </c>
@@ -26486,7 +26498,7 @@
       <c r="E92" s="19"/>
       <c r="F92" s="20"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" ht="14.4">
       <c r="A93" s="18" t="s">
         <v>784</v>
       </c>
@@ -26502,7 +26514,7 @@
       <c r="E93" s="19"/>
       <c r="F93" s="20"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" ht="14.4">
       <c r="A94" s="18" t="s">
         <v>100</v>
       </c>
@@ -26520,7 +26532,7 @@
       </c>
       <c r="F94" s="20"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" ht="14.4">
       <c r="A95" s="18" t="s">
         <v>786</v>
       </c>
@@ -26536,7 +26548,7 @@
       <c r="E95" s="19"/>
       <c r="F95" s="20"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" ht="14.4">
       <c r="A96" s="18" t="s">
         <v>788</v>
       </c>
@@ -26552,7 +26564,7 @@
       <c r="E96" s="19"/>
       <c r="F96" s="20"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" ht="14.4">
       <c r="A97" s="18" t="s">
         <v>790</v>
       </c>
@@ -26570,7 +26582,7 @@
       </c>
       <c r="F97" s="20"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" ht="14.4">
       <c r="A98" s="18" t="s">
         <v>557</v>
       </c>
@@ -26588,7 +26600,7 @@
       </c>
       <c r="F98" s="20"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" ht="14.4">
       <c r="A99" s="18" t="s">
         <v>630</v>
       </c>
@@ -26604,7 +26616,7 @@
       <c r="E99" s="19"/>
       <c r="F99" s="20"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" ht="14.4">
       <c r="A100" s="18" t="s">
         <v>792</v>
       </c>
@@ -26622,7 +26634,7 @@
       </c>
       <c r="F100" s="20"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" ht="14.4">
       <c r="A101" s="18" t="s">
         <v>794</v>
       </c>
@@ -26640,7 +26652,7 @@
       </c>
       <c r="F101" s="20"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" ht="14.4">
       <c r="A102" s="18" t="s">
         <v>445</v>
       </c>
@@ -26656,7 +26668,7 @@
       <c r="E102" s="19"/>
       <c r="F102" s="20"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" ht="14.4">
       <c r="A103" s="18" t="s">
         <v>620</v>
       </c>
@@ -26672,7 +26684,7 @@
       <c r="E103" s="19"/>
       <c r="F103" s="20"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" ht="14.4">
       <c r="A104" s="18" t="s">
         <v>423</v>
       </c>
@@ -26688,7 +26700,7 @@
       <c r="E104" s="19"/>
       <c r="F104" s="20"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" ht="14.4">
       <c r="A105" s="18" t="s">
         <v>596</v>
       </c>
@@ -26706,7 +26718,7 @@
       </c>
       <c r="F105" s="20"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" ht="14.4">
       <c r="A106" s="18" t="s">
         <v>796</v>
       </c>
@@ -26722,7 +26734,7 @@
       <c r="E106" s="19"/>
       <c r="F106" s="20"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" ht="14.4">
       <c r="A107" s="18" t="s">
         <v>798</v>
       </c>
@@ -26738,7 +26750,7 @@
       <c r="E107" s="19"/>
       <c r="F107" s="20"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" ht="14.4">
       <c r="A108" s="18" t="s">
         <v>800</v>
       </c>
@@ -26754,7 +26766,7 @@
       <c r="E108" s="19"/>
       <c r="F108" s="20"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" ht="14.4">
       <c r="A109" s="18" t="s">
         <v>802</v>
       </c>
@@ -26770,7 +26782,7 @@
       <c r="E109" s="19"/>
       <c r="F109" s="20"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" ht="14.4">
       <c r="A110" s="18" t="s">
         <v>804</v>
       </c>
@@ -26786,7 +26798,7 @@
       <c r="E110" s="19"/>
       <c r="F110" s="20"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" ht="14.4">
       <c r="A111" s="18" t="s">
         <v>77</v>
       </c>
@@ -26802,7 +26814,7 @@
       <c r="E111" s="19"/>
       <c r="F111" s="20"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" ht="14.4">
       <c r="A112" s="18" t="s">
         <v>806</v>
       </c>
@@ -26818,7 +26830,7 @@
       <c r="E112" s="19"/>
       <c r="F112" s="20"/>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" ht="14.4">
       <c r="A113" s="18" t="s">
         <v>426</v>
       </c>
@@ -26836,7 +26848,7 @@
       </c>
       <c r="F113" s="20"/>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" ht="14.4">
       <c r="A114" s="18" t="s">
         <v>808</v>
       </c>
@@ -26854,7 +26866,7 @@
       </c>
       <c r="F114" s="20"/>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" ht="14.4">
       <c r="A115" s="18" t="s">
         <v>523</v>
       </c>
@@ -26870,7 +26882,7 @@
       <c r="E115" s="19"/>
       <c r="F115" s="20"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" ht="14.4">
       <c r="A116" s="18" t="s">
         <v>810</v>
       </c>
@@ -26888,7 +26900,7 @@
       </c>
       <c r="F116" s="20"/>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" ht="14.4">
       <c r="A117" s="18" t="s">
         <v>469</v>
       </c>
@@ -26904,7 +26916,7 @@
       <c r="E117" s="19"/>
       <c r="F117" s="20"/>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" ht="14.4">
       <c r="A118" s="18" t="s">
         <v>812</v>
       </c>
@@ -26920,7 +26932,7 @@
       <c r="E118" s="19"/>
       <c r="F118" s="20"/>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" ht="14.4">
       <c r="A119" s="18" t="s">
         <v>814</v>
       </c>
@@ -26936,7 +26948,7 @@
       <c r="E119" s="19"/>
       <c r="F119" s="20"/>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" ht="14.4">
       <c r="A120" s="18" t="s">
         <v>96</v>
       </c>
@@ -26952,7 +26964,7 @@
       <c r="E120" s="19"/>
       <c r="F120" s="20"/>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" ht="14.4">
       <c r="A121" s="18" t="s">
         <v>604</v>
       </c>
@@ -26968,7 +26980,7 @@
       <c r="E121" s="19"/>
       <c r="F121" s="20"/>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" ht="14.4">
       <c r="A122" s="18" t="s">
         <v>164</v>
       </c>
@@ -26984,7 +26996,7 @@
       <c r="E122" s="19"/>
       <c r="F122" s="20"/>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" ht="14.4">
       <c r="A123" s="18" t="s">
         <v>46</v>
       </c>
@@ -27000,7 +27012,7 @@
       <c r="E123" s="19"/>
       <c r="F123" s="20"/>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" ht="14.4">
       <c r="A124" s="18" t="s">
         <v>345</v>
       </c>
@@ -27016,7 +27028,7 @@
       <c r="E124" s="19"/>
       <c r="F124" s="20"/>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" ht="14.4">
       <c r="A125" s="18" t="s">
         <v>263</v>
       </c>
@@ -27034,7 +27046,7 @@
       </c>
       <c r="F125" s="20"/>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" ht="14.4">
       <c r="A126" s="18" t="s">
         <v>395</v>
       </c>
@@ -27052,7 +27064,7 @@
       </c>
       <c r="F126" s="20"/>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" ht="14.4">
       <c r="A127" s="18" t="s">
         <v>237</v>
       </c>
@@ -27068,7 +27080,7 @@
       <c r="E127" s="19"/>
       <c r="F127" s="20"/>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" ht="14.4">
       <c r="A128" s="18" t="s">
         <v>816</v>
       </c>
@@ -27084,7 +27096,7 @@
       <c r="E128" s="19"/>
       <c r="F128" s="20"/>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" ht="14.4">
       <c r="A129" s="18" t="s">
         <v>818</v>
       </c>
@@ -27100,7 +27112,7 @@
       <c r="E129" s="19"/>
       <c r="F129" s="20"/>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" ht="14.4">
       <c r="A130" s="18" t="s">
         <v>820</v>
       </c>
@@ -27116,7 +27128,7 @@
       <c r="E130" s="19"/>
       <c r="F130" s="20"/>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" ht="14.4">
       <c r="A131" s="18" t="s">
         <v>822</v>
       </c>
@@ -27132,7 +27144,7 @@
       <c r="E131" s="19"/>
       <c r="F131" s="20"/>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" ht="14.4">
       <c r="A132" s="18" t="s">
         <v>383</v>
       </c>
@@ -27148,7 +27160,7 @@
       <c r="E132" s="19"/>
       <c r="F132" s="20"/>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" ht="14.4">
       <c r="A133" s="18" t="s">
         <v>824</v>
       </c>
@@ -27164,7 +27176,7 @@
       <c r="E133" s="19"/>
       <c r="F133" s="20"/>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" ht="14.4">
       <c r="A134" s="18" t="s">
         <v>826</v>
       </c>
@@ -27180,7 +27192,7 @@
       <c r="E134" s="19"/>
       <c r="F134" s="20"/>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" ht="14.4">
       <c r="A135" s="18" t="s">
         <v>828</v>
       </c>
@@ -27196,7 +27208,7 @@
       <c r="E135" s="19"/>
       <c r="F135" s="20"/>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" ht="14.4">
       <c r="A136" s="18" t="s">
         <v>219</v>
       </c>
@@ -27212,7 +27224,7 @@
       <c r="E136" s="19"/>
       <c r="F136" s="20"/>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" ht="14.4">
       <c r="A137" s="18" t="s">
         <v>443</v>
       </c>
@@ -27230,7 +27242,7 @@
       </c>
       <c r="F137" s="20"/>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" ht="14.4">
       <c r="A138" s="18" t="s">
         <v>440</v>
       </c>
@@ -27246,7 +27258,7 @@
       <c r="E138" s="19"/>
       <c r="F138" s="20"/>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" ht="14.4">
       <c r="A139" s="18" t="s">
         <v>830</v>
       </c>
@@ -27262,7 +27274,7 @@
       <c r="E139" s="19"/>
       <c r="F139" s="20"/>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" ht="14.4">
       <c r="A140" s="18" t="s">
         <v>372</v>
       </c>
@@ -27278,7 +27290,7 @@
       <c r="E140" s="19"/>
       <c r="F140" s="20"/>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" ht="14.4">
       <c r="A141" s="18" t="s">
         <v>493</v>
       </c>
@@ -27294,7 +27306,7 @@
       <c r="E141" s="19"/>
       <c r="F141" s="20"/>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" ht="14.4">
       <c r="A142" s="18" t="s">
         <v>547</v>
       </c>
@@ -27310,7 +27322,7 @@
       <c r="E142" s="19"/>
       <c r="F142" s="20"/>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" ht="14.4">
       <c r="A143" s="18" t="s">
         <v>832</v>
       </c>
@@ -27326,7 +27338,7 @@
       <c r="E143" s="19"/>
       <c r="F143" s="20"/>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" ht="14.4">
       <c r="A144" s="18" t="s">
         <v>834</v>
       </c>
@@ -27342,7 +27354,7 @@
       <c r="E144" s="19"/>
       <c r="F144" s="20"/>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" ht="14.4">
       <c r="A145" s="18" t="s">
         <v>146</v>
       </c>
@@ -27358,7 +27370,7 @@
       <c r="E145" s="19"/>
       <c r="F145" s="20"/>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" ht="14.4">
       <c r="A146" s="18" t="s">
         <v>836</v>
       </c>
@@ -27374,7 +27386,7 @@
       <c r="E146" s="19"/>
       <c r="F146" s="20"/>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" ht="14.4">
       <c r="A147" s="18" t="s">
         <v>271</v>
       </c>
@@ -27390,7 +27402,7 @@
       <c r="E147" s="19"/>
       <c r="F147" s="20"/>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" ht="14.4">
       <c r="A148" s="18" t="s">
         <v>315</v>
       </c>
@@ -27408,7 +27420,7 @@
       </c>
       <c r="F148" s="20"/>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" ht="14.4">
       <c r="A149" s="18" t="s">
         <v>188</v>
       </c>
@@ -27424,7 +27436,7 @@
       <c r="E149" s="19"/>
       <c r="F149" s="20"/>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" ht="14.4">
       <c r="A150" s="18" t="s">
         <v>322</v>
       </c>
@@ -27442,7 +27454,7 @@
       </c>
       <c r="F150" s="20"/>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" ht="14.4">
       <c r="A151" s="18" t="s">
         <v>300</v>
       </c>
@@ -27458,7 +27470,7 @@
       <c r="E151" s="19"/>
       <c r="F151" s="20"/>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" ht="14.4">
       <c r="A152" s="18" t="s">
         <v>526</v>
       </c>
@@ -27474,7 +27486,7 @@
       <c r="E152" s="19"/>
       <c r="F152" s="20"/>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" ht="14.4">
       <c r="A153" s="18" t="s">
         <v>151</v>
       </c>
@@ -27490,7 +27502,7 @@
       <c r="E153" s="19"/>
       <c r="F153" s="20"/>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" ht="14.4">
       <c r="A154" s="18" t="s">
         <v>838</v>
       </c>
@@ -27508,7 +27520,7 @@
       </c>
       <c r="F154" s="20"/>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" ht="14.4">
       <c r="A155" s="18" t="s">
         <v>840</v>
       </c>
@@ -27524,7 +27536,7 @@
       <c r="E155" s="19"/>
       <c r="F155" s="20"/>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" ht="14.4">
       <c r="A156" s="18" t="s">
         <v>842</v>
       </c>
@@ -27540,7 +27552,7 @@
       <c r="E156" s="19"/>
       <c r="F156" s="20"/>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" ht="14.4">
       <c r="A157" s="18" t="s">
         <v>505</v>
       </c>
@@ -27556,7 +27568,7 @@
       <c r="E157" s="19"/>
       <c r="F157" s="20"/>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" ht="14.4">
       <c r="A158" s="18" t="s">
         <v>844</v>
       </c>
@@ -27572,7 +27584,7 @@
       <c r="E158" s="19"/>
       <c r="F158" s="20"/>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" ht="14.4">
       <c r="A159" s="18" t="s">
         <v>846</v>
       </c>
@@ -27588,7 +27600,7 @@
       <c r="E159" s="19"/>
       <c r="F159" s="20"/>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" ht="14.4">
       <c r="A160" s="18" t="s">
         <v>848</v>
       </c>
@@ -27604,7 +27616,7 @@
       <c r="E160" s="19"/>
       <c r="F160" s="20"/>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" ht="14.4">
       <c r="A161" s="18" t="s">
         <v>624</v>
       </c>
@@ -27620,7 +27632,7 @@
       <c r="E161" s="19"/>
       <c r="F161" s="20"/>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" ht="14.4">
       <c r="A162" s="18" t="s">
         <v>88</v>
       </c>
@@ -27636,7 +27648,7 @@
       <c r="E162" s="19"/>
       <c r="F162" s="20"/>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" ht="14.4">
       <c r="A163" s="18" t="s">
         <v>850</v>
       </c>
@@ -27652,7 +27664,7 @@
       <c r="E163" s="19"/>
       <c r="F163" s="20"/>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" ht="14.4">
       <c r="A164" s="18" t="s">
         <v>504</v>
       </c>
@@ -27668,7 +27680,7 @@
       <c r="E164" s="19"/>
       <c r="F164" s="20"/>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" ht="14.4">
       <c r="A165" s="18" t="s">
         <v>432</v>
       </c>
@@ -27684,7 +27696,7 @@
       <c r="E165" s="19"/>
       <c r="F165" s="20"/>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" ht="14.4">
       <c r="A166" s="18" t="s">
         <v>852</v>
       </c>
@@ -27700,7 +27712,7 @@
       <c r="E166" s="19"/>
       <c r="F166" s="20"/>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" ht="14.4">
       <c r="A167" s="18" t="s">
         <v>854</v>
       </c>
@@ -27716,7 +27728,7 @@
       <c r="E167" s="19"/>
       <c r="F167" s="20"/>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" ht="14.4">
       <c r="A168" s="18" t="s">
         <v>436</v>
       </c>
@@ -27732,7 +27744,7 @@
       <c r="E168" s="19"/>
       <c r="F168" s="20"/>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" ht="14.4">
       <c r="A169" s="18" t="s">
         <v>856</v>
       </c>
@@ -27748,7 +27760,7 @@
       <c r="E169" s="19"/>
       <c r="F169" s="20"/>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" ht="14.4">
       <c r="A170" s="18" t="s">
         <v>858</v>
       </c>
@@ -27764,7 +27776,7 @@
       <c r="E170" s="19"/>
       <c r="F170" s="20"/>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" ht="14.4">
       <c r="A171" s="18" t="s">
         <v>517</v>
       </c>
@@ -27780,7 +27792,7 @@
       <c r="E171" s="19"/>
       <c r="F171" s="20"/>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" ht="14.4">
       <c r="A172" s="22" t="s">
         <v>860</v>
       </c>
@@ -27798,7 +27810,7 @@
       </c>
       <c r="F172" s="23"/>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" ht="14.4">
       <c r="A173" s="22" t="s">
         <v>539</v>
       </c>
@@ -27816,7 +27828,7 @@
       </c>
       <c r="F173" s="23"/>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" ht="14.4">
       <c r="A174" s="22" t="s">
         <v>862</v>
       </c>
@@ -35911,7 +35923,7 @@
     <col min="8" max="8" width="30.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" ht="14.4">
       <c r="A1" s="28" t="s">
         <v>181</v>
       </c>
@@ -35952,7 +35964,7 @@
       <c r="Z1" s="12"/>
       <c r="AA1" s="12"/>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" ht="14.4">
       <c r="A2" s="1" t="s">
         <v>913</v>
       </c>
@@ -35968,7 +35980,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" ht="14.4">
       <c r="A3" s="28" t="s">
         <v>445</v>
       </c>
@@ -36005,7 +36017,7 @@
       <c r="Z3" s="12"/>
       <c r="AA3" s="12"/>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" ht="14.4">
       <c r="A4" s="36" t="s">
         <v>472</v>
       </c>
@@ -36044,7 +36056,7 @@
       <c r="Z4" s="39"/>
       <c r="AA4" s="39"/>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" ht="14.4">
       <c r="A5" s="1" t="s">
         <v>487</v>
       </c>
@@ -36062,7 +36074,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" ht="14.4">
       <c r="A6" s="1" t="s">
         <v>694</v>
       </c>
@@ -36078,7 +36090,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" ht="14.4">
       <c r="A7" s="1" t="s">
         <v>541</v>
       </c>
@@ -36094,7 +36106,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" ht="14.4">
       <c r="A8" s="1" t="s">
         <v>915</v>
       </c>
@@ -36110,7 +36122,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" ht="14.4">
       <c r="A9" s="4" t="s">
         <v>758</v>
       </c>
@@ -36126,7 +36138,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" ht="14.4">
       <c r="A10" s="1" t="s">
         <v>917</v>
       </c>
@@ -36142,7 +36154,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" ht="14.4">
       <c r="A11" s="36" t="s">
         <v>68</v>
       </c>
@@ -36179,7 +36191,7 @@
       <c r="Z11" s="39"/>
       <c r="AA11" s="39"/>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" ht="14.4">
       <c r="A12" s="1" t="s">
         <v>238</v>
       </c>
@@ -36195,7 +36207,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" ht="14.4">
       <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
@@ -36211,7 +36223,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" ht="14.4">
       <c r="A14" s="1" t="s">
         <v>919</v>
       </c>
@@ -36229,7 +36241,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" ht="14.4">
       <c r="A15" s="1" t="s">
         <v>921</v>
       </c>
@@ -36247,7 +36259,7 @@
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" ht="14.4">
       <c r="A16" s="36" t="s">
         <v>197</v>
       </c>
@@ -36286,7 +36298,7 @@
       <c r="Z16" s="39"/>
       <c r="AA16" s="39"/>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" ht="14.4">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
@@ -36304,7 +36316,7 @@
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" ht="14.4">
       <c r="A18" s="1" t="s">
         <v>88</v>
       </c>
@@ -36320,7 +36332,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" ht="14.4">
       <c r="A19" s="1" t="s">
         <v>889</v>
       </c>
@@ -36336,7 +36348,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" ht="14.4">
       <c r="A20" s="1" t="s">
         <v>505</v>
       </c>
@@ -36352,7 +36364,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" ht="14.4">
       <c r="A21" s="28" t="s">
         <v>898</v>
       </c>
@@ -36389,7 +36401,7 @@
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" ht="14.4">
       <c r="A22" s="1" t="s">
         <v>923</v>
       </c>
@@ -36405,7 +36417,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" ht="14.4">
       <c r="A23" s="1" t="s">
         <v>164</v>
       </c>
@@ -36423,7 +36435,7 @@
       </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" ht="14.4">
       <c r="A24" s="11" t="s">
         <v>569</v>
       </c>
@@ -36460,7 +36472,7 @@
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" ht="14.4">
       <c r="A25" s="1" t="s">
         <v>925</v>
       </c>
@@ -36476,7 +36488,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" ht="14.4">
       <c r="A26" s="1" t="s">
         <v>927</v>
       </c>
@@ -36492,7 +36504,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" ht="14.4">
       <c r="A27" s="28" t="s">
         <v>92</v>
       </c>
@@ -36531,7 +36543,7 @@
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" ht="14.4">
       <c r="A28" s="1" t="s">
         <v>929</v>
       </c>
@@ -36549,7 +36561,7 @@
       </c>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" ht="14.4">
       <c r="A29" s="28" t="s">
         <v>94</v>
       </c>
@@ -36586,7 +36598,7 @@
       <c r="Z29" s="12"/>
       <c r="AA29" s="12"/>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" ht="14.4">
       <c r="A30" s="1" t="s">
         <v>730</v>
       </c>
@@ -36602,7 +36614,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" ht="14.4">
       <c r="A31" s="1" t="s">
         <v>156</v>
       </c>
@@ -36618,7 +36630,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" ht="14.4">
       <c r="A32" s="1" t="s">
         <v>931</v>
       </c>
@@ -36634,7 +36646,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" ht="14.4">
       <c r="A33" s="1" t="s">
         <v>129</v>
       </c>
@@ -36650,7 +36662,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" ht="14.4">
       <c r="A34" s="1" t="s">
         <v>343</v>
       </c>
@@ -36666,7 +36678,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" ht="14.4">
       <c r="A35" s="1" t="s">
         <v>268</v>
       </c>
@@ -36682,7 +36694,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" ht="14.4">
       <c r="A36" s="1" t="s">
         <v>772</v>
       </c>
@@ -36698,7 +36710,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" ht="14.4">
       <c r="A37" s="1" t="s">
         <v>451</v>
       </c>
@@ -36729,7 +36741,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" ht="14.4">
       <c r="A39" s="36" t="s">
         <v>18</v>
       </c>
@@ -36766,7 +36778,7 @@
       <c r="Z39" s="39"/>
       <c r="AA39" s="39"/>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" ht="14.4">
       <c r="A40" s="1" t="s">
         <v>28</v>
       </c>
@@ -36782,7 +36794,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" ht="14.4">
       <c r="A41" s="1" t="s">
         <v>249</v>
       </c>
@@ -36798,7 +36810,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" ht="14.4">
       <c r="A42" s="1" t="s">
         <v>176</v>
       </c>
@@ -36814,7 +36826,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" ht="14.4">
       <c r="A43" s="1" t="s">
         <v>80</v>
       </c>
@@ -36830,7 +36842,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" ht="14.4">
       <c r="A44" s="1" t="s">
         <v>412</v>
       </c>
@@ -36846,7 +36858,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" ht="14.4">
       <c r="A45" s="28" t="s">
         <v>577</v>
       </c>
@@ -36883,7 +36895,7 @@
       <c r="Z45" s="12"/>
       <c r="AA45" s="12"/>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" ht="14.4">
       <c r="A46" s="1" t="s">
         <v>443</v>
       </c>
@@ -36899,7 +36911,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" ht="14.4">
       <c r="A47" s="1" t="s">
         <v>543</v>
       </c>
@@ -36915,7 +36927,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:27" ht="14.4">
       <c r="A48" s="1" t="s">
         <v>934</v>
       </c>
@@ -36933,7 +36945,7 @@
       </c>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:27" ht="14.4">
       <c r="A49" s="1" t="s">
         <v>598</v>
       </c>
@@ -36949,7 +36961,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:27">
+    <row r="50" spans="1:27" ht="14.4">
       <c r="A50" s="1" t="s">
         <v>936</v>
       </c>
@@ -36965,7 +36977,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:27">
+    <row r="51" spans="1:27" ht="14.4">
       <c r="A51" s="28" t="s">
         <v>172</v>
       </c>
@@ -37004,7 +37016,7 @@
       <c r="Z51" s="12"/>
       <c r="AA51" s="12"/>
     </row>
-    <row r="52" spans="1:27">
+    <row r="52" spans="1:27" ht="14.4">
       <c r="A52" s="4" t="s">
         <v>938</v>
       </c>
@@ -37020,7 +37032,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:27">
+    <row r="53" spans="1:27" ht="14.4">
       <c r="A53" s="28" t="s">
         <v>151</v>
       </c>
@@ -37057,7 +37069,7 @@
       <c r="Z53" s="12"/>
       <c r="AA53" s="12"/>
     </row>
-    <row r="54" spans="1:27">
+    <row r="54" spans="1:27" ht="14.4">
       <c r="A54" s="41" t="s">
         <v>940</v>
       </c>
@@ -40906,7 +40918,7 @@
     <col min="9" max="9" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -40927,7 +40939,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="14.4">
       <c r="A2" s="45" t="s">
         <v>464</v>
       </c>
@@ -40946,7 +40958,7 @@
       <c r="F2" s="47"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="14.4">
       <c r="A3" s="45" t="s">
         <v>943</v>
       </c>
@@ -40965,7 +40977,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="14.4">
       <c r="A4" s="45" t="s">
         <v>129</v>
       </c>
@@ -40984,7 +40996,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="14.4">
       <c r="A5" s="45" t="s">
         <v>200</v>
       </c>
@@ -41003,7 +41015,7 @@
       <c r="F5" s="47"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="14.4">
       <c r="A6" s="45" t="s">
         <v>569</v>
       </c>
@@ -41022,7 +41034,7 @@
       <c r="F6" s="47"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" ht="14.4">
       <c r="A7" s="45" t="s">
         <v>60</v>
       </c>
@@ -41041,7 +41053,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="14.4">
       <c r="A8" s="45" t="s">
         <v>311</v>
       </c>
@@ -41060,7 +41072,7 @@
       <c r="F8" s="47"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="14.4">
       <c r="A9" s="45" t="s">
         <v>945</v>
       </c>
@@ -41079,7 +41091,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="14.4">
       <c r="A10" s="45" t="s">
         <v>472</v>
       </c>
@@ -41098,7 +41110,7 @@
       <c r="F10" s="47"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" ht="14.4">
       <c r="A11" s="45" t="s">
         <v>947</v>
       </c>
@@ -41117,7 +41129,7 @@
       <c r="F11" s="47"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="14.4">
       <c r="A12" s="4" t="s">
         <v>356</v>
       </c>
@@ -41132,7 +41144,7 @@
       <c r="F12" s="47"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" ht="14.4">
       <c r="A13" s="45" t="s">
         <v>22</v>
       </c>
@@ -41152,7 +41164,7 @@
       <c r="G13" s="3"/>
       <c r="I13" s="48"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="14.4">
       <c r="A14" s="45" t="s">
         <v>949</v>
       </c>
@@ -41171,7 +41183,7 @@
       <c r="F14" s="47"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" ht="14.4">
       <c r="A15" s="45" t="s">
         <v>197</v>
       </c>
@@ -41191,7 +41203,7 @@
       <c r="G15" s="3"/>
       <c r="I15" s="49"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" ht="14.4">
       <c r="A16" s="45" t="s">
         <v>951</v>
       </c>
@@ -41211,7 +41223,7 @@
       <c r="G16" s="3"/>
       <c r="I16" s="49"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" ht="14.4">
       <c r="A17" s="50" t="s">
         <v>953</v>
       </c>
@@ -41227,7 +41239,7 @@
       <c r="G17" s="3"/>
       <c r="I17" s="49"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" ht="14.4">
       <c r="A18" s="50" t="s">
         <v>954</v>
       </c>
@@ -41243,7 +41255,7 @@
       <c r="G18" s="3"/>
       <c r="I18" s="49"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" ht="14.4">
       <c r="A19" s="28" t="s">
         <v>203</v>
       </c>
@@ -41262,7 +41274,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" ht="14.4">
       <c r="A20" s="50" t="s">
         <v>955</v>
       </c>
@@ -41277,7 +41289,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" ht="14.4">
       <c r="A21" s="28" t="s">
         <v>956</v>
       </c>
@@ -41296,7 +41308,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" ht="14.4">
       <c r="A22" s="53"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -41305,7 +41317,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" ht="14.4">
       <c r="A23" s="45" t="s">
         <v>848</v>
       </c>
@@ -41322,7 +41334,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" ht="14.4">
       <c r="A24" s="28" t="s">
         <v>478</v>
       </c>
@@ -41339,7 +41351,7 @@
       <c r="F24" s="47"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" ht="14.4">
       <c r="A25" s="45" t="s">
         <v>870</v>
       </c>
@@ -41356,7 +41368,7 @@
       <c r="F25" s="47"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" ht="14.4">
       <c r="A26" s="45" t="s">
         <v>249</v>
       </c>
@@ -41373,7 +41385,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" ht="14.4">
       <c r="A27" s="28" t="s">
         <v>872</v>
       </c>
@@ -41390,7 +41402,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" ht="14.4">
       <c r="A28" s="8" t="s">
         <v>774</v>
       </c>
@@ -41407,7 +41419,7 @@
       <c r="F28" s="47"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" ht="14.4">
       <c r="A29" s="28" t="s">
         <v>958</v>
       </c>
@@ -41424,7 +41436,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" ht="14.4">
       <c r="A30" s="45" t="s">
         <v>172</v>
       </c>
@@ -41441,7 +41453,7 @@
       <c r="F30" s="47"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" ht="14.4">
       <c r="A31" s="8" t="s">
         <v>257</v>
       </c>
@@ -41458,7 +41470,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" ht="14.4">
       <c r="A32" s="8" t="s">
         <v>636</v>
       </c>
@@ -41475,7 +41487,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" ht="14.4">
       <c r="A33" s="8" t="s">
         <v>321</v>
       </c>
@@ -41492,7 +41504,7 @@
       <c r="F33" s="47"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" ht="14.4">
       <c r="A34" s="8" t="s">
         <v>960</v>
       </c>
@@ -41509,7 +41521,7 @@
       <c r="F34" s="47"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" ht="14.4">
       <c r="A35" s="28" t="s">
         <v>92</v>
       </c>
@@ -41526,7 +41538,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" ht="14.4">
       <c r="A36" s="28" t="s">
         <v>356</v>
       </c>
@@ -41543,7 +41555,7 @@
       <c r="F36" s="47"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" ht="14.4">
       <c r="A37" s="28" t="s">
         <v>98</v>
       </c>
@@ -41560,7 +41572,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" ht="14.4">
       <c r="A38" s="45" t="s">
         <v>412</v>
       </c>
@@ -41577,7 +41589,7 @@
       <c r="F38" s="47"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" ht="14.4">
       <c r="A39" s="8" t="s">
         <v>664</v>
       </c>
@@ -41594,7 +41606,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" ht="14.4">
       <c r="A40" s="28" t="s">
         <v>590</v>
       </c>
@@ -41611,7 +41623,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" ht="14.4">
       <c r="A41" s="28" t="s">
         <v>512</v>
       </c>
@@ -41628,7 +41640,7 @@
       <c r="F41" s="47"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" ht="14.4">
       <c r="A42" s="28" t="s">
         <v>762</v>
       </c>
@@ -41645,7 +41657,7 @@
       <c r="F42" s="47"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" ht="14.4">
       <c r="A43" s="45" t="s">
         <v>962</v>
       </c>

--- a/slots.xlsx
+++ b/slots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohit\Desktop\College\ISTE\ISTE-NITK_Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91EA638-CBC7-4B6C-99CD-0E6AA5110CEB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B4AE17-DE86-46B1-8959-2C3DB8D83FA7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3228" yWindow="240" windowWidth="7500" windowHeight="6000" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Crypt" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2397" uniqueCount="1050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="989">
   <si>
     <t>Nam</t>
   </si>
@@ -2947,21 +2947,9 @@
     <t>chikuk302@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Final Time </t>
-  </si>
-  <si>
     <t>Initial Time</t>
   </si>
   <si>
-    <t>Dhruv Kumar</t>
-  </si>
-  <si>
-    <t>181ME220</t>
-  </si>
-  <si>
-    <t>i.am.dhruv.20019@gmail.com</t>
-  </si>
-  <si>
     <t>Hari Shankar</t>
   </si>
   <si>
@@ -2971,9 +2959,6 @@
     <t>BHUPATHIRAJU SAI RAM KARTHIK VARMA</t>
   </si>
   <si>
-    <t>181ME116</t>
-  </si>
-  <si>
     <t>bhsairamkarthikvarma@gmail.com</t>
   </si>
   <si>
@@ -3019,178 +3004,10 @@
     <t>harikrishnansambath@gmail.com</t>
   </si>
   <si>
-    <t>181ME175</t>
-  </si>
-  <si>
-    <t>sumanth uppalapati</t>
-  </si>
-  <si>
-    <t>181ME277</t>
-  </si>
-  <si>
     <t>Rishabh Vailaya</t>
   </si>
   <si>
     <t>rishabh8prakash@gmail.com</t>
-  </si>
-  <si>
-    <t>IFDK</t>
-  </si>
-  <si>
-    <t>Nripendra Diwakar</t>
-  </si>
-  <si>
-    <t>nripendra2000@gmail.com</t>
-  </si>
-  <si>
-    <t>Nidhi Achar</t>
-  </si>
-  <si>
-    <t>nidhi.achar21@gmail.com</t>
-  </si>
-  <si>
-    <t>Sakshi Bagde</t>
-  </si>
-  <si>
-    <t>sakshi07vk@gmail.com</t>
-  </si>
-  <si>
-    <t>Adithya Ramesh</t>
-  </si>
-  <si>
-    <t>adithyarsastry@gmail.com</t>
-  </si>
-  <si>
-    <t>Shruti H</t>
-  </si>
-  <si>
-    <t>181ME275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Krishna Reddy </t>
-  </si>
-  <si>
-    <t>181ME139</t>
-  </si>
-  <si>
-    <t>bsvr966@gmail.com</t>
-  </si>
-  <si>
-    <t>181ME134</t>
-  </si>
-  <si>
-    <t>sagar sagar</t>
-  </si>
-  <si>
-    <t>sagarbuntyror@gmail.com</t>
-  </si>
-  <si>
-    <t>Kunal Satpute</t>
-  </si>
-  <si>
-    <t>181ME140</t>
-  </si>
-  <si>
-    <t>ksatpute741@gmail.com</t>
-  </si>
-  <si>
-    <t>Rohith D S</t>
-  </si>
-  <si>
-    <t>rohithgowda141@gmail.com</t>
-  </si>
-  <si>
-    <t>ILAMPARITHI J</t>
-  </si>
-  <si>
-    <t>jsparithiilam@gmail.com</t>
-  </si>
-  <si>
-    <t>Sailendra Malladi</t>
-  </si>
-  <si>
-    <t>m.sailendra2001@gmail.com</t>
-  </si>
-  <si>
-    <t>Zoohaib Anwar</t>
-  </si>
-  <si>
-    <t>faizi.anwar@gmail.com</t>
-  </si>
-  <si>
-    <t>Aditya Shrikhande</t>
-  </si>
-  <si>
-    <t>Naveen S Patil</t>
-  </si>
-  <si>
-    <t>naveenspatil03@gmail.com</t>
-  </si>
-  <si>
-    <t>Tarun Vishlavath</t>
-  </si>
-  <si>
-    <t>tarunz.skullerz5@gmail.com</t>
-  </si>
-  <si>
-    <t>Islavath Manohar</t>
-  </si>
-  <si>
-    <t>manoshashi10@gmail.com</t>
-  </si>
-  <si>
-    <t>Kirankumar S Karadi</t>
-  </si>
-  <si>
-    <t>kirankaradi2128@gmail.com</t>
-  </si>
-  <si>
-    <t>Abhijeet Santhosh</t>
-  </si>
-  <si>
-    <t>santhoshabhijeet@gmail.com</t>
-  </si>
-  <si>
-    <t>Love kumar Gupta</t>
-  </si>
-  <si>
-    <t>lovegupta307@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rahul Naraniya </t>
-  </si>
-  <si>
-    <t>181ME162</t>
-  </si>
-  <si>
-    <t>rahulnaraniya1857@gmail.com</t>
-  </si>
-  <si>
-    <t>Aakash Wilfred</t>
-  </si>
-  <si>
-    <t>aakashwilfred@gmail.con</t>
-  </si>
-  <si>
-    <t>Reddy Phani Rahul Reddy</t>
-  </si>
-  <si>
-    <t>phanirrreddy@gmail.com</t>
-  </si>
-  <si>
-    <t>Roshan Raju</t>
-  </si>
-  <si>
-    <t>roshanraju99@gmail.com</t>
-  </si>
-  <si>
-    <t>Viswa teja Cherukuri</t>
-  </si>
-  <si>
-    <t>vishwa.cherukuri@gmail.com</t>
-  </si>
-  <si>
-    <t>bh sai ram karthik varma</t>
   </si>
   <si>
     <t>917620735220</t>
@@ -3729,7 +3546,7 @@
     <col min="2" max="2" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3745,7 +3562,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="14.4">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -3759,7 +3576,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="14.4">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -3773,7 +3590,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="14.4">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -3787,7 +3604,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="14.4">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -3803,7 +3620,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="14.4">
       <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
@@ -3817,7 +3634,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="14.4">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -3831,7 +3648,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="14.4">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,7 +3662,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="14.4">
       <c r="A9" s="1" t="s">
         <v>49</v>
       </c>
@@ -3859,7 +3676,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="14.4">
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
@@ -3873,7 +3690,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="14.4">
       <c r="A11" s="1" t="s">
         <v>71</v>
       </c>
@@ -3889,7 +3706,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="14.4">
       <c r="A12" s="1" t="s">
         <v>80</v>
       </c>
@@ -3903,7 +3720,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="14.4">
       <c r="A13" s="1" t="s">
         <v>88</v>
       </c>
@@ -3917,7 +3734,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="14.4">
       <c r="A14" s="1" t="s">
         <v>94</v>
       </c>
@@ -3931,7 +3748,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="14.4">
       <c r="A15" s="1" t="s">
         <v>100</v>
       </c>
@@ -3947,7 +3764,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="14.4">
       <c r="A16" s="1" t="s">
         <v>106</v>
       </c>
@@ -3961,7 +3778,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="14.4">
       <c r="A17" s="1" t="s">
         <v>112</v>
       </c>
@@ -3975,7 +3792,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="14.4">
       <c r="A18" s="1" t="s">
         <v>117</v>
       </c>
@@ -3991,7 +3808,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="14.4">
       <c r="A19" s="1" t="s">
         <v>122</v>
       </c>
@@ -4007,7 +3824,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="14.4">
       <c r="A20" s="1" t="s">
         <v>128</v>
       </c>
@@ -4020,7 +3837,7 @@
       <c r="D20" s="1"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="14.4">
       <c r="A21" s="1" t="s">
         <v>134</v>
       </c>
@@ -4034,7 +3851,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="14.4">
       <c r="A22" s="1" t="s">
         <v>137</v>
       </c>
@@ -4048,7 +3865,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="14.4">
       <c r="A23" s="1" t="s">
         <v>141</v>
       </c>
@@ -4062,7 +3879,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="14.4">
       <c r="A24" s="1" t="s">
         <v>145</v>
       </c>
@@ -4076,7 +3893,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="14.4">
       <c r="A25" s="1" t="s">
         <v>150</v>
       </c>
@@ -4090,7 +3907,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="14.4">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -4104,7 +3921,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" ht="14.4">
       <c r="A27" s="1" t="s">
         <v>161</v>
       </c>
@@ -4118,7 +3935,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="14.4">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
@@ -4132,7 +3949,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" ht="14.4">
       <c r="A29" s="1" t="s">
         <v>167</v>
       </c>
@@ -4146,7 +3963,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" ht="14.4">
       <c r="A30" s="1" t="s">
         <v>171</v>
       </c>
@@ -4160,7 +3977,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" ht="14.4">
       <c r="A31" s="1" t="s">
         <v>175</v>
       </c>
@@ -4176,7 +3993,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" ht="14.4">
       <c r="A32" s="1" t="s">
         <v>178</v>
       </c>
@@ -4190,7 +4007,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" ht="14.4">
       <c r="A33" s="1" t="s">
         <v>183</v>
       </c>
@@ -4204,7 +4021,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" ht="14.4">
       <c r="A34" s="1" t="s">
         <v>186</v>
       </c>
@@ -4218,7 +4035,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" ht="14.4">
       <c r="A35" s="1" t="s">
         <v>144</v>
       </c>
@@ -4232,7 +4049,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" ht="14.4">
       <c r="A36" s="1" t="s">
         <v>149</v>
       </c>
@@ -4246,7 +4063,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" ht="14.4">
       <c r="A37" s="1" t="s">
         <v>196</v>
       </c>
@@ -4260,7 +4077,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" ht="14.4">
       <c r="A38" s="1" t="s">
         <v>200</v>
       </c>
@@ -4274,7 +4091,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" ht="14.4">
       <c r="A39" s="1" t="s">
         <v>207</v>
       </c>
@@ -4288,7 +4105,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" ht="14.4">
       <c r="A40" s="1" t="s">
         <v>211</v>
       </c>
@@ -4302,7 +4119,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" ht="14.4">
       <c r="A41" s="1" t="s">
         <v>217</v>
       </c>
@@ -4316,7 +4133,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" ht="14.4">
       <c r="A42" s="1" t="s">
         <v>223</v>
       </c>
@@ -4331,7 +4148,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" ht="14.4">
       <c r="A43" s="1" t="s">
         <v>241</v>
       </c>
@@ -4345,7 +4162,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" ht="14.4">
       <c r="A44" s="1" t="s">
         <v>245</v>
       </c>
@@ -4359,7 +4176,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" ht="14.4">
       <c r="A45" s="1" t="s">
         <v>250</v>
       </c>
@@ -4373,7 +4190,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" ht="14.4">
       <c r="A46" s="1" t="s">
         <v>256</v>
       </c>
@@ -4387,7 +4204,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" ht="14.4">
       <c r="A47" s="1" t="s">
         <v>262</v>
       </c>
@@ -4401,7 +4218,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" ht="14.4">
       <c r="A48" s="1" t="s">
         <v>267</v>
       </c>
@@ -4415,7 +4232,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" ht="14.4">
       <c r="A49" s="1" t="s">
         <v>272</v>
       </c>
@@ -4429,7 +4246,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" ht="14.4">
       <c r="A50" s="1" t="s">
         <v>274</v>
       </c>
@@ -4443,7 +4260,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" ht="14.4">
       <c r="A51" s="1" t="s">
         <v>277</v>
       </c>
@@ -4457,7 +4274,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" ht="14.4">
       <c r="A52" s="1" t="s">
         <v>281</v>
       </c>
@@ -4471,7 +4288,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" ht="14.4">
       <c r="A53" s="1" t="s">
         <v>285</v>
       </c>
@@ -4485,7 +4302,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" ht="14.4">
       <c r="A54" s="1" t="s">
         <v>288</v>
       </c>
@@ -4499,7 +4316,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" ht="14.4">
       <c r="A55" s="1" t="s">
         <v>291</v>
       </c>
@@ -4513,7 +4330,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" ht="14.4">
       <c r="A56" s="1" t="s">
         <v>294</v>
       </c>
@@ -4527,7 +4344,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" ht="14.4">
       <c r="A57" s="1" t="s">
         <v>212</v>
       </c>
@@ -4541,7 +4358,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" ht="14.4">
       <c r="A58" s="1" t="s">
         <v>303</v>
       </c>
@@ -4555,7 +4372,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" ht="14.4">
       <c r="A59" s="1" t="s">
         <v>308</v>
       </c>
@@ -4569,7 +4386,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" ht="14.4">
       <c r="A60" s="1" t="s">
         <v>311</v>
       </c>
@@ -4583,7 +4400,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" ht="14.4">
       <c r="A61" s="1" t="s">
         <v>313</v>
       </c>
@@ -4597,7 +4414,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" ht="14.4">
       <c r="A62" s="1" t="s">
         <v>315</v>
       </c>
@@ -4611,7 +4428,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" ht="14.4">
       <c r="A63" s="1" t="s">
         <v>318</v>
       </c>
@@ -4625,7 +4442,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" ht="14.4">
       <c r="A64" s="1" t="s">
         <v>320</v>
       </c>
@@ -4639,7 +4456,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" ht="14.4">
       <c r="A65" s="1" t="s">
         <v>322</v>
       </c>
@@ -4653,7 +4470,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" ht="14.4">
       <c r="A66" s="1" t="s">
         <v>326</v>
       </c>
@@ -4667,7 +4484,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" ht="14.4">
       <c r="A67" s="1" t="s">
         <v>330</v>
       </c>
@@ -4681,7 +4498,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" ht="14.4">
       <c r="A68" s="1" t="s">
         <v>335</v>
       </c>
@@ -4695,7 +4512,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" ht="14.4">
       <c r="A69" s="1" t="s">
         <v>198</v>
       </c>
@@ -4709,7 +4526,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" ht="14.4">
       <c r="A70" s="1" t="s">
         <v>340</v>
       </c>
@@ -4725,7 +4542,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" ht="14.4">
       <c r="A71" s="1" t="s">
         <v>120</v>
       </c>
@@ -4739,7 +4556,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" ht="14.4">
       <c r="A72" s="1" t="s">
         <v>344</v>
       </c>
@@ -4753,7 +4570,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" ht="14.4">
       <c r="A73" s="1" t="s">
         <v>348</v>
       </c>
@@ -4767,7 +4584,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" ht="14.4">
       <c r="A74" s="1" t="s">
         <v>353</v>
       </c>
@@ -4783,7 +4600,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" ht="14.4">
       <c r="A75" s="1" t="s">
         <v>356</v>
       </c>
@@ -4797,7 +4614,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" ht="14.4">
       <c r="A76" s="1" t="s">
         <v>361</v>
       </c>
@@ -4811,7 +4628,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" ht="14.4">
       <c r="A77" s="1" t="s">
         <v>366</v>
       </c>
@@ -4827,7 +4644,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" ht="14.4">
       <c r="A78" s="1" t="s">
         <v>4</v>
       </c>
@@ -4841,7 +4658,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" ht="14.4">
       <c r="A79" s="1" t="s">
         <v>373</v>
       </c>
@@ -4855,7 +4672,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" ht="14.4">
       <c r="A80" s="1" t="s">
         <v>377</v>
       </c>
@@ -4869,7 +4686,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" ht="14.4">
       <c r="A81" s="1" t="s">
         <v>370</v>
       </c>
@@ -4883,7 +4700,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" ht="14.4">
       <c r="A82" s="1" t="s">
         <v>384</v>
       </c>
@@ -4899,7 +4716,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" ht="14.4">
       <c r="A83" s="1" t="s">
         <v>388</v>
       </c>
@@ -4913,7 +4730,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" ht="14.4">
       <c r="A84" s="1" t="s">
         <v>392</v>
       </c>
@@ -4927,7 +4744,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" ht="14.4">
       <c r="A85" s="1" t="s">
         <v>396</v>
       </c>
@@ -4941,7 +4758,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" ht="14.4">
       <c r="A86" s="1" t="s">
         <v>400</v>
       </c>
@@ -4955,7 +4772,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" ht="14.4">
       <c r="A87" s="1" t="s">
         <v>405</v>
       </c>
@@ -4969,7 +4786,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" ht="14.4">
       <c r="A88" s="1" t="s">
         <v>407</v>
       </c>
@@ -4985,7 +4802,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" ht="14.4">
       <c r="A89" s="1" t="s">
         <v>409</v>
       </c>
@@ -4999,7 +4816,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" ht="14.4">
       <c r="A90" s="1" t="s">
         <v>412</v>
       </c>
@@ -5013,7 +4830,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" ht="14.4">
       <c r="A91" s="1" t="s">
         <v>417</v>
       </c>
@@ -5027,7 +4844,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" ht="14.4">
       <c r="A92" s="1" t="s">
         <v>70</v>
       </c>
@@ -5041,7 +4858,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" ht="14.4">
       <c r="A93" s="1" t="s">
         <v>424</v>
       </c>
@@ -5055,7 +4872,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" ht="14.4">
       <c r="A94" s="1" t="s">
         <v>428</v>
       </c>
@@ -5069,7 +4886,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" ht="14.4">
       <c r="A95" s="1" t="s">
         <v>432</v>
       </c>
@@ -5083,7 +4900,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" ht="14.4">
       <c r="A96" s="1" t="s">
         <v>434</v>
       </c>
@@ -5097,7 +4914,7 @@
       <c r="E96" s="4"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" ht="14.4">
       <c r="A97" s="1" t="s">
         <v>437</v>
       </c>
@@ -5111,7 +4928,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" ht="14.4">
       <c r="A98" s="1" t="s">
         <v>440</v>
       </c>
@@ -5125,7 +4942,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" ht="14.4">
       <c r="A99" s="1" t="s">
         <v>444</v>
       </c>
@@ -5139,7 +4956,7 @@
       <c r="E99" s="4"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" ht="14.4">
       <c r="A100" s="1" t="s">
         <v>447</v>
       </c>
@@ -5153,7 +4970,7 @@
       <c r="E100" s="4"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" ht="14.4">
       <c r="A101" s="1" t="s">
         <v>450</v>
       </c>
@@ -5167,7 +4984,7 @@
       <c r="E101" s="4"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" ht="14.4">
       <c r="A102" s="1" t="s">
         <v>454</v>
       </c>
@@ -5181,7 +4998,7 @@
       <c r="E102" s="4"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" ht="14.4">
       <c r="A103" s="1" t="s">
         <v>456</v>
       </c>
@@ -5195,7 +5012,7 @@
       <c r="E103" s="4"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" ht="14.4">
       <c r="A104" s="1" t="s">
         <v>460</v>
       </c>
@@ -5209,7 +5026,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" ht="14.4">
       <c r="A105" s="1" t="s">
         <v>463</v>
       </c>
@@ -5223,7 +5040,7 @@
       <c r="E105" s="4"/>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" ht="14.4">
       <c r="A106" s="1" t="s">
         <v>466</v>
       </c>
@@ -5237,7 +5054,7 @@
       <c r="E106" s="4"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" ht="14.4">
       <c r="A107" s="1" t="s">
         <v>38</v>
       </c>
@@ -5253,7 +5070,7 @@
       <c r="E107" s="4"/>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" ht="14.4">
       <c r="A108" s="1" t="s">
         <v>470</v>
       </c>
@@ -5267,7 +5084,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" ht="14.4">
       <c r="A109" s="1" t="s">
         <v>472</v>
       </c>
@@ -5281,7 +5098,7 @@
       <c r="E109" s="4"/>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" ht="14.4">
       <c r="A110" s="1" t="s">
         <v>34</v>
       </c>
@@ -5295,7 +5112,7 @@
       <c r="E110" s="4"/>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" ht="14.4">
       <c r="A111" s="1" t="s">
         <v>475</v>
       </c>
@@ -5309,7 +5126,7 @@
       <c r="E111" s="4"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" ht="14.4">
       <c r="A112" s="1" t="s">
         <v>478</v>
       </c>
@@ -5323,7 +5140,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" ht="14.4">
       <c r="A113" s="1" t="s">
         <v>482</v>
       </c>
@@ -5337,7 +5154,7 @@
       <c r="E113" s="4"/>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" ht="14.4">
       <c r="A114" s="1" t="s">
         <v>484</v>
       </c>
@@ -5351,7 +5168,7 @@
       <c r="E114" s="4"/>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" ht="14.4">
       <c r="A115" s="1" t="s">
         <v>486</v>
       </c>
@@ -5367,7 +5184,7 @@
       <c r="E115" s="4"/>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" ht="14.4">
       <c r="A116" s="1" t="s">
         <v>488</v>
       </c>
@@ -5381,7 +5198,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" ht="14.4">
       <c r="A117" s="1" t="s">
         <v>490</v>
       </c>
@@ -5397,7 +5214,7 @@
       <c r="E117" s="4"/>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" ht="14.4">
       <c r="A118" s="1" t="s">
         <v>492</v>
       </c>
@@ -5411,7 +5228,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" ht="14.4">
       <c r="A119" s="1" t="s">
         <v>495</v>
       </c>
@@ -5427,7 +5244,7 @@
       <c r="E119" s="4"/>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" ht="14.4">
       <c r="A120" s="1" t="s">
         <v>499</v>
       </c>
@@ -5441,7 +5258,7 @@
       <c r="E120" s="4"/>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" ht="14.4">
       <c r="A121" s="1" t="s">
         <v>131</v>
       </c>
@@ -5455,7 +5272,7 @@
       <c r="E121" s="4"/>
       <c r="F121" s="2"/>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" ht="14.4">
       <c r="A122" s="1" t="s">
         <v>501</v>
       </c>
@@ -5469,7 +5286,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" ht="14.4">
       <c r="A123" s="1" t="s">
         <v>503</v>
       </c>
@@ -5483,7 +5300,7 @@
       <c r="E123" s="4"/>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" ht="14.4">
       <c r="A124" s="1" t="s">
         <v>505</v>
       </c>
@@ -5497,7 +5314,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" ht="14.4">
       <c r="A125" s="1" t="s">
         <v>507</v>
       </c>
@@ -5512,7 +5329,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="2"/>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" ht="14.4">
       <c r="A126" s="1" t="s">
         <v>56</v>
       </c>
@@ -5526,7 +5343,7 @@
       <c r="E126" s="4"/>
       <c r="F126" s="2"/>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" ht="14.4">
       <c r="A127" s="1" t="s">
         <v>509</v>
       </c>
@@ -5540,7 +5357,7 @@
       <c r="E127" s="4"/>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" ht="14.4">
       <c r="A128" s="1" t="s">
         <v>511</v>
       </c>
@@ -5554,7 +5371,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="2"/>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" ht="14.4">
       <c r="A129" s="1" t="s">
         <v>194</v>
       </c>
@@ -5568,7 +5385,7 @@
       <c r="E129" s="4"/>
       <c r="F129" s="2"/>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" ht="14.4">
       <c r="A130" s="1" t="s">
         <v>334</v>
       </c>
@@ -5584,7 +5401,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="2"/>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" ht="14.4">
       <c r="A131" s="1" t="s">
         <v>513</v>
       </c>
@@ -5598,7 +5415,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="2"/>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" ht="14.4">
       <c r="A132" s="1" t="s">
         <v>515</v>
       </c>
@@ -5612,7 +5429,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="2"/>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" ht="14.4">
       <c r="A133" s="1" t="s">
         <v>517</v>
       </c>
@@ -5626,7 +5443,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="2"/>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" ht="14.4">
       <c r="A134" s="1" t="s">
         <v>519</v>
       </c>
@@ -5640,7 +5457,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="2"/>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" ht="14.4">
       <c r="A135" s="1" t="s">
         <v>521</v>
       </c>
@@ -5654,7 +5471,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="2"/>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" ht="14.4">
       <c r="A136" s="1" t="s">
         <v>474</v>
       </c>
@@ -5668,7 +5485,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="2"/>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" ht="14.4">
       <c r="A137" s="1" t="s">
         <v>523</v>
       </c>
@@ -5682,7 +5499,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="2"/>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" ht="14.4">
       <c r="A138" s="1" t="s">
         <v>525</v>
       </c>
@@ -5696,7 +5513,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="2"/>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" ht="14.4">
       <c r="A139" s="1" t="s">
         <v>527</v>
       </c>
@@ -5710,7 +5527,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="2"/>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" ht="14.4">
       <c r="A140" s="1" t="s">
         <v>529</v>
       </c>
@@ -5724,7 +5541,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="2"/>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" ht="14.4">
       <c r="A141" s="1" t="s">
         <v>531</v>
       </c>
@@ -5738,7 +5555,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="2"/>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" ht="14.4">
       <c r="A142" s="1" t="s">
         <v>328</v>
       </c>
@@ -5752,7 +5569,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="2"/>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" ht="14.4">
       <c r="A143" s="1" t="s">
         <v>533</v>
       </c>
@@ -5766,7 +5583,7 @@
       <c r="E143" s="4"/>
       <c r="F143" s="2"/>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" ht="14.4">
       <c r="A144" s="1" t="s">
         <v>535</v>
       </c>
@@ -5780,7 +5597,7 @@
       <c r="E144" s="4"/>
       <c r="F144" s="2"/>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" ht="14.4">
       <c r="A145" s="1" t="s">
         <v>537</v>
       </c>
@@ -5794,7 +5611,7 @@
       <c r="E145" s="4"/>
       <c r="F145" s="2"/>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" ht="14.4">
       <c r="A146" s="1" t="s">
         <v>48</v>
       </c>
@@ -5808,7 +5625,7 @@
       <c r="E146" s="4"/>
       <c r="F146" s="2"/>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" ht="14.4">
       <c r="A147" s="1" t="s">
         <v>540</v>
       </c>
@@ -5822,7 +5639,7 @@
       <c r="E147" s="4"/>
       <c r="F147" s="2"/>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" ht="14.4">
       <c r="A148" s="1" t="s">
         <v>542</v>
       </c>
@@ -5838,7 +5655,7 @@
       <c r="E148" s="4"/>
       <c r="F148" s="2"/>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" ht="14.4">
       <c r="A149" s="1" t="s">
         <v>544</v>
       </c>
@@ -5852,7 +5669,7 @@
       <c r="E149" s="4"/>
       <c r="F149" s="2"/>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" ht="14.4">
       <c r="A150" s="1" t="s">
         <v>546</v>
       </c>
@@ -5866,7 +5683,7 @@
       <c r="E150" s="4"/>
       <c r="F150" s="2"/>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" ht="14.4">
       <c r="A151" s="1" t="s">
         <v>548</v>
       </c>
@@ -5882,7 +5699,7 @@
       <c r="E151" s="4"/>
       <c r="F151" s="2"/>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" ht="14.4">
       <c r="A152" s="1" t="s">
         <v>550</v>
       </c>
@@ -5896,7 +5713,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="2"/>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" ht="14.4">
       <c r="A153" s="1" t="s">
         <v>552</v>
       </c>
@@ -5910,7 +5727,7 @@
       <c r="E153" s="4"/>
       <c r="F153" s="2"/>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" ht="14.4">
       <c r="A154" s="1" t="s">
         <v>554</v>
       </c>
@@ -5924,7 +5741,7 @@
       <c r="E154" s="4"/>
       <c r="F154" s="2"/>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" ht="14.4">
       <c r="A155" s="1" t="s">
         <v>556</v>
       </c>
@@ -5938,7 +5755,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="2"/>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" ht="14.4">
       <c r="A156" s="1" t="s">
         <v>558</v>
       </c>
@@ -5952,7 +5769,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="2"/>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" ht="14.4">
       <c r="A157" s="1" t="s">
         <v>560</v>
       </c>
@@ -5966,7 +5783,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="2"/>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" ht="14.4">
       <c r="A158" s="1" t="s">
         <v>562</v>
       </c>
@@ -5979,7 +5796,7 @@
       <c r="D158" s="1"/>
       <c r="F158" s="2"/>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" ht="14.4">
       <c r="A159" s="1" t="s">
         <v>564</v>
       </c>
@@ -5993,7 +5810,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="2"/>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" ht="14.4">
       <c r="A160" s="1" t="s">
         <v>566</v>
       </c>
@@ -6007,7 +5824,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="2"/>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" ht="14.4">
       <c r="A161" s="1" t="s">
         <v>568</v>
       </c>
@@ -6021,7 +5838,7 @@
       <c r="E161" s="4"/>
       <c r="F161" s="2"/>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" ht="14.4">
       <c r="A162" s="1" t="s">
         <v>570</v>
       </c>
@@ -6035,7 +5852,7 @@
       <c r="E162" s="4"/>
       <c r="F162" s="2"/>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" ht="14.4">
       <c r="A163" s="1" t="s">
         <v>573</v>
       </c>
@@ -6051,7 +5868,7 @@
       <c r="E163" s="4"/>
       <c r="F163" s="2"/>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" ht="14.4">
       <c r="A164" s="1" t="s">
         <v>576</v>
       </c>
@@ -6065,7 +5882,7 @@
       <c r="E164" s="4"/>
       <c r="F164" s="2"/>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" ht="14.4">
       <c r="A165" s="1" t="s">
         <v>578</v>
       </c>
@@ -6079,7 +5896,7 @@
       <c r="E165" s="4"/>
       <c r="F165" s="2"/>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" ht="14.4">
       <c r="A166" s="1" t="s">
         <v>580</v>
       </c>
@@ -6093,7 +5910,7 @@
       <c r="E166" s="4"/>
       <c r="F166" s="2"/>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" ht="14.4">
       <c r="A167" s="1" t="s">
         <v>582</v>
       </c>
@@ -6109,7 +5926,7 @@
       <c r="E167" s="4"/>
       <c r="F167" s="2"/>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" ht="14.4">
       <c r="A168" s="1" t="s">
         <v>584</v>
       </c>
@@ -6123,7 +5940,7 @@
       <c r="E168" s="4"/>
       <c r="F168" s="2"/>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" ht="14.4">
       <c r="A169" s="1" t="s">
         <v>586</v>
       </c>
@@ -6137,7 +5954,7 @@
       <c r="E169" s="4"/>
       <c r="F169" s="2"/>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" ht="14.4">
       <c r="A170" s="1" t="s">
         <v>588</v>
       </c>
@@ -6151,7 +5968,7 @@
       <c r="E170" s="4"/>
       <c r="F170" s="2"/>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" ht="14.4">
       <c r="A171" s="1" t="s">
         <v>590</v>
       </c>
@@ -6165,7 +5982,7 @@
       <c r="E171" s="4"/>
       <c r="F171" s="2"/>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" ht="14.4">
       <c r="A172" s="1" t="s">
         <v>592</v>
       </c>
@@ -6179,7 +5996,7 @@
       <c r="E172" s="4"/>
       <c r="F172" s="2"/>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" ht="14.4">
       <c r="A173" s="1" t="s">
         <v>594</v>
       </c>
@@ -6193,7 +6010,7 @@
       <c r="E173" s="4"/>
       <c r="F173" s="2"/>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" ht="14.4">
       <c r="A174" s="1" t="s">
         <v>398</v>
       </c>
@@ -6207,7 +6024,7 @@
       <c r="E174" s="4"/>
       <c r="F174" s="2"/>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" ht="14.4">
       <c r="A175" s="1" t="s">
         <v>596</v>
       </c>
@@ -6221,7 +6038,7 @@
       <c r="E175" s="4"/>
       <c r="F175" s="2"/>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" ht="14.4">
       <c r="A176" s="1" t="s">
         <v>598</v>
       </c>
@@ -6235,7 +6052,7 @@
       <c r="E176" s="4"/>
       <c r="F176" s="2"/>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" ht="14.4">
       <c r="A177" s="1" t="s">
         <v>600</v>
       </c>
@@ -6249,7 +6066,7 @@
       <c r="E177" s="4"/>
       <c r="F177" s="2"/>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" ht="14.4">
       <c r="A178" s="1" t="s">
         <v>602</v>
       </c>
@@ -6263,7 +6080,7 @@
       <c r="E178" s="4"/>
       <c r="F178" s="2"/>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" ht="14.4">
       <c r="A179" s="1" t="s">
         <v>604</v>
       </c>
@@ -6277,7 +6094,7 @@
       <c r="E179" s="4"/>
       <c r="F179" s="2"/>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" ht="14.4">
       <c r="A180" s="1" t="s">
         <v>606</v>
       </c>
@@ -6293,7 +6110,7 @@
       <c r="E180" s="4"/>
       <c r="F180" s="2"/>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" ht="14.4">
       <c r="A181" s="1" t="s">
         <v>204</v>
       </c>
@@ -6307,7 +6124,7 @@
       <c r="E181" s="4"/>
       <c r="F181" s="2"/>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" ht="14.4">
       <c r="A182" s="1" t="s">
         <v>116</v>
       </c>
@@ -6321,7 +6138,7 @@
       <c r="E182" s="4"/>
       <c r="F182" s="2"/>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" ht="14.4">
       <c r="A183" s="1" t="s">
         <v>608</v>
       </c>
@@ -6335,7 +6152,7 @@
       <c r="E183" s="4"/>
       <c r="F183" s="2"/>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" ht="14.4">
       <c r="A184" s="1" t="s">
         <v>610</v>
       </c>
@@ -6349,7 +6166,7 @@
       <c r="E184" s="4"/>
       <c r="F184" s="2"/>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" ht="14.4">
       <c r="A185" s="1" t="s">
         <v>452</v>
       </c>
@@ -6363,7 +6180,7 @@
       <c r="E185" s="4"/>
       <c r="F185" s="2"/>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" ht="14.4">
       <c r="A186" s="1" t="s">
         <v>612</v>
       </c>
@@ -6377,7 +6194,7 @@
       <c r="E186" s="4"/>
       <c r="F186" s="2"/>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" ht="14.4">
       <c r="A187" s="1" t="s">
         <v>380</v>
       </c>
@@ -6391,7 +6208,7 @@
       <c r="E187" s="4"/>
       <c r="F187" s="2"/>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" ht="14.4">
       <c r="A188" s="1" t="s">
         <v>346</v>
       </c>
@@ -6405,7 +6222,7 @@
       <c r="E188" s="4"/>
       <c r="F188" s="2"/>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" ht="14.4">
       <c r="A189" s="1" t="s">
         <v>614</v>
       </c>
@@ -6419,7 +6236,7 @@
       <c r="E189" s="4"/>
       <c r="F189" s="2"/>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" ht="14.4">
       <c r="A190" s="1" t="s">
         <v>616</v>
       </c>
@@ -6433,7 +6250,7 @@
       <c r="E190" s="4"/>
       <c r="F190" s="2"/>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" ht="14.4">
       <c r="A191" s="1" t="s">
         <v>306</v>
       </c>
@@ -6447,7 +6264,7 @@
       <c r="E191" s="4"/>
       <c r="F191" s="2"/>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" ht="14.4">
       <c r="A192" s="1" t="s">
         <v>618</v>
       </c>
@@ -6461,7 +6278,7 @@
       <c r="E192" s="4"/>
       <c r="F192" s="2"/>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" ht="14.4">
       <c r="A193" s="1" t="s">
         <v>620</v>
       </c>
@@ -6475,7 +6292,7 @@
       <c r="E193" s="4"/>
       <c r="F193" s="2"/>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" ht="14.4">
       <c r="A194" s="1" t="s">
         <v>622</v>
       </c>
@@ -6489,7 +6306,7 @@
       <c r="E194" s="4"/>
       <c r="F194" s="2"/>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" ht="14.4">
       <c r="A195" s="1" t="s">
         <v>624</v>
       </c>
@@ -6503,7 +6320,7 @@
       <c r="E195" s="4"/>
       <c r="F195" s="2"/>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" ht="14.4">
       <c r="A196" s="1" t="s">
         <v>626</v>
       </c>
@@ -6517,7 +6334,7 @@
       <c r="E196" s="4"/>
       <c r="F196" s="2"/>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" ht="14.4">
       <c r="A197" s="1" t="s">
         <v>628</v>
       </c>
@@ -6531,7 +6348,7 @@
       <c r="E197" s="4"/>
       <c r="F197" s="2"/>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" ht="14.4">
       <c r="A198" s="1" t="s">
         <v>446</v>
       </c>
@@ -6545,7 +6362,7 @@
       <c r="E198" s="4"/>
       <c r="F198" s="2"/>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" ht="14.4">
       <c r="A199" s="1" t="s">
         <v>631</v>
       </c>
@@ -6559,7 +6376,7 @@
       <c r="E199" s="4"/>
       <c r="F199" s="2"/>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" ht="14.4">
       <c r="A200" s="1" t="s">
         <v>633</v>
       </c>
@@ -6573,7 +6390,7 @@
       <c r="E200" s="4"/>
       <c r="F200" s="2"/>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" ht="14.4">
       <c r="A201" s="1" t="s">
         <v>635</v>
       </c>
@@ -6587,7 +6404,7 @@
       <c r="E201" s="4"/>
       <c r="F201" s="2"/>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" ht="14.4">
       <c r="A202" s="1" t="s">
         <v>302</v>
       </c>
@@ -6601,7 +6418,7 @@
       <c r="E202" s="4"/>
       <c r="F202" s="2"/>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" ht="14.4">
       <c r="A203" s="1" t="s">
         <v>637</v>
       </c>
@@ -6615,7 +6432,7 @@
       <c r="E203" s="4"/>
       <c r="F203" s="2"/>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" ht="14.4">
       <c r="A204" s="1" t="s">
         <v>640</v>
       </c>
@@ -6629,7 +6446,7 @@
       <c r="E204" s="4"/>
       <c r="F204" s="2"/>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" ht="14.4">
       <c r="A205" s="1" t="s">
         <v>642</v>
       </c>
@@ -6643,7 +6460,7 @@
       <c r="E205" s="4"/>
       <c r="F205" s="2"/>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" ht="14.4">
       <c r="A206" s="1" t="s">
         <v>644</v>
       </c>
@@ -6657,7 +6474,7 @@
       <c r="E206" s="4"/>
       <c r="F206" s="2"/>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" ht="14.4">
       <c r="A207" s="1" t="s">
         <v>646</v>
       </c>
@@ -6671,7 +6488,7 @@
       <c r="E207" s="4"/>
       <c r="F207" s="2"/>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" ht="14.4">
       <c r="A208" s="1" t="s">
         <v>648</v>
       </c>
@@ -6687,7 +6504,7 @@
       <c r="E208" s="4"/>
       <c r="F208" s="2"/>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" ht="14.4">
       <c r="A209" s="1" t="s">
         <v>331</v>
       </c>
@@ -6701,7 +6518,7 @@
       <c r="E209" s="4"/>
       <c r="F209" s="2"/>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" ht="14.4">
       <c r="A210" s="1" t="s">
         <v>650</v>
       </c>
@@ -6715,7 +6532,7 @@
       <c r="E210" s="4"/>
       <c r="F210" s="2"/>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" ht="14.4">
       <c r="A211" s="1" t="s">
         <v>652</v>
       </c>
@@ -6729,7 +6546,7 @@
       <c r="E211" s="4"/>
       <c r="F211" s="2"/>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" ht="14.4">
       <c r="A212" s="1" t="s">
         <v>654</v>
       </c>
@@ -6743,7 +6560,7 @@
       <c r="E212" s="4"/>
       <c r="F212" s="2"/>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" ht="14.4">
       <c r="A213" s="1" t="s">
         <v>656</v>
       </c>
@@ -6759,7 +6576,7 @@
       <c r="E213" s="4"/>
       <c r="F213" s="2"/>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" ht="14.4">
       <c r="A214" s="1" t="s">
         <v>658</v>
       </c>
@@ -6773,7 +6590,7 @@
       <c r="E214" s="4"/>
       <c r="F214" s="2"/>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" ht="14.4">
       <c r="A215" s="1" t="s">
         <v>661</v>
       </c>
@@ -6787,7 +6604,7 @@
       <c r="E215" s="4"/>
       <c r="F215" s="2"/>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" ht="14.4">
       <c r="A216" s="1" t="s">
         <v>663</v>
       </c>
@@ -6801,7 +6618,7 @@
       <c r="E216" s="4"/>
       <c r="F216" s="2"/>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" ht="14.4">
       <c r="A217" s="1" t="s">
         <v>665</v>
       </c>
@@ -6815,7 +6632,7 @@
       <c r="E217" s="4"/>
       <c r="F217" s="2"/>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" ht="14.4">
       <c r="A218" s="1" t="s">
         <v>667</v>
       </c>
@@ -6831,7 +6648,7 @@
       <c r="E218" s="4"/>
       <c r="F218" s="2"/>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" ht="14.4">
       <c r="A219" s="1" t="s">
         <v>669</v>
       </c>
@@ -6845,7 +6662,7 @@
       <c r="E219" s="4"/>
       <c r="F219" s="2"/>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" ht="14.4">
       <c r="A220" s="1" t="s">
         <v>673</v>
       </c>
@@ -6859,7 +6676,7 @@
       <c r="E220" s="4"/>
       <c r="F220" s="2"/>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" ht="14.4">
       <c r="A221" s="1" t="s">
         <v>676</v>
       </c>
@@ -9987,7 +9804,7 @@
       <c r="E999" s="18"/>
       <c r="F999" s="18"/>
     </row>
-    <row r="1000" spans="5:6">
+    <row r="1000" spans="5:6" ht="14.4">
       <c r="E1000" s="4"/>
       <c r="F1000" s="18"/>
     </row>
@@ -10001,9 +9818,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1003"/>
+  <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -10013,7 +9832,7 @@
     <col min="8" max="8" width="10.33203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" ht="14.4">
       <c r="A1" s="38" t="s">
         <v>4</v>
       </c>
@@ -10026,15 +9845,11 @@
       <c r="D1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="39" t="s">
-        <v>967</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>11</v>
-      </c>
+      <c r="E1" s="39"/>
+      <c r="F1" s="41"/>
       <c r="G1" s="42"/>
       <c r="H1" s="39" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="I1" s="39"/>
       <c r="J1" s="41"/>
@@ -10055,7 +9870,7 @@
       <c r="Y1" s="42"/>
       <c r="Z1" s="42"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" ht="14.4">
       <c r="A2" s="1" t="s">
         <v>131</v>
       </c>
@@ -10068,10 +9883,7 @@
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="55">
-        <f t="shared" ref="E2:E36" si="0">H2+TIME(4,30,0)</f>
-        <v>0.77083333333333337</v>
-      </c>
+      <c r="E2" s="55"/>
       <c r="F2" s="2"/>
       <c r="H2" s="56">
         <v>0.58333333333333337</v>
@@ -10079,7 +9891,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" ht="14.4">
       <c r="A3" s="1" t="s">
         <v>576</v>
       </c>
@@ -10092,10 +9904,7 @@
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="55">
-        <f t="shared" si="0"/>
-        <v>0.77083333333333337</v>
-      </c>
+      <c r="E3" s="55"/>
       <c r="F3" s="2"/>
       <c r="H3" s="56">
         <v>0.58333333333333337</v>
@@ -10103,22 +9912,21 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="57" t="s">
-        <v>969</v>
-      </c>
-      <c r="B4" s="57" t="s">
-        <v>970</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>971</v>
+    <row r="4" spans="1:26" ht="14.4">
+      <c r="A4" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B4" s="1">
+        <v>9902924333</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="55">
-        <f t="shared" si="0"/>
-        <v>0.77083333333333337</v>
+      <c r="E4" s="55" t="s">
+        <v>25</v>
       </c>
       <c r="F4" s="2"/>
       <c r="H4" s="56">
@@ -10127,23 +9935,20 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" ht="14.4">
       <c r="A5" s="1" t="s">
-        <v>470</v>
+        <v>968</v>
       </c>
       <c r="B5" s="1">
-        <v>9902924333</v>
+        <v>9497276861</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>471</v>
+        <v>969</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="55">
-        <f t="shared" si="0"/>
-        <v>0.77083333333333337</v>
-      </c>
+      <c r="E5" s="55"/>
       <c r="F5" s="2"/>
       <c r="H5" s="56">
         <v>0.58333333333333337</v>
@@ -10151,22 +9956,21 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="1" t="s">
-        <v>972</v>
-      </c>
-      <c r="B6" s="1">
-        <v>9497276861</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>973</v>
+    <row r="6" spans="1:26" ht="14.4">
+      <c r="A6" s="51" t="s">
+        <v>970</v>
+      </c>
+      <c r="B6" s="57">
+        <v>9381570119</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>971</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="55">
-        <f t="shared" si="0"/>
-        <v>0.77083333333333337</v>
+      <c r="E6" s="55" t="s">
+        <v>25</v>
       </c>
       <c r="F6" s="2"/>
       <c r="H6" s="56">
@@ -10175,46 +9979,44 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="51" t="s">
-        <v>974</v>
-      </c>
-      <c r="B7" s="57" t="s">
-        <v>975</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>976</v>
+    <row r="7" spans="1:26" ht="14.4">
+      <c r="A7" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="B7" s="1">
+        <v>9620990777</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>973</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="55">
-        <f t="shared" si="0"/>
-        <v>0.77083333333333337</v>
+      <c r="E7" s="55" t="s">
+        <v>25</v>
       </c>
       <c r="F7" s="2"/>
       <c r="H7" s="56">
-        <v>0.58333333333333337</v>
+        <v>0.61458333333333337</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" ht="14.4">
       <c r="A8" s="1" t="s">
-        <v>977</v>
+        <v>828</v>
       </c>
       <c r="B8" s="1">
-        <v>9620990777</v>
+        <v>7976310972</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>978</v>
+        <v>829</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="55">
-        <f t="shared" si="0"/>
-        <v>0.80208333333333337</v>
+      <c r="E8" s="55" t="s">
+        <v>25</v>
       </c>
       <c r="F8" s="2"/>
       <c r="H8" s="56">
@@ -10223,23 +10025,20 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" ht="14.4">
       <c r="A9" s="1" t="s">
-        <v>828</v>
+        <v>112</v>
       </c>
       <c r="B9" s="1">
-        <v>7976310972</v>
+        <v>9448030452</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>829</v>
+        <v>113</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="55">
-        <f t="shared" si="0"/>
-        <v>0.80208333333333337</v>
-      </c>
+      <c r="E9" s="55"/>
       <c r="F9" s="2"/>
       <c r="H9" s="56">
         <v>0.61458333333333337</v>
@@ -10247,22 +10046,21 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" ht="14.4">
       <c r="A10" s="1" t="s">
-        <v>112</v>
+        <v>494</v>
       </c>
       <c r="B10" s="1">
-        <v>9448030452</v>
+        <v>8898835735</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>113</v>
+        <v>496</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="55">
-        <f t="shared" si="0"/>
-        <v>0.80208333333333337</v>
+      <c r="E10" s="55" t="s">
+        <v>25</v>
       </c>
       <c r="F10" s="2"/>
       <c r="H10" s="56">
@@ -10271,23 +10069,20 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" ht="14.4">
       <c r="A11" s="1" t="s">
-        <v>494</v>
+        <v>137</v>
       </c>
       <c r="B11" s="1">
-        <v>8898835735</v>
+        <v>8500436531</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>496</v>
+        <v>139</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="55">
-        <f t="shared" si="0"/>
-        <v>0.80208333333333337</v>
-      </c>
+      <c r="E11" s="55"/>
       <c r="F11" s="2"/>
       <c r="H11" s="56">
         <v>0.61458333333333337</v>
@@ -10295,23 +10090,20 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" ht="14.4">
       <c r="A12" s="1" t="s">
-        <v>137</v>
+        <v>764</v>
       </c>
       <c r="B12" s="1">
-        <v>8500436531</v>
+        <v>8867743990</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>139</v>
+        <v>765</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="55">
-        <f t="shared" si="0"/>
-        <v>0.80208333333333337</v>
-      </c>
+      <c r="E12" s="55"/>
       <c r="F12" s="2"/>
       <c r="H12" s="56">
         <v>0.61458333333333337</v>
@@ -10319,71 +10111,67 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" ht="14.4">
       <c r="A13" s="1" t="s">
-        <v>764</v>
+        <v>252</v>
       </c>
       <c r="B13" s="1">
-        <v>8867743990</v>
+        <v>8874206810</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>765</v>
+        <v>254</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="55">
-        <f t="shared" si="0"/>
-        <v>0.80208333333333337</v>
+      <c r="E13" s="55" t="s">
+        <v>25</v>
       </c>
       <c r="F13" s="2"/>
       <c r="H13" s="56">
-        <v>0.61458333333333337</v>
+        <v>0.64236111111111116</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" ht="14.4">
       <c r="A14" s="1" t="s">
-        <v>252</v>
+        <v>941</v>
       </c>
       <c r="B14" s="1">
-        <v>8874206810</v>
+        <v>8095179909</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>254</v>
+        <v>942</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="55">
-        <f t="shared" si="0"/>
-        <v>0.82986111111111116</v>
+      <c r="E14" s="55" t="s">
+        <v>25</v>
       </c>
       <c r="F14" s="2"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="56">
         <v>0.64236111111111116</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" ht="14.4">
       <c r="A15" s="1" t="s">
-        <v>941</v>
+        <v>204</v>
       </c>
       <c r="B15" s="1">
-        <v>8095179909</v>
+        <v>9611586832</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>942</v>
+        <v>205</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="55">
-        <f t="shared" si="0"/>
-        <v>0.82986111111111116</v>
-      </c>
+      <c r="E15" s="55"/>
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
       <c r="H15" s="56">
@@ -10392,47 +10180,42 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" ht="14.4">
       <c r="A16" s="1" t="s">
-        <v>204</v>
+        <v>974</v>
       </c>
       <c r="B16" s="1">
-        <v>9611586832</v>
+        <v>9591150022</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>205</v>
+        <v>975</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="55">
-        <f t="shared" si="0"/>
-        <v>0.82986111111111116</v>
-      </c>
+      <c r="E16" s="55"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="3"/>
       <c r="H16" s="56">
         <v>0.64236111111111116</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" ht="14.4">
       <c r="A17" s="1" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="B17" s="1">
-        <v>9591150022</v>
+        <v>6354254151</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="55">
-        <f t="shared" si="0"/>
-        <v>0.82986111111111116</v>
+      <c r="E17" s="55" t="s">
+        <v>25</v>
       </c>
       <c r="F17" s="2"/>
       <c r="H17" s="56">
@@ -10441,23 +10224,20 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" ht="14.4">
       <c r="A18" s="1" t="s">
-        <v>981</v>
+        <v>338</v>
       </c>
       <c r="B18" s="1">
-        <v>6354254151</v>
+        <v>9930049557</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>982</v>
+        <v>339</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="55">
-        <f t="shared" si="0"/>
-        <v>0.82986111111111116</v>
-      </c>
+      <c r="E18" s="55"/>
       <c r="F18" s="2"/>
       <c r="H18" s="56">
         <v>0.64236111111111116</v>
@@ -10465,47 +10245,42 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" ht="14.4">
       <c r="A19" s="1" t="s">
-        <v>338</v>
+        <v>978</v>
       </c>
       <c r="B19" s="1">
-        <v>9930049557</v>
+        <v>9573226722</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>339</v>
+        <v>979</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="55">
-        <f t="shared" si="0"/>
-        <v>0.82986111111111116</v>
-      </c>
+      <c r="E19" s="55"/>
       <c r="F19" s="2"/>
+      <c r="G19" s="3"/>
       <c r="H19" s="56">
-        <v>0.64236111111111116</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" ht="14.4">
       <c r="A20" s="1" t="s">
-        <v>983</v>
+        <v>124</v>
       </c>
       <c r="B20" s="1">
-        <v>9573226722</v>
+        <v>6376263962</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>984</v>
+        <v>126</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="55">
-        <f t="shared" si="0"/>
-        <v>0.85416666666666663</v>
-      </c>
+      <c r="E20" s="55"/>
       <c r="F20" s="2"/>
       <c r="G20" s="3"/>
       <c r="H20" s="56">
@@ -10514,47 +10289,42 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" ht="14.4">
       <c r="A21" s="1" t="s">
-        <v>124</v>
+        <v>937</v>
       </c>
       <c r="B21" s="1">
-        <v>6376263962</v>
+        <v>9008243777</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>126</v>
+        <v>938</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="55">
-        <f t="shared" si="0"/>
-        <v>0.85416666666666663</v>
-      </c>
+      <c r="E21" s="55"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="3"/>
       <c r="H21" s="56">
         <v>0.66666666666666663</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" ht="14.4">
       <c r="A22" s="1" t="s">
-        <v>937</v>
+        <v>980</v>
       </c>
       <c r="B22" s="1">
-        <v>9008243777</v>
+        <v>6377331976</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>938</v>
+        <v>981</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="55">
-        <f t="shared" si="0"/>
-        <v>0.85416666666666663</v>
+      <c r="E22" s="55" t="s">
+        <v>25</v>
       </c>
       <c r="F22" s="2"/>
       <c r="H22" s="56">
@@ -10563,23 +10333,20 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" ht="14.4">
       <c r="A23" s="1" t="s">
-        <v>985</v>
+        <v>95</v>
       </c>
       <c r="B23" s="1">
-        <v>6377331976</v>
+        <v>7022618504</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>986</v>
+        <v>98</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="55">
-        <f t="shared" si="0"/>
-        <v>0.85416666666666663</v>
-      </c>
+      <c r="E23" s="55"/>
       <c r="F23" s="2"/>
       <c r="H23" s="56">
         <v>0.66666666666666663</v>
@@ -10587,47 +10354,43 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" ht="14.4">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>982</v>
       </c>
       <c r="B24" s="1">
-        <v>7022618504</v>
+        <v>9148172953</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>98</v>
+        <v>983</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="55">
-        <f t="shared" si="0"/>
-        <v>0.85416666666666663</v>
+      <c r="E24" s="55" t="s">
+        <v>25</v>
       </c>
       <c r="F24" s="2"/>
       <c r="H24" s="56">
-        <v>0.66666666666666663</v>
+        <v>0.6875</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" ht="14.4">
       <c r="A25" s="1" t="s">
-        <v>987</v>
+        <v>100</v>
       </c>
       <c r="B25" s="1">
-        <v>9148172953</v>
+        <v>8507619260</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>988</v>
+        <v>101</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="55">
-        <f t="shared" si="0"/>
-        <v>0.875</v>
-      </c>
+      <c r="E25" s="55"/>
       <c r="F25" s="2"/>
       <c r="H25" s="56">
         <v>0.6875</v>
@@ -10635,23 +10398,20 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" ht="14.4">
       <c r="A26" s="1" t="s">
-        <v>100</v>
+        <v>984</v>
       </c>
       <c r="B26" s="1">
-        <v>8507619260</v>
+        <v>9496077108</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>101</v>
+        <v>985</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="55">
-        <f t="shared" si="0"/>
-        <v>0.875</v>
-      </c>
+      <c r="E26" s="55"/>
       <c r="F26" s="2"/>
       <c r="H26" s="56">
         <v>0.6875</v>
@@ -10659,23 +10419,20 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" ht="14.4">
       <c r="A27" s="1" t="s">
-        <v>989</v>
+        <v>939</v>
       </c>
       <c r="B27" s="1">
-        <v>9496077108</v>
+        <v>8129866312</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>990</v>
+        <v>940</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="55">
-        <f t="shared" si="0"/>
-        <v>0.875</v>
-      </c>
+      <c r="E27" s="55"/>
       <c r="F27" s="2"/>
       <c r="H27" s="56">
         <v>0.6875</v>
@@ -10683,22 +10440,21 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" ht="14.4">
       <c r="A28" s="1" t="s">
-        <v>939</v>
+        <v>663</v>
       </c>
       <c r="B28" s="1">
-        <v>8129866312</v>
+        <v>9449882459</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>940</v>
+        <v>664</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="55">
-        <f t="shared" si="0"/>
-        <v>0.875</v>
+      <c r="E28" s="55" t="s">
+        <v>25</v>
       </c>
       <c r="F28" s="2"/>
       <c r="H28" s="56">
@@ -10707,47 +10463,41 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" ht="14.4">
       <c r="A29" s="1" t="s">
-        <v>663</v>
+        <v>515</v>
       </c>
       <c r="B29" s="1">
-        <v>9449882459</v>
+        <v>9166017069</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>664</v>
+        <v>516</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="55">
-        <f t="shared" si="0"/>
-        <v>0.875</v>
-      </c>
+      <c r="E29" s="55"/>
       <c r="F29" s="2"/>
       <c r="H29" s="56">
-        <v>0.6875</v>
+        <v>0.70486111111111116</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" ht="14.4">
       <c r="A30" s="1" t="s">
-        <v>515</v>
+        <v>161</v>
       </c>
       <c r="B30" s="1">
-        <v>9166017069</v>
+        <v>9021762048</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>516</v>
+        <v>162</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="55">
-        <f t="shared" si="0"/>
-        <v>0.89236111111111116</v>
-      </c>
+      <c r="E30" s="55"/>
       <c r="F30" s="2"/>
       <c r="H30" s="56">
         <v>0.70486111111111116</v>
@@ -10755,22 +10505,21 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" ht="14.4">
       <c r="A31" s="1" t="s">
-        <v>161</v>
+        <v>335</v>
       </c>
       <c r="B31" s="1">
-        <v>9021762048</v>
+        <v>8017883404</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>162</v>
+        <v>337</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="55">
-        <f t="shared" si="0"/>
-        <v>0.89236111111111116</v>
+      <c r="E31" s="55" t="s">
+        <v>25</v>
       </c>
       <c r="F31" s="2"/>
       <c r="H31" s="56">
@@ -10779,22 +10528,21 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B32" s="1">
-        <v>8017883404</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>337</v>
+    <row r="32" spans="1:10" ht="14.4">
+      <c r="A32" s="57" t="s">
+        <v>588</v>
+      </c>
+      <c r="B32" s="57">
+        <v>9623830564</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>589</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="55">
-        <f t="shared" si="0"/>
-        <v>0.89236111111111116</v>
+      <c r="E32" s="55" t="s">
+        <v>25</v>
       </c>
       <c r="F32" s="2"/>
       <c r="H32" s="56">
@@ -10803,1415 +10551,859 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:26">
-      <c r="A33" s="57" t="s">
-        <v>588</v>
-      </c>
-      <c r="B33" s="57" t="s">
-        <v>991</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>589</v>
+    <row r="33" spans="1:26" ht="14.4">
+      <c r="A33" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="B33" s="1">
+        <v>9686304111</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>987</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="55">
-        <f t="shared" si="0"/>
-        <v>0.89236111111111116</v>
-      </c>
+      <c r="E33" s="55"/>
       <c r="F33" s="2"/>
       <c r="H33" s="56">
-        <v>0.70486111111111116</v>
+        <v>0.71875</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:26">
-      <c r="A34" s="3" t="s">
-        <v>992</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>993</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="55">
-        <f t="shared" si="0"/>
-        <v>0.90625</v>
-      </c>
-      <c r="F34" s="2"/>
+    <row r="34" spans="1:26" ht="14.4">
+      <c r="A34" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B34" s="1">
+        <v>6360178979</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="58"/>
       <c r="H34" s="56">
         <v>0.71875</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" ht="14.4">
       <c r="A35" s="1" t="s">
-        <v>994</v>
+        <v>884</v>
       </c>
       <c r="B35" s="1">
-        <v>9686304111</v>
+        <v>9535977944</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>995</v>
+        <v>885</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="55">
-        <f t="shared" si="0"/>
-        <v>0.90625</v>
-      </c>
-      <c r="F35" s="2"/>
-      <c r="H35" s="56">
-        <v>0.71875</v>
-      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="58"/>
+      <c r="H35" s="56"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:26">
-      <c r="A36" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B36" s="1">
-        <v>6360178979</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="55">
-        <f t="shared" si="0"/>
-        <v>0.90625</v>
-      </c>
-      <c r="F36" s="58"/>
-      <c r="H36" s="56">
-        <v>0.71875</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="1:26">
-      <c r="A37" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="B37" s="1">
-        <v>9535977944</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>996</v>
-      </c>
-      <c r="F37" s="58"/>
+    <row r="36" spans="1:26" ht="14.4">
+      <c r="A36" s="48"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="61"/>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="61"/>
+      <c r="R36" s="61"/>
+      <c r="S36" s="61"/>
+      <c r="T36" s="61"/>
+      <c r="U36" s="61"/>
+      <c r="V36" s="61"/>
+      <c r="W36" s="61"/>
+      <c r="X36" s="61"/>
+      <c r="Y36" s="61"/>
+      <c r="Z36" s="61"/>
+    </row>
+    <row r="37" spans="1:26" ht="14.4">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="3"/>
       <c r="H37" s="56"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:26">
-      <c r="A38" s="48"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="61"/>
-      <c r="L38" s="61"/>
-      <c r="M38" s="61"/>
-      <c r="N38" s="61"/>
-      <c r="O38" s="61"/>
-      <c r="P38" s="61"/>
-      <c r="Q38" s="61"/>
-      <c r="R38" s="61"/>
-      <c r="S38" s="61"/>
-      <c r="T38" s="61"/>
-      <c r="U38" s="61"/>
-      <c r="V38" s="61"/>
-      <c r="W38" s="61"/>
-      <c r="X38" s="61"/>
-      <c r="Y38" s="61"/>
-      <c r="Z38" s="61"/>
-    </row>
-    <row r="39" spans="1:26">
-      <c r="A39" s="10" t="s">
-        <v>790</v>
-      </c>
-      <c r="B39" s="10">
-        <v>9981420020</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>791</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="55">
-        <f t="shared" ref="E39:E43" si="1">H39+TIME(4,30,0)</f>
-        <v>0.85416666666666663</v>
-      </c>
+    <row r="38" spans="1:26" ht="14.4">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:26" ht="14.4">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="55"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="56">
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="H39" s="56"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:26">
-      <c r="A40" s="10" t="s">
-        <v>997</v>
-      </c>
-      <c r="B40" s="10">
-        <v>9148624771</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>998</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="55">
-        <f t="shared" si="1"/>
-        <v>0.875</v>
-      </c>
+    <row r="40" spans="1:26" ht="14.4">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="55"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="56">
-        <v>0.6875</v>
-      </c>
+      <c r="H40" s="56"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:26">
-      <c r="A41" s="10" t="s">
-        <v>908</v>
-      </c>
-      <c r="B41" s="10">
-        <v>9380137386</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>909</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="55">
-        <f t="shared" si="1"/>
-        <v>0.875</v>
-      </c>
+    <row r="41" spans="1:26" ht="14.4">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="55"/>
       <c r="F41" s="2"/>
-      <c r="H41" s="56">
-        <v>0.6875</v>
-      </c>
+      <c r="H41" s="56"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:26">
-      <c r="A42" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B42" s="10">
-        <v>8095390270</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="55">
-        <f t="shared" si="1"/>
-        <v>0.875</v>
-      </c>
+    <row r="42" spans="1:26" ht="14.4">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="4"/>
       <c r="F42" s="2"/>
-      <c r="H42" s="56">
-        <v>0.6875</v>
-      </c>
+      <c r="H42" s="63"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:26">
-      <c r="A43" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" s="10">
-        <v>7204934928</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="55">
-        <f t="shared" si="1"/>
-        <v>0.89236111111111116</v>
-      </c>
+    <row r="43" spans="1:26" ht="14.4">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="4"/>
       <c r="F43" s="2"/>
-      <c r="H43" s="56">
-        <v>0.70486111111111116</v>
-      </c>
+      <c r="H43" s="63"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:26">
-      <c r="A44" s="10" t="s">
-        <v>932</v>
-      </c>
-      <c r="B44" s="10">
-        <v>8943799232</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>933</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="44" spans="1:26" ht="14.4">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
       <c r="E44" s="4"/>
       <c r="F44" s="2"/>
       <c r="H44" s="63"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:26">
-      <c r="A45" s="10" t="s">
-        <v>999</v>
-      </c>
-      <c r="B45" s="10">
-        <v>9686701068</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="45" spans="1:26" ht="14.4">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
       <c r="E45" s="4"/>
       <c r="F45" s="2"/>
       <c r="H45" s="63"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:26">
-      <c r="A46" s="10" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B46" s="10">
-        <v>7440341470</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="46" spans="1:26" ht="14.4">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
       <c r="E46" s="4"/>
       <c r="F46" s="2"/>
       <c r="H46" s="63"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:26">
-      <c r="A47" s="10" t="s">
-        <v>918</v>
-      </c>
-      <c r="B47" s="10">
-        <v>9381183950</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>919</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="47" spans="1:26" ht="14.4">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
       <c r="E47" s="4"/>
       <c r="F47" s="2"/>
+      <c r="G47" s="3"/>
       <c r="H47" s="63"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:26">
-      <c r="A48" s="10" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B48" s="10">
-        <v>8197750584</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="48" spans="1:26" ht="14.4">
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
       <c r="E48" s="4"/>
       <c r="F48" s="2"/>
       <c r="H48" s="63"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B49" s="10">
-        <v>7791833395</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="49" spans="1:10" ht="14.4">
+      <c r="A49" s="64"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="10"/>
       <c r="E49" s="4"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="3"/>
       <c r="H49" s="63"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="36" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B50" s="36" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C50" s="36" t="s">
-        <v>391</v>
-      </c>
-      <c r="D50" s="36" t="s">
-        <v>9</v>
-      </c>
+    <row r="50" spans="1:10" ht="14.4">
+      <c r="A50" s="64"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="10"/>
       <c r="E50" s="4"/>
       <c r="F50" s="2"/>
       <c r="H50" s="63"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="64" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B51" s="64" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C51" s="36" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="51" spans="1:10" ht="14.4">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
       <c r="E51" s="4"/>
       <c r="F51" s="2"/>
-      <c r="H51" s="63"/>
+      <c r="G51" s="3"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" s="64" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C52" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="52" spans="1:10" ht="14.4">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
       <c r="E52" s="4"/>
       <c r="F52" s="2"/>
       <c r="H52" s="63"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="B53" s="10">
-        <v>9207211509</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="53" spans="1:10" ht="14.4">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
       <c r="E53" s="4"/>
       <c r="F53" s="2"/>
-      <c r="G53" s="3"/>
+      <c r="H53" s="63"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="10" t="s">
-        <v>824</v>
-      </c>
-      <c r="B54" s="10">
-        <v>7972267795</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>825</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="54" spans="1:10" ht="14.4">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
       <c r="E54" s="4"/>
       <c r="F54" s="2"/>
       <c r="H54" s="63"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="10" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B55" s="10">
-        <v>8930808729</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="55" spans="1:10" ht="14.4">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
       <c r="E55" s="4"/>
       <c r="F55" s="2"/>
       <c r="H55" s="63"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="10" t="s">
-        <v>862</v>
-      </c>
-      <c r="B56" s="10">
-        <v>9902531555</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>863</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="56" spans="1:10" ht="14.4">
+      <c r="A56" s="64"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="10"/>
       <c r="E56" s="4"/>
       <c r="F56" s="2"/>
       <c r="H56" s="63"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="B57" s="10">
-        <v>9403762200</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="57" spans="1:10" ht="14.4">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
       <c r="E57" s="4"/>
       <c r="F57" s="2"/>
       <c r="H57" s="63"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="64" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B58" s="64" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C58" s="36" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="58" spans="1:10" ht="14.4">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
       <c r="E58" s="4"/>
       <c r="F58" s="2"/>
       <c r="H58" s="63"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="10" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B59" s="10">
-        <v>7348848693</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="59" spans="1:10" ht="14.4">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
       <c r="E59" s="4"/>
       <c r="F59" s="2"/>
       <c r="H59" s="63"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="B60" s="10">
-        <v>9403550573</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="60" spans="1:10" ht="14.4">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
       <c r="E60" s="4"/>
       <c r="F60" s="2"/>
       <c r="H60" s="63"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="10" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B61" s="10">
-        <v>7397629002</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>1019</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="61" spans="1:10" ht="14.4">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
       <c r="E61" s="4"/>
       <c r="F61" s="2"/>
       <c r="H61" s="63"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="B62" s="10">
-        <v>9400556919</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="62" spans="1:10" ht="14.4">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
       <c r="E62" s="4"/>
       <c r="F62" s="2"/>
       <c r="H62" s="63"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="10" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B63" s="10">
-        <v>6303679987</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="63" spans="1:10" ht="14.4">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
       <c r="E63" s="4"/>
       <c r="F63" s="2"/>
       <c r="H63" s="63"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="B64" s="10">
-        <v>9663337726</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="64" spans="1:10" ht="14.4">
+      <c r="A64" s="36"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
       <c r="E64" s="4"/>
       <c r="F64" s="2"/>
       <c r="H64" s="63"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="10" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B65" s="10">
-        <v>9901841222</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="65" spans="1:10" ht="14.4">
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
       <c r="E65" s="4"/>
       <c r="F65" s="2"/>
       <c r="H65" s="63"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="36" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B66" s="36">
-        <v>7620735220</v>
-      </c>
-      <c r="C66" s="36" t="s">
-        <v>481</v>
-      </c>
-      <c r="D66" s="36" t="s">
-        <v>9</v>
-      </c>
+    <row r="66" spans="1:10" ht="14.4">
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
       <c r="E66" s="4"/>
       <c r="F66" s="2"/>
       <c r="H66" s="63"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
     </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="10" t="s">
-        <v>578</v>
-      </c>
-      <c r="B67" s="10">
-        <v>9663393517</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>579</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="67" spans="1:10" ht="14.4">
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
       <c r="E67" s="4"/>
       <c r="F67" s="2"/>
       <c r="H67" s="63"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
     </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="B68" s="10">
-        <v>6362835425</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="68" spans="1:10" ht="14.4">
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
       <c r="E68" s="4"/>
       <c r="F68" s="2"/>
       <c r="H68" s="63"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="10" t="s">
-        <v>820</v>
-      </c>
-      <c r="B69" s="10">
-        <v>9400645406</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>821</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="69" spans="1:10" ht="14.4">
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
       <c r="E69" s="4"/>
       <c r="F69" s="2"/>
       <c r="H69" s="63"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
     </row>
-    <row r="70" spans="1:10">
-      <c r="A70" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B70" s="10">
-        <v>9880060253</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="70" spans="1:10" ht="14.4">
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
       <c r="E70" s="4"/>
       <c r="F70" s="2"/>
       <c r="H70" s="63"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
     </row>
-    <row r="71" spans="1:10">
-      <c r="A71" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="B71" s="10">
-        <v>7389955091</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="71" spans="1:10" ht="14.4">
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
       <c r="E71" s="4"/>
       <c r="F71" s="2"/>
       <c r="H71" s="63"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="B72" s="10">
-        <v>8867799497</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="72" spans="1:10" ht="14.4">
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
       <c r="E72" s="4"/>
       <c r="F72" s="2"/>
       <c r="H72" s="63"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
     </row>
-    <row r="73" spans="1:10">
-      <c r="A73" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="B73" s="10">
-        <v>9977332309</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="73" spans="1:10" ht="14.4">
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
       <c r="E73" s="4"/>
-      <c r="F73" s="2"/>
+      <c r="F73" s="58"/>
+      <c r="G73" s="58"/>
       <c r="H73" s="63"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
     </row>
-    <row r="74" spans="1:10">
-      <c r="A74" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B74" s="10">
-        <v>9611931777</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="74" spans="1:10" ht="14.4">
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
       <c r="E74" s="4"/>
       <c r="F74" s="2"/>
       <c r="H74" s="63"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
     </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="10" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B75" s="10">
-        <v>7411688250</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="75" spans="1:10" ht="14.4">
+      <c r="A75" s="10"/>
+      <c r="B75" s="65"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
       <c r="E75" s="4"/>
-      <c r="F75" s="58"/>
-      <c r="G75" s="58"/>
+      <c r="F75" s="2"/>
       <c r="H75" s="63"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
     </row>
-    <row r="76" spans="1:10">
-      <c r="A76" s="10" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B76" s="10">
-        <v>9063288123</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="76" spans="1:10" ht="14.4">
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
       <c r="E76" s="4"/>
       <c r="F76" s="2"/>
       <c r="H76" s="63"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
     </row>
-    <row r="77" spans="1:10">
-      <c r="A77" s="10" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B77" s="65">
-        <f>919849093915</f>
-        <v>919849093915</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="77" spans="1:10" ht="14.4">
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
       <c r="E77" s="4"/>
       <c r="F77" s="2"/>
       <c r="H77" s="63"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
     </row>
-    <row r="78" spans="1:10">
-      <c r="A78" s="10" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B78" s="10">
-        <v>9591719212</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="78" spans="1:10" ht="14.4">
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
       <c r="E78" s="4"/>
       <c r="F78" s="2"/>
       <c r="H78" s="63"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
     </row>
-    <row r="79" spans="1:10">
-      <c r="A79" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="B79" s="10">
-        <v>8210844875</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="79" spans="1:10" ht="14.4">
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
       <c r="E79" s="4"/>
       <c r="F79" s="2"/>
       <c r="H79" s="63"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
     </row>
-    <row r="80" spans="1:10">
-      <c r="A80" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="B80" s="10">
-        <v>9995175675</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="80" spans="1:10" ht="14.4">
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
       <c r="E80" s="4"/>
       <c r="F80" s="2"/>
       <c r="H80" s="63"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
-    <row r="81" spans="1:26">
-      <c r="A81" s="10" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B81" s="10">
-        <v>7306385516</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="81" spans="1:26" ht="14.4">
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
       <c r="E81" s="4"/>
       <c r="F81" s="2"/>
       <c r="H81" s="63"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
     </row>
-    <row r="82" spans="1:26">
-      <c r="A82" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B82" s="10">
-        <v>6382481583</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82" s="4"/>
-      <c r="F82" s="2"/>
-      <c r="H82" s="63"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-    </row>
-    <row r="83" spans="1:26">
-      <c r="A83" s="10" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B83" s="10">
-        <v>7488037314</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E83" s="4"/>
-      <c r="F83" s="2"/>
-      <c r="H83" s="63"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-    </row>
-    <row r="84" spans="1:26">
-      <c r="A84" s="66" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B84" s="66" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C84" s="36" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E84" s="59"/>
-      <c r="F84" s="60"/>
-      <c r="G84" s="67"/>
-      <c r="H84" s="62"/>
-      <c r="I84" s="60"/>
-      <c r="J84" s="60"/>
-      <c r="K84" s="61"/>
-      <c r="L84" s="61"/>
-      <c r="M84" s="61"/>
-      <c r="N84" s="61"/>
-      <c r="O84" s="61"/>
-      <c r="P84" s="61"/>
-      <c r="Q84" s="61"/>
-      <c r="R84" s="61"/>
-      <c r="S84" s="61"/>
-      <c r="T84" s="61"/>
-      <c r="U84" s="61"/>
-      <c r="V84" s="61"/>
-      <c r="W84" s="61"/>
-      <c r="X84" s="61"/>
-      <c r="Y84" s="61"/>
-      <c r="Z84" s="61"/>
-    </row>
-    <row r="85" spans="1:26">
+    <row r="82" spans="1:26" ht="14.4">
+      <c r="A82" s="66"/>
+      <c r="B82" s="66"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="59"/>
+      <c r="F82" s="60"/>
+      <c r="G82" s="67"/>
+      <c r="H82" s="62"/>
+      <c r="I82" s="60"/>
+      <c r="J82" s="60"/>
+      <c r="K82" s="61"/>
+      <c r="L82" s="61"/>
+      <c r="M82" s="61"/>
+      <c r="N82" s="61"/>
+      <c r="O82" s="61"/>
+      <c r="P82" s="61"/>
+      <c r="Q82" s="61"/>
+      <c r="R82" s="61"/>
+      <c r="S82" s="61"/>
+      <c r="T82" s="61"/>
+      <c r="U82" s="61"/>
+      <c r="V82" s="61"/>
+      <c r="W82" s="61"/>
+      <c r="X82" s="61"/>
+      <c r="Y82" s="61"/>
+      <c r="Z82" s="61"/>
+    </row>
+    <row r="83" spans="1:26" ht="14.4">
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="68"/>
+      <c r="I83" s="29"/>
+      <c r="J83" s="29"/>
+      <c r="K83" s="30"/>
+      <c r="L83" s="30"/>
+      <c r="M83" s="30"/>
+      <c r="N83" s="30"/>
+      <c r="O83" s="30"/>
+      <c r="P83" s="30"/>
+      <c r="Q83" s="30"/>
+      <c r="R83" s="30"/>
+      <c r="S83" s="30"/>
+      <c r="T83" s="30"/>
+      <c r="U83" s="30"/>
+      <c r="V83" s="30"/>
+      <c r="W83" s="30"/>
+      <c r="X83" s="30"/>
+      <c r="Y83" s="30"/>
+      <c r="Z83" s="30"/>
+    </row>
+    <row r="84" spans="1:26" ht="14.4">
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="2"/>
+      <c r="H84" s="63"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+    </row>
+    <row r="85" spans="1:26" ht="14.4">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
       <c r="D85" s="10"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="36"/>
-      <c r="H85" s="68"/>
-      <c r="I85" s="29"/>
-      <c r="J85" s="29"/>
-      <c r="K85" s="30"/>
-      <c r="L85" s="30"/>
-      <c r="M85" s="30"/>
-      <c r="N85" s="30"/>
-      <c r="O85" s="30"/>
-      <c r="P85" s="30"/>
-      <c r="Q85" s="30"/>
-      <c r="R85" s="30"/>
-      <c r="S85" s="30"/>
-      <c r="T85" s="30"/>
-      <c r="U85" s="30"/>
-      <c r="V85" s="30"/>
-      <c r="W85" s="30"/>
-      <c r="X85" s="30"/>
-      <c r="Y85" s="30"/>
-      <c r="Z85" s="30"/>
-    </row>
-    <row r="86" spans="1:26">
-      <c r="A86" s="10" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B86" s="10">
-        <v>9113569031</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="E85" s="4"/>
+      <c r="F85" s="2"/>
+      <c r="H85" s="63"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="18"/>
+    </row>
+    <row r="86" spans="1:26" ht="14.4">
+      <c r="A86" s="10"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
       <c r="E86" s="4"/>
       <c r="F86" s="2"/>
       <c r="H86" s="63"/>
       <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
-    </row>
-    <row r="87" spans="1:26">
-      <c r="A87" s="10" t="s">
-        <v>694</v>
-      </c>
-      <c r="B87" s="10">
-        <v>7762884932</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>695</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="J86" s="18"/>
+    </row>
+    <row r="87" spans="1:26" ht="14.4">
+      <c r="A87" s="10"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
       <c r="E87" s="4"/>
       <c r="F87" s="2"/>
       <c r="H87" s="63"/>
       <c r="I87" s="2"/>
       <c r="J87" s="18"/>
     </row>
-    <row r="88" spans="1:26">
-      <c r="A88" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="B88" s="10">
-        <v>9729596666</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="88" spans="1:26" ht="14.4">
+      <c r="A88" s="10"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
       <c r="E88" s="4"/>
       <c r="F88" s="2"/>
       <c r="H88" s="63"/>
       <c r="I88" s="2"/>
       <c r="J88" s="18"/>
     </row>
-    <row r="89" spans="1:26">
-      <c r="A89" s="10" t="s">
-        <v>696</v>
-      </c>
-      <c r="B89" s="10">
-        <v>7019305473</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>697</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="89" spans="1:26" ht="14.4">
+      <c r="A89" s="10"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
       <c r="E89" s="4"/>
       <c r="F89" s="2"/>
       <c r="H89" s="63"/>
       <c r="I89" s="2"/>
       <c r="J89" s="18"/>
     </row>
-    <row r="90" spans="1:26">
-      <c r="A90" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B90" s="10">
-        <v>9915753227</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="90" spans="1:26" ht="14.4">
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
       <c r="E90" s="4"/>
       <c r="F90" s="2"/>
       <c r="H90" s="63"/>
       <c r="I90" s="2"/>
       <c r="J90" s="18"/>
     </row>
-    <row r="91" spans="1:26">
-      <c r="A91" s="10" t="s">
-        <v>686</v>
-      </c>
-      <c r="B91" s="10">
-        <v>9900138936</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>687</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="91" spans="1:26" ht="14.4">
+      <c r="A91" s="10"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
       <c r="E91" s="4"/>
       <c r="F91" s="2"/>
       <c r="H91" s="63"/>
       <c r="I91" s="2"/>
       <c r="J91" s="18"/>
     </row>
-    <row r="92" spans="1:26">
-      <c r="A92" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B92" s="10">
-        <v>9620658557</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D92" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="92" spans="1:26" ht="14.4">
+      <c r="A92" s="10"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
       <c r="E92" s="4"/>
       <c r="F92" s="2"/>
       <c r="H92" s="63"/>
       <c r="I92" s="2"/>
       <c r="J92" s="18"/>
     </row>
-    <row r="93" spans="1:26">
-      <c r="A93" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="B93" s="10">
-        <v>8281284696</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="D93" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="93" spans="1:26" ht="14.4">
+      <c r="A93" s="10"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
       <c r="E93" s="4"/>
       <c r="F93" s="2"/>
       <c r="H93" s="63"/>
       <c r="I93" s="2"/>
       <c r="J93" s="18"/>
     </row>
-    <row r="94" spans="1:26">
-      <c r="A94" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="B94" s="10">
-        <v>6300922978</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="D94" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="94" spans="1:26" ht="14.4">
+      <c r="A94" s="10"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
       <c r="E94" s="4"/>
       <c r="F94" s="2"/>
       <c r="H94" s="63"/>
       <c r="I94" s="2"/>
       <c r="J94" s="18"/>
     </row>
-    <row r="95" spans="1:26">
-      <c r="A95" s="10" t="s">
-        <v>760</v>
-      </c>
-      <c r="B95" s="10">
-        <v>7760646399</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>761</v>
-      </c>
-      <c r="D95" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="95" spans="1:26" ht="14.4">
+      <c r="A95" s="10"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
       <c r="E95" s="4"/>
       <c r="F95" s="2"/>
       <c r="H95" s="63"/>
       <c r="I95" s="2"/>
       <c r="J95" s="18"/>
     </row>
-    <row r="96" spans="1:26">
-      <c r="A96" s="10" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B96" s="10">
-        <v>9591818777</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D96" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="96" spans="1:26" ht="14.4">
+      <c r="A96" s="10"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
       <c r="E96" s="4"/>
       <c r="F96" s="2"/>
       <c r="H96" s="63"/>
       <c r="I96" s="2"/>
       <c r="J96" s="18"/>
     </row>
-    <row r="97" spans="1:26">
-      <c r="A97" s="10" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B97" s="10">
-        <v>9544053908</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D97" s="10" t="s">
-        <v>37</v>
-      </c>
+    <row r="97" spans="1:26" ht="14.4">
+      <c r="A97" s="10"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
       <c r="E97" s="4"/>
       <c r="F97" s="2"/>
       <c r="H97" s="63"/>
       <c r="I97" s="2"/>
       <c r="J97" s="18"/>
     </row>
-    <row r="98" spans="1:26">
-      <c r="A98" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="B98" s="10">
-        <v>8697642538</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>545</v>
-      </c>
-      <c r="D98" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="98" spans="1:26" ht="14.4">
+      <c r="A98" s="10"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
       <c r="E98" s="4"/>
       <c r="F98" s="2"/>
       <c r="H98" s="63"/>
       <c r="I98" s="2"/>
       <c r="J98" s="18"/>
     </row>
-    <row r="99" spans="1:26">
-      <c r="A99" s="10" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B99" s="10">
-        <v>7013023273</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D99" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E99" s="4"/>
-      <c r="F99" s="2"/>
-      <c r="H99" s="63"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="18"/>
-    </row>
-    <row r="100" spans="1:26">
-      <c r="A100" s="10" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B100" s="10">
-        <v>9381570119</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>976</v>
-      </c>
-      <c r="D100" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E100" s="4"/>
-      <c r="F100" s="2"/>
-      <c r="H100" s="63"/>
-      <c r="I100" s="2"/>
+    <row r="99" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A99" s="69"/>
+      <c r="B99" s="69"/>
+      <c r="C99" s="69"/>
+      <c r="D99" s="69"/>
+      <c r="E99" s="70"/>
+      <c r="F99" s="70"/>
+      <c r="G99" s="69"/>
+      <c r="H99" s="69"/>
+      <c r="I99" s="70"/>
+      <c r="J99" s="70"/>
+      <c r="K99" s="69"/>
+      <c r="L99" s="69"/>
+      <c r="M99" s="69"/>
+      <c r="N99" s="69"/>
+      <c r="O99" s="69"/>
+      <c r="P99" s="69"/>
+      <c r="Q99" s="69"/>
+      <c r="R99" s="69"/>
+      <c r="S99" s="69"/>
+      <c r="T99" s="69"/>
+      <c r="U99" s="69"/>
+      <c r="V99" s="69"/>
+      <c r="W99" s="69"/>
+      <c r="X99" s="69"/>
+      <c r="Y99" s="69"/>
+      <c r="Z99" s="69"/>
+    </row>
+    <row r="100" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A100" s="3"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
+      <c r="I100" s="18"/>
       <c r="J100" s="18"/>
     </row>
     <row r="101" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A101" s="69"/>
-      <c r="B101" s="69"/>
-      <c r="C101" s="69"/>
-      <c r="D101" s="69"/>
-      <c r="E101" s="70"/>
-      <c r="F101" s="70"/>
-      <c r="G101" s="69"/>
-      <c r="H101" s="69"/>
-      <c r="I101" s="70"/>
-      <c r="J101" s="70"/>
-      <c r="K101" s="69"/>
-      <c r="L101" s="69"/>
-      <c r="M101" s="69"/>
-      <c r="N101" s="69"/>
-      <c r="O101" s="69"/>
-      <c r="P101" s="69"/>
-      <c r="Q101" s="69"/>
-      <c r="R101" s="69"/>
-      <c r="S101" s="69"/>
-      <c r="T101" s="69"/>
-      <c r="U101" s="69"/>
-      <c r="V101" s="69"/>
-      <c r="W101" s="69"/>
-      <c r="X101" s="69"/>
-      <c r="Y101" s="69"/>
-      <c r="Z101" s="69"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="I101" s="18"/>
+      <c r="J101" s="18"/>
     </row>
     <row r="102" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A102" s="3"/>
       <c r="E102" s="18"/>
       <c r="F102" s="18"/>
       <c r="I102" s="18"/>
@@ -17610,18 +16802,6 @@
       <c r="F1001" s="18"/>
       <c r="I1001" s="18"/>
       <c r="J1001" s="18"/>
-    </row>
-    <row r="1002" spans="5:10" ht="15.75" customHeight="1">
-      <c r="E1002" s="18"/>
-      <c r="F1002" s="18"/>
-      <c r="I1002" s="18"/>
-      <c r="J1002" s="18"/>
-    </row>
-    <row r="1003" spans="5:10" ht="15.75" customHeight="1">
-      <c r="E1003" s="18"/>
-      <c r="F1003" s="18"/>
-      <c r="I1003" s="18"/>
-      <c r="J1003" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17639,7 +16819,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -17654,7 +16834,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="14.4">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -17670,7 +16850,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="14.4">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -17686,7 +16866,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="14.4">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -17702,7 +16882,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="14.4">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -17718,7 +16898,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="14.4">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -17734,7 +16914,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="14.4">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -17750,7 +16930,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="14.4">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
@@ -17766,7 +16946,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="14.4">
       <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
@@ -17782,7 +16962,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="14.4">
       <c r="A10" s="1" t="s">
         <v>57</v>
       </c>
@@ -17798,7 +16978,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="14.4">
       <c r="A11" s="1" t="s">
         <v>61</v>
       </c>
@@ -17814,7 +16994,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="14.4">
       <c r="A12" s="1" t="s">
         <v>64</v>
       </c>
@@ -17830,7 +17010,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="14.4">
       <c r="A13" s="1" t="s">
         <v>68</v>
       </c>
@@ -17846,7 +17026,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="14.4">
       <c r="A14" s="1" t="s">
         <v>73</v>
       </c>
@@ -17862,7 +17042,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="14.4">
       <c r="A15" s="1" t="s">
         <v>77</v>
       </c>
@@ -17878,7 +17058,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="14.4">
       <c r="A16" s="1" t="s">
         <v>82</v>
       </c>
@@ -17894,7 +17074,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="14.4">
       <c r="A17" s="1" t="s">
         <v>86</v>
       </c>
@@ -17910,7 +17090,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="14.4">
       <c r="A18" s="1" t="s">
         <v>92</v>
       </c>
@@ -17926,7 +17106,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="14.4">
       <c r="A19" s="1" t="s">
         <v>97</v>
       </c>
@@ -17944,7 +17124,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="14.4">
       <c r="A20" s="1" t="s">
         <v>102</v>
       </c>
@@ -17960,7 +17140,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="14.4">
       <c r="A21" s="1" t="s">
         <v>108</v>
       </c>
@@ -17978,7 +17158,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="14.4">
       <c r="A22" s="1" t="s">
         <v>114</v>
       </c>
@@ -17994,7 +17174,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="14.4">
       <c r="A23" s="1" t="s">
         <v>120</v>
       </c>
@@ -18010,7 +17190,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="14.4">
       <c r="A24" s="1" t="s">
         <v>125</v>
       </c>
@@ -18026,7 +17206,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="14.4">
       <c r="A25" s="1" t="s">
         <v>130</v>
       </c>
@@ -18042,7 +17222,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="14.4">
       <c r="A26" s="1" t="s">
         <v>148</v>
       </c>
@@ -18058,7 +17238,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" ht="14.4">
       <c r="A27" s="1" t="s">
         <v>154</v>
       </c>
@@ -18074,7 +17254,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="14.4">
       <c r="A28" s="1" t="s">
         <v>158</v>
       </c>
@@ -18092,7 +17272,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" ht="14.4">
       <c r="A29" s="1" t="s">
         <v>163</v>
       </c>
@@ -18110,7 +17290,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" ht="14.4">
       <c r="A30" s="1" t="s">
         <v>165</v>
       </c>
@@ -18126,7 +17306,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" ht="14.4">
       <c r="A31" s="1" t="s">
         <v>169</v>
       </c>
@@ -18142,7 +17322,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" ht="14.4">
       <c r="A32" s="1" t="s">
         <v>173</v>
       </c>
@@ -18158,7 +17338,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" ht="14.4">
       <c r="A33" s="1" t="s">
         <v>150</v>
       </c>
@@ -18174,7 +17354,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" ht="14.4">
       <c r="A34" s="1" t="s">
         <v>177</v>
       </c>
@@ -18190,7 +17370,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" ht="14.4">
       <c r="A35" s="1" t="s">
         <v>181</v>
       </c>
@@ -18208,7 +17388,7 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" ht="14.4">
       <c r="A36" s="1" t="s">
         <v>185</v>
       </c>
@@ -18226,7 +17406,7 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" ht="14.4">
       <c r="A37" s="1" t="s">
         <v>189</v>
       </c>
@@ -18242,7 +17422,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" ht="14.4">
       <c r="A38" s="1" t="s">
         <v>191</v>
       </c>
@@ -18258,7 +17438,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" ht="14.4">
       <c r="A39" s="1" t="s">
         <v>194</v>
       </c>
@@ -18276,7 +17456,7 @@
       </c>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" ht="14.4">
       <c r="A40" s="1" t="s">
         <v>198</v>
       </c>
@@ -18294,7 +17474,7 @@
       </c>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" ht="14.4">
       <c r="A41" s="1" t="s">
         <v>201</v>
       </c>
@@ -18312,7 +17492,7 @@
       </c>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" ht="14.4">
       <c r="A42" s="1" t="s">
         <v>206</v>
       </c>
@@ -18328,7 +17508,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" ht="14.4">
       <c r="A43" s="1" t="s">
         <v>210</v>
       </c>
@@ -18344,7 +17524,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" ht="14.4">
       <c r="A44" s="1" t="s">
         <v>216</v>
       </c>
@@ -18362,7 +17542,7 @@
       </c>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" ht="14.4">
       <c r="A45" s="1" t="s">
         <v>221</v>
       </c>
@@ -18380,7 +17560,7 @@
       </c>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" ht="14.4">
       <c r="A46" s="1" t="s">
         <v>225</v>
       </c>
@@ -18396,7 +17576,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" ht="14.4">
       <c r="A47" s="1" t="s">
         <v>227</v>
       </c>
@@ -18412,7 +17592,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" ht="14.4">
       <c r="A48" s="1" t="s">
         <v>229</v>
       </c>
@@ -18430,7 +17610,7 @@
       </c>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" ht="14.4">
       <c r="A49" s="1" t="s">
         <v>233</v>
       </c>
@@ -18448,7 +17628,7 @@
       </c>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" ht="14.4">
       <c r="A50" s="1" t="s">
         <v>239</v>
       </c>
@@ -18464,7 +17644,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" ht="14.4">
       <c r="A51" s="1" t="s">
         <v>243</v>
       </c>
@@ -18480,7 +17660,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" ht="14.4">
       <c r="A52" s="1" t="s">
         <v>247</v>
       </c>
@@ -18496,7 +17676,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" ht="14.4">
       <c r="A53" s="1" t="s">
         <v>253</v>
       </c>
@@ -18512,7 +17692,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" ht="14.4">
       <c r="A54" s="1" t="s">
         <v>260</v>
       </c>
@@ -18528,7 +17708,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" ht="14.4">
       <c r="A55" s="1" t="s">
         <v>264</v>
       </c>
@@ -18546,7 +17726,7 @@
       </c>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" ht="14.4">
       <c r="A56" s="1" t="s">
         <v>269</v>
       </c>
@@ -24364,7 +23544,7 @@
   </sheetPr>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -24387,7 +23567,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="14.4">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -24399,7 +23579,7 @@
       </c>
       <c r="E2" s="19"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="14.4">
       <c r="A3" s="1" t="s">
         <v>144</v>
       </c>
@@ -24411,7 +23591,7 @@
       </c>
       <c r="E3" s="19"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="14.4">
       <c r="A4" s="1" t="s">
         <v>134</v>
       </c>
@@ -24423,7 +23603,7 @@
       </c>
       <c r="E4" s="19"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="14.4">
       <c r="A5" s="1" t="s">
         <v>165</v>
       </c>
@@ -24438,7 +23618,7 @@
       </c>
       <c r="E5" s="19"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="14.4">
       <c r="A6" s="1" t="s">
         <v>442</v>
       </c>
@@ -24450,7 +23630,7 @@
       </c>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="14.4">
       <c r="A7" s="1" t="s">
         <v>65</v>
       </c>
@@ -24465,7 +23645,7 @@
       </c>
       <c r="E7" s="19"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="14.4">
       <c r="A8" s="1" t="s">
         <v>140</v>
       </c>
@@ -24477,7 +23657,7 @@
       </c>
       <c r="E8" s="19"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="14.4">
       <c r="A9" s="1" t="s">
         <v>295</v>
       </c>
@@ -24492,7 +23672,7 @@
       </c>
       <c r="E9" s="19"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="14.4">
       <c r="A10" s="1" t="s">
         <v>150</v>
       </c>
@@ -24507,7 +23687,7 @@
       </c>
       <c r="E10" s="19"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="14.4">
       <c r="A11" s="1" t="s">
         <v>446</v>
       </c>
@@ -24522,7 +23702,7 @@
       </c>
       <c r="E11" s="19"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" ht="14.4">
       <c r="A12" s="1" t="s">
         <v>81</v>
       </c>
@@ -24537,7 +23717,7 @@
       </c>
       <c r="E12" s="19"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="14.4">
       <c r="A13" s="1" t="s">
         <v>204</v>
       </c>
@@ -24552,7 +23732,7 @@
       </c>
       <c r="E13" s="19"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="14.4">
       <c r="A14" s="1" t="s">
         <v>300</v>
       </c>
@@ -24564,7 +23744,7 @@
       </c>
       <c r="E14" s="19"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" ht="14.4">
       <c r="A15" s="1" t="s">
         <v>368</v>
       </c>
@@ -24579,7 +23759,7 @@
       </c>
       <c r="E15" s="19"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="14.4">
       <c r="A16" s="1" t="s">
         <v>457</v>
       </c>
@@ -24594,7 +23774,7 @@
       </c>
       <c r="E16" s="19"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="14.4">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -24609,7 +23789,7 @@
       </c>
       <c r="E17" s="19"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="14.4">
       <c r="A18" s="1" t="s">
         <v>108</v>
       </c>
@@ -24636,7 +23816,7 @@
       </c>
       <c r="E19" s="19"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="14.4">
       <c r="A20" s="1" t="s">
         <v>372</v>
       </c>
@@ -24648,7 +23828,7 @@
       </c>
       <c r="E20" s="19"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="14.4">
       <c r="A21" s="20" t="s">
         <v>498</v>
       </c>
@@ -24663,7 +23843,7 @@
       </c>
       <c r="E21" s="19"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="14.4">
       <c r="A22" s="1" t="s">
         <v>103</v>
       </c>
@@ -24719,7 +23899,7 @@
         <v>638</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1049</v>
+        <v>988</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>630</v>
@@ -24900,7 +24080,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="14.4">
       <c r="A1" s="21" t="s">
         <v>4</v>
       </c>
@@ -24920,7 +24100,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="14.4">
       <c r="A2" s="21" t="s">
         <v>562</v>
       </c>
@@ -24936,7 +24116,7 @@
       <c r="E2" s="22"/>
       <c r="F2" s="23"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="14.4">
       <c r="A3" s="21" t="s">
         <v>94</v>
       </c>
@@ -24952,7 +24132,7 @@
       <c r="E3" s="22"/>
       <c r="F3" s="23"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="14.4">
       <c r="A4" s="21" t="s">
         <v>178</v>
       </c>
@@ -24968,7 +24148,7 @@
       <c r="E4" s="22"/>
       <c r="F4" s="23"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="14.4">
       <c r="A5" s="21" t="s">
         <v>678</v>
       </c>
@@ -24986,7 +24166,7 @@
       </c>
       <c r="F5" s="23"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="14.4">
       <c r="A6" s="21" t="s">
         <v>680</v>
       </c>
@@ -25004,7 +24184,7 @@
       </c>
       <c r="F6" s="23"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="14.4">
       <c r="A7" s="21" t="s">
         <v>392</v>
       </c>
@@ -25022,7 +24202,7 @@
       </c>
       <c r="F7" s="23"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="14.4">
       <c r="A8" s="21" t="s">
         <v>682</v>
       </c>
@@ -25038,7 +24218,7 @@
       <c r="E8" s="22"/>
       <c r="F8" s="23"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="14.4">
       <c r="A9" s="21" t="s">
         <v>684</v>
       </c>
@@ -25054,7 +24234,7 @@
       <c r="E9" s="22"/>
       <c r="F9" s="23"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="14.4">
       <c r="A10" s="21" t="s">
         <v>686</v>
       </c>
@@ -25070,7 +24250,7 @@
       <c r="E10" s="22"/>
       <c r="F10" s="23"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="14.4">
       <c r="A11" s="21" t="s">
         <v>274</v>
       </c>
@@ -25088,7 +24268,7 @@
       </c>
       <c r="F11" s="23"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="14.4">
       <c r="A12" s="21" t="s">
         <v>688</v>
       </c>
@@ -25104,7 +24284,7 @@
       <c r="E12" s="22"/>
       <c r="F12" s="23"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="14.4">
       <c r="A13" s="21" t="s">
         <v>466</v>
       </c>
@@ -25120,7 +24300,7 @@
       <c r="E13" s="22"/>
       <c r="F13" s="23"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="14.4">
       <c r="A14" s="21" t="s">
         <v>513</v>
       </c>
@@ -25136,7 +24316,7 @@
       <c r="E14" s="22"/>
       <c r="F14" s="23"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="14.4">
       <c r="A15" s="21" t="s">
         <v>690</v>
       </c>
@@ -25152,7 +24332,7 @@
       <c r="E15" s="22"/>
       <c r="F15" s="23"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="14.4">
       <c r="A16" s="21" t="s">
         <v>250</v>
       </c>
@@ -25168,7 +24348,7 @@
       <c r="E16" s="22"/>
       <c r="F16" s="23"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="14.4">
       <c r="A17" s="21" t="s">
         <v>384</v>
       </c>
@@ -25186,7 +24366,7 @@
       </c>
       <c r="F17" s="23"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="14.4">
       <c r="A18" s="21" t="s">
         <v>692</v>
       </c>
@@ -25202,7 +24382,7 @@
       <c r="E18" s="22"/>
       <c r="F18" s="23"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="14.4">
       <c r="A19" s="21" t="s">
         <v>156</v>
       </c>
@@ -25218,7 +24398,7 @@
       <c r="E19" s="22"/>
       <c r="F19" s="23"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="14.4">
       <c r="A20" s="21" t="s">
         <v>70</v>
       </c>
@@ -25234,7 +24414,7 @@
       <c r="E20" s="22"/>
       <c r="F20" s="23"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="14.4">
       <c r="A21" s="21" t="s">
         <v>694</v>
       </c>
@@ -25250,7 +24430,7 @@
       <c r="E21" s="22"/>
       <c r="F21" s="23"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="14.4">
       <c r="A22" s="21" t="s">
         <v>696</v>
       </c>
@@ -25266,7 +24446,7 @@
       <c r="E22" s="22"/>
       <c r="F22" s="23"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="14.4">
       <c r="A23" s="21" t="s">
         <v>698</v>
       </c>
@@ -25282,7 +24462,7 @@
       <c r="E23" s="22"/>
       <c r="F23" s="23"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="14.4">
       <c r="A24" s="21" t="s">
         <v>470</v>
       </c>
@@ -25298,7 +24478,7 @@
       <c r="E24" s="22"/>
       <c r="F24" s="23"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="14.4">
       <c r="A25" s="21" t="s">
         <v>700</v>
       </c>
@@ -25314,7 +24494,7 @@
       <c r="E25" s="22"/>
       <c r="F25" s="23"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="14.4">
       <c r="A26" s="21" t="s">
         <v>702</v>
       </c>
@@ -25330,7 +24510,7 @@
       <c r="E26" s="22"/>
       <c r="F26" s="23"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" ht="14.4">
       <c r="A27" s="21" t="s">
         <v>704</v>
       </c>
@@ -25346,7 +24526,7 @@
       <c r="E27" s="22"/>
       <c r="F27" s="23"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="14.4">
       <c r="A28" s="21" t="s">
         <v>706</v>
       </c>
@@ -25364,7 +24544,7 @@
       </c>
       <c r="F28" s="23"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" ht="14.4">
       <c r="A29" s="21" t="s">
         <v>509</v>
       </c>
@@ -25380,7 +24560,7 @@
       <c r="E29" s="22"/>
       <c r="F29" s="23"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" ht="14.4">
       <c r="A30" s="21" t="s">
         <v>708</v>
       </c>
@@ -25396,7 +24576,7 @@
       <c r="E30" s="22"/>
       <c r="F30" s="23"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" ht="14.4">
       <c r="A31" s="21" t="s">
         <v>710</v>
       </c>
@@ -25412,7 +24592,7 @@
       <c r="E31" s="22"/>
       <c r="F31" s="23"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" ht="14.4">
       <c r="A32" s="21" t="s">
         <v>584</v>
       </c>
@@ -25428,7 +24608,7 @@
       <c r="E32" s="22"/>
       <c r="F32" s="23"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" ht="14.4">
       <c r="A33" s="21" t="s">
         <v>76</v>
       </c>
@@ -25444,7 +24624,7 @@
       <c r="E33" s="22"/>
       <c r="F33" s="23"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" ht="14.4">
       <c r="A34" s="21" t="s">
         <v>712</v>
       </c>
@@ -25460,7 +24640,7 @@
       <c r="E34" s="22"/>
       <c r="F34" s="23"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" ht="14.4">
       <c r="A35" s="21" t="s">
         <v>714</v>
       </c>
@@ -25476,7 +24656,7 @@
       <c r="E35" s="22"/>
       <c r="F35" s="23"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" ht="14.4">
       <c r="A36" s="21" t="s">
         <v>716</v>
       </c>
@@ -25492,7 +24672,7 @@
       <c r="E36" s="22"/>
       <c r="F36" s="23"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" ht="14.4">
       <c r="A37" s="21" t="s">
         <v>718</v>
       </c>
@@ -25508,7 +24688,7 @@
       <c r="E37" s="22"/>
       <c r="F37" s="23"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" ht="14.4">
       <c r="A38" s="21" t="s">
         <v>720</v>
       </c>
@@ -25526,7 +24706,7 @@
       </c>
       <c r="F38" s="23"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" ht="14.4">
       <c r="A39" s="21" t="s">
         <v>618</v>
       </c>
@@ -25542,7 +24722,7 @@
       <c r="E39" s="22"/>
       <c r="F39" s="23"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" ht="14.4">
       <c r="A40" s="21" t="s">
         <v>722</v>
       </c>
@@ -25558,7 +24738,7 @@
       <c r="E40" s="22"/>
       <c r="F40" s="23"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" ht="14.4">
       <c r="A41" s="21" t="s">
         <v>724</v>
       </c>
@@ -25574,7 +24754,7 @@
       <c r="E41" s="22"/>
       <c r="F41" s="23"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" ht="14.4">
       <c r="A42" s="21" t="s">
         <v>726</v>
       </c>
@@ -25592,7 +24772,7 @@
       </c>
       <c r="F42" s="23"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" ht="14.4">
       <c r="A43" s="21" t="s">
         <v>728</v>
       </c>
@@ -25608,7 +24788,7 @@
       <c r="E43" s="22"/>
       <c r="F43" s="23"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" ht="14.4">
       <c r="A44" s="21" t="s">
         <v>730</v>
       </c>
@@ -25624,7 +24804,7 @@
       <c r="E44" s="22"/>
       <c r="F44" s="23"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" ht="14.4">
       <c r="A45" s="21" t="s">
         <v>732</v>
       </c>
@@ -25640,7 +24820,7 @@
       <c r="E45" s="22"/>
       <c r="F45" s="23"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" ht="14.4">
       <c r="A46" s="21" t="s">
         <v>373</v>
       </c>
@@ -25656,7 +24836,7 @@
       <c r="E46" s="22"/>
       <c r="F46" s="23"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" ht="14.4">
       <c r="A47" s="21" t="s">
         <v>734</v>
       </c>
@@ -25672,7 +24852,7 @@
       <c r="E47" s="22"/>
       <c r="F47" s="23"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" ht="14.4">
       <c r="A48" s="21" t="s">
         <v>736</v>
       </c>
@@ -25690,7 +24870,7 @@
       </c>
       <c r="F48" s="23"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" ht="14.4">
       <c r="A49" s="21" t="s">
         <v>738</v>
       </c>
@@ -25706,7 +24886,7 @@
       <c r="E49" s="22"/>
       <c r="F49" s="23"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" ht="14.4">
       <c r="A50" s="21" t="s">
         <v>740</v>
       </c>
@@ -25724,7 +24904,7 @@
       </c>
       <c r="F50" s="23"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" ht="14.4">
       <c r="A51" s="21" t="s">
         <v>616</v>
       </c>
@@ -25740,7 +24920,7 @@
       <c r="E51" s="22"/>
       <c r="F51" s="23"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" ht="14.4">
       <c r="A52" s="21" t="s">
         <v>18</v>
       </c>
@@ -25756,7 +24936,7 @@
       <c r="E52" s="22"/>
       <c r="F52" s="23"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" ht="14.4">
       <c r="A53" s="21" t="s">
         <v>742</v>
       </c>
@@ -25774,7 +24954,7 @@
       </c>
       <c r="F53" s="23"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" ht="14.4">
       <c r="A54" s="21" t="s">
         <v>744</v>
       </c>
@@ -25790,7 +24970,7 @@
       <c r="E54" s="22"/>
       <c r="F54" s="23"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" ht="14.4">
       <c r="A55" s="21" t="s">
         <v>746</v>
       </c>
@@ -25806,7 +24986,7 @@
       <c r="E55" s="22"/>
       <c r="F55" s="23"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" ht="14.4">
       <c r="A56" s="21" t="s">
         <v>748</v>
       </c>
@@ -25822,7 +25002,7 @@
       <c r="E56" s="22"/>
       <c r="F56" s="23"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" ht="14.4">
       <c r="A57" s="21" t="s">
         <v>750</v>
       </c>
@@ -25838,7 +25018,7 @@
       <c r="E57" s="22"/>
       <c r="F57" s="23"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" ht="14.4">
       <c r="A58" s="21" t="s">
         <v>241</v>
       </c>
@@ -25856,7 +25036,7 @@
       </c>
       <c r="F58" s="23"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" ht="14.4">
       <c r="A59" s="21" t="s">
         <v>752</v>
       </c>
@@ -25873,7 +25053,7 @@
       <c r="E59" s="22"/>
       <c r="F59" s="23"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" ht="14.4">
       <c r="A60" s="21" t="s">
         <v>628</v>
       </c>
@@ -25891,7 +25071,7 @@
       </c>
       <c r="F60" s="23"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" ht="14.4">
       <c r="A61" s="21" t="s">
         <v>754</v>
       </c>
@@ -25907,7 +25087,7 @@
       <c r="E61" s="22"/>
       <c r="F61" s="23"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" ht="14.4">
       <c r="A62" s="21" t="s">
         <v>756</v>
       </c>
@@ -25923,7 +25103,7 @@
       <c r="E62" s="22"/>
       <c r="F62" s="23"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" ht="14.4">
       <c r="A63" s="21" t="s">
         <v>758</v>
       </c>
@@ -25941,7 +25121,7 @@
       </c>
       <c r="F63" s="23"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" ht="14.4">
       <c r="A64" s="21" t="s">
         <v>760</v>
       </c>
@@ -25957,7 +25137,7 @@
       <c r="E64" s="22"/>
       <c r="F64" s="23"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" ht="14.4">
       <c r="A65" s="21" t="s">
         <v>762</v>
       </c>
@@ -25975,7 +25155,7 @@
       </c>
       <c r="F65" s="23"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" ht="14.4">
       <c r="A66" s="21" t="s">
         <v>764</v>
       </c>
@@ -25991,7 +25171,7 @@
       <c r="E66" s="22"/>
       <c r="F66" s="23"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" ht="14.4">
       <c r="A67" s="21" t="s">
         <v>211</v>
       </c>
@@ -26007,7 +25187,7 @@
       <c r="E67" s="22"/>
       <c r="F67" s="23"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" ht="14.4">
       <c r="A68" s="21" t="s">
         <v>766</v>
       </c>
@@ -26023,7 +25203,7 @@
       <c r="E68" s="22"/>
       <c r="F68" s="23"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" ht="14.4">
       <c r="A69" s="21" t="s">
         <v>768</v>
       </c>
@@ -26039,7 +25219,7 @@
       <c r="E69" s="22"/>
       <c r="F69" s="23"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" ht="14.4">
       <c r="A70" s="21" t="s">
         <v>322</v>
       </c>
@@ -26057,7 +25237,7 @@
       </c>
       <c r="F70" s="23"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" ht="14.4">
       <c r="A71" s="21" t="s">
         <v>770</v>
       </c>
@@ -26075,7 +25255,7 @@
       </c>
       <c r="F71" s="23"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" ht="14.4">
       <c r="A72" s="21" t="s">
         <v>772</v>
       </c>
@@ -26091,7 +25271,7 @@
       <c r="E72" s="22"/>
       <c r="F72" s="23"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" ht="14.4">
       <c r="A73" s="21" t="s">
         <v>223</v>
       </c>
@@ -26108,7 +25288,7 @@
       <c r="E73" s="22"/>
       <c r="F73" s="23"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" ht="14.4">
       <c r="A74" s="21" t="s">
         <v>315</v>
       </c>
@@ -26126,7 +25306,7 @@
       </c>
       <c r="F74" s="23"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" ht="14.4">
       <c r="A75" s="21" t="s">
         <v>774</v>
       </c>
@@ -26144,7 +25324,7 @@
       </c>
       <c r="F75" s="23"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" ht="14.4">
       <c r="A76" s="21" t="s">
         <v>204</v>
       </c>
@@ -26160,7 +25340,7 @@
       <c r="E76" s="22"/>
       <c r="F76" s="23"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" ht="14.4">
       <c r="A77" s="21" t="s">
         <v>776</v>
       </c>
@@ -26176,7 +25356,7 @@
       <c r="E77" s="22"/>
       <c r="F77" s="23"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" ht="14.4">
       <c r="A78" s="21" t="s">
         <v>778</v>
       </c>
@@ -26192,7 +25372,7 @@
       <c r="E78" s="22"/>
       <c r="F78" s="23"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" ht="14.4">
       <c r="A79" s="21" t="s">
         <v>124</v>
       </c>
@@ -26208,7 +25388,7 @@
       <c r="E79" s="22"/>
       <c r="F79" s="23"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" ht="14.4">
       <c r="A80" s="21" t="s">
         <v>335</v>
       </c>
@@ -26224,7 +25404,7 @@
       <c r="E80" s="22"/>
       <c r="F80" s="23"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" ht="14.4">
       <c r="A81" s="21" t="s">
         <v>780</v>
       </c>
@@ -26240,7 +25420,7 @@
       <c r="E81" s="22"/>
       <c r="F81" s="23"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" ht="14.4">
       <c r="A82" s="21" t="s">
         <v>81</v>
       </c>
@@ -26256,7 +25436,7 @@
       <c r="E82" s="22"/>
       <c r="F82" s="23"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" ht="14.4">
       <c r="A83" s="21" t="s">
         <v>550</v>
       </c>
@@ -26272,7 +25452,7 @@
       <c r="E83" s="22"/>
       <c r="F83" s="23"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" ht="14.4">
       <c r="A84" s="21" t="s">
         <v>782</v>
       </c>
@@ -26290,7 +25470,7 @@
       </c>
       <c r="F84" s="23"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" ht="14.4">
       <c r="A85" s="21" t="s">
         <v>484</v>
       </c>
@@ -26306,7 +25486,7 @@
       <c r="E85" s="22"/>
       <c r="F85" s="23"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" ht="14.4">
       <c r="A86" s="21" t="s">
         <v>452</v>
       </c>
@@ -26322,7 +25502,7 @@
       <c r="E86" s="22"/>
       <c r="F86" s="23"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" ht="14.4">
       <c r="A87" s="21" t="s">
         <v>646</v>
       </c>
@@ -26338,7 +25518,7 @@
       <c r="E87" s="22"/>
       <c r="F87" s="23"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" ht="14.4">
       <c r="A88" s="21" t="s">
         <v>288</v>
       </c>
@@ -26354,7 +25534,7 @@
       <c r="E88" s="22"/>
       <c r="F88" s="23"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" ht="14.4">
       <c r="A89" s="21" t="s">
         <v>552</v>
       </c>
@@ -26370,7 +25550,7 @@
       <c r="E89" s="22"/>
       <c r="F89" s="23"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" ht="14.4">
       <c r="A90" s="21" t="s">
         <v>784</v>
       </c>
@@ -26388,7 +25568,7 @@
       </c>
       <c r="F90" s="23"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" ht="14.4">
       <c r="A91" s="21" t="s">
         <v>334</v>
       </c>
@@ -26406,7 +25586,7 @@
       </c>
       <c r="F91" s="23"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" ht="14.4">
       <c r="A92" s="21" t="s">
         <v>786</v>
       </c>
@@ -26422,7 +25602,7 @@
       <c r="E92" s="22"/>
       <c r="F92" s="23"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" ht="14.4">
       <c r="A93" s="21" t="s">
         <v>788</v>
       </c>
@@ -26438,7 +25618,7 @@
       <c r="E93" s="22"/>
       <c r="F93" s="23"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" ht="14.4">
       <c r="A94" s="21" t="s">
         <v>161</v>
       </c>
@@ -26456,7 +25636,7 @@
       </c>
       <c r="F94" s="23"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" ht="14.4">
       <c r="A95" s="21" t="s">
         <v>790</v>
       </c>
@@ -26472,7 +25652,7 @@
       <c r="E95" s="22"/>
       <c r="F95" s="23"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" ht="14.4">
       <c r="A96" s="21" t="s">
         <v>792</v>
       </c>
@@ -26488,7 +25668,7 @@
       <c r="E96" s="22"/>
       <c r="F96" s="23"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" ht="14.4">
       <c r="A97" s="21" t="s">
         <v>794</v>
       </c>
@@ -26506,7 +25686,7 @@
       </c>
       <c r="F97" s="23"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" ht="14.4">
       <c r="A98" s="21" t="s">
         <v>566</v>
       </c>
@@ -26524,7 +25704,7 @@
       </c>
       <c r="F98" s="23"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" ht="14.4">
       <c r="A99" s="21" t="s">
         <v>637</v>
       </c>
@@ -26540,7 +25720,7 @@
       <c r="E99" s="22"/>
       <c r="F99" s="23"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" ht="14.4">
       <c r="A100" s="21" t="s">
         <v>796</v>
       </c>
@@ -26558,7 +25738,7 @@
       </c>
       <c r="F100" s="23"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" ht="14.4">
       <c r="A101" s="21" t="s">
         <v>798</v>
       </c>
@@ -26576,7 +25756,7 @@
       </c>
       <c r="F101" s="23"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" ht="14.4">
       <c r="A102" s="21" t="s">
         <v>382</v>
       </c>
@@ -26592,7 +25772,7 @@
       <c r="E102" s="22"/>
       <c r="F102" s="23"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" ht="14.4">
       <c r="A103" s="21" t="s">
         <v>626</v>
       </c>
@@ -26608,7 +25788,7 @@
       <c r="E103" s="22"/>
       <c r="F103" s="23"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" ht="14.4">
       <c r="A104" s="21" t="s">
         <v>505</v>
       </c>
@@ -26624,7 +25804,7 @@
       <c r="E104" s="22"/>
       <c r="F104" s="23"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" ht="14.4">
       <c r="A105" s="21" t="s">
         <v>602</v>
       </c>
@@ -26642,7 +25822,7 @@
       </c>
       <c r="F105" s="23"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" ht="14.4">
       <c r="A106" s="21" t="s">
         <v>800</v>
       </c>
@@ -26658,7 +25838,7 @@
       <c r="E106" s="22"/>
       <c r="F106" s="23"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" ht="14.4">
       <c r="A107" s="21" t="s">
         <v>802</v>
       </c>
@@ -26674,7 +25854,7 @@
       <c r="E107" s="22"/>
       <c r="F107" s="23"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" ht="14.4">
       <c r="A108" s="21" t="s">
         <v>804</v>
       </c>
@@ -26690,7 +25870,7 @@
       <c r="E108" s="22"/>
       <c r="F108" s="23"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" ht="14.4">
       <c r="A109" s="21" t="s">
         <v>806</v>
       </c>
@@ -26706,7 +25886,7 @@
       <c r="E109" s="22"/>
       <c r="F109" s="23"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" ht="14.4">
       <c r="A110" s="21" t="s">
         <v>808</v>
       </c>
@@ -26722,7 +25902,7 @@
       <c r="E110" s="22"/>
       <c r="F110" s="23"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" ht="14.4">
       <c r="A111" s="21" t="s">
         <v>109</v>
       </c>
@@ -26738,7 +25918,7 @@
       <c r="E111" s="22"/>
       <c r="F111" s="23"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" ht="14.4">
       <c r="A112" s="21" t="s">
         <v>810</v>
       </c>
@@ -26754,7 +25934,7 @@
       <c r="E112" s="22"/>
       <c r="F112" s="23"/>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" ht="14.4">
       <c r="A113" s="21" t="s">
         <v>364</v>
       </c>
@@ -26772,7 +25952,7 @@
       </c>
       <c r="F113" s="23"/>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" ht="14.4">
       <c r="A114" s="21" t="s">
         <v>812</v>
       </c>
@@ -26790,7 +25970,7 @@
       </c>
       <c r="F114" s="23"/>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" ht="14.4">
       <c r="A115" s="21" t="s">
         <v>546</v>
       </c>
@@ -26806,7 +25986,7 @@
       <c r="E115" s="22"/>
       <c r="F115" s="23"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" ht="14.4">
       <c r="A116" s="21" t="s">
         <v>814</v>
       </c>
@@ -26824,7 +26004,7 @@
       </c>
       <c r="F116" s="23"/>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" ht="14.4">
       <c r="A117" s="21" t="s">
         <v>515</v>
       </c>
@@ -26840,7 +26020,7 @@
       <c r="E117" s="22"/>
       <c r="F117" s="23"/>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" ht="14.4">
       <c r="A118" s="21" t="s">
         <v>816</v>
       </c>
@@ -26856,7 +26036,7 @@
       <c r="E118" s="22"/>
       <c r="F118" s="23"/>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" ht="14.4">
       <c r="A119" s="21" t="s">
         <v>818</v>
       </c>
@@ -26872,7 +26052,7 @@
       <c r="E119" s="22"/>
       <c r="F119" s="23"/>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" ht="14.4">
       <c r="A120" s="21" t="s">
         <v>145</v>
       </c>
@@ -26888,7 +26068,7 @@
       <c r="E120" s="22"/>
       <c r="F120" s="23"/>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" ht="14.4">
       <c r="A121" s="21" t="s">
         <v>610</v>
       </c>
@@ -26904,7 +26084,7 @@
       <c r="E121" s="22"/>
       <c r="F121" s="23"/>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" ht="14.4">
       <c r="A122" s="21" t="s">
         <v>281</v>
       </c>
@@ -26920,7 +26100,7 @@
       <c r="E122" s="22"/>
       <c r="F122" s="23"/>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" ht="14.4">
       <c r="A123" s="21" t="s">
         <v>54</v>
       </c>
@@ -26936,7 +26116,7 @@
       <c r="E123" s="22"/>
       <c r="F123" s="23"/>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" ht="14.4">
       <c r="A124" s="21" t="s">
         <v>463</v>
       </c>
@@ -26952,7 +26132,7 @@
       <c r="E124" s="22"/>
       <c r="F124" s="23"/>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" ht="14.4">
       <c r="A125" s="21" t="s">
         <v>388</v>
       </c>
@@ -26970,7 +26150,7 @@
       </c>
       <c r="F125" s="23"/>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" ht="14.4">
       <c r="A126" s="21" t="s">
         <v>490</v>
       </c>
@@ -26988,7 +26168,7 @@
       </c>
       <c r="F126" s="23"/>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" ht="14.4">
       <c r="A127" s="21" t="s">
         <v>366</v>
       </c>
@@ -27004,7 +26184,7 @@
       <c r="E127" s="22"/>
       <c r="F127" s="23"/>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" ht="14.4">
       <c r="A128" s="21" t="s">
         <v>820</v>
       </c>
@@ -27020,7 +26200,7 @@
       <c r="E128" s="22"/>
       <c r="F128" s="23"/>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" ht="14.4">
       <c r="A129" s="21" t="s">
         <v>822</v>
       </c>
@@ -27036,7 +26216,7 @@
       <c r="E129" s="22"/>
       <c r="F129" s="23"/>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" ht="14.4">
       <c r="A130" s="21" t="s">
         <v>824</v>
       </c>
@@ -27052,7 +26232,7 @@
       <c r="E130" s="22"/>
       <c r="F130" s="23"/>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" ht="14.4">
       <c r="A131" s="21" t="s">
         <v>826</v>
       </c>
@@ -27068,7 +26248,7 @@
       <c r="E131" s="22"/>
       <c r="F131" s="23"/>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" ht="14.4">
       <c r="A132" s="21" t="s">
         <v>189</v>
       </c>
@@ -27084,7 +26264,7 @@
       <c r="E132" s="22"/>
       <c r="F132" s="23"/>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" ht="14.4">
       <c r="A133" s="21" t="s">
         <v>828</v>
       </c>
@@ -27100,7 +26280,7 @@
       <c r="E133" s="22"/>
       <c r="F133" s="23"/>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" ht="14.4">
       <c r="A134" s="21" t="s">
         <v>830</v>
       </c>
@@ -27116,7 +26296,7 @@
       <c r="E134" s="22"/>
       <c r="F134" s="23"/>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" ht="14.4">
       <c r="A135" s="21" t="s">
         <v>832</v>
       </c>
@@ -27132,7 +26312,7 @@
       <c r="E135" s="22"/>
       <c r="F135" s="23"/>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" ht="14.4">
       <c r="A136" s="21" t="s">
         <v>287</v>
       </c>
@@ -27148,7 +26328,7 @@
       <c r="E136" s="22"/>
       <c r="F136" s="23"/>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" ht="14.4">
       <c r="A137" s="21" t="s">
         <v>380</v>
       </c>
@@ -27166,7 +26346,7 @@
       </c>
       <c r="F137" s="23"/>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" ht="14.4">
       <c r="A138" s="21" t="s">
         <v>376</v>
       </c>
@@ -27182,7 +26362,7 @@
       <c r="E138" s="22"/>
       <c r="F138" s="23"/>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" ht="14.4">
       <c r="A139" s="21" t="s">
         <v>834</v>
       </c>
@@ -27198,7 +26378,7 @@
       <c r="E139" s="22"/>
       <c r="F139" s="23"/>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" ht="14.4">
       <c r="A140" s="21" t="s">
         <v>349</v>
       </c>
@@ -27214,7 +26394,7 @@
       <c r="E140" s="22"/>
       <c r="F140" s="23"/>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" ht="14.4">
       <c r="A141" s="21" t="s">
         <v>529</v>
       </c>
@@ -27230,7 +26410,7 @@
       <c r="E141" s="22"/>
       <c r="F141" s="23"/>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" ht="14.4">
       <c r="A142" s="21" t="s">
         <v>560</v>
       </c>
@@ -27246,7 +26426,7 @@
       <c r="E142" s="22"/>
       <c r="F142" s="23"/>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" ht="14.4">
       <c r="A143" s="21" t="s">
         <v>836</v>
       </c>
@@ -27262,7 +26442,7 @@
       <c r="E143" s="22"/>
       <c r="F143" s="23"/>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" ht="14.4">
       <c r="A144" s="21" t="s">
         <v>838</v>
       </c>
@@ -27278,7 +26458,7 @@
       <c r="E144" s="22"/>
       <c r="F144" s="23"/>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" ht="14.4">
       <c r="A145" s="21" t="s">
         <v>82</v>
       </c>
@@ -27294,7 +26474,7 @@
       <c r="E145" s="22"/>
       <c r="F145" s="23"/>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" ht="14.4">
       <c r="A146" s="21" t="s">
         <v>840</v>
       </c>
@@ -27310,7 +26490,7 @@
       <c r="E146" s="22"/>
       <c r="F146" s="23"/>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" ht="14.4">
       <c r="A147" s="21" t="s">
         <v>302</v>
       </c>
@@ -27326,7 +26506,7 @@
       <c r="E147" s="22"/>
       <c r="F147" s="23"/>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" ht="14.4">
       <c r="A148" s="21" t="s">
         <v>440</v>
       </c>
@@ -27344,7 +26524,7 @@
       </c>
       <c r="F148" s="23"/>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" ht="14.4">
       <c r="A149" s="21" t="s">
         <v>313</v>
       </c>
@@ -27360,7 +26540,7 @@
       <c r="E149" s="22"/>
       <c r="F149" s="23"/>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" ht="14.4">
       <c r="A150" s="21" t="s">
         <v>447</v>
       </c>
@@ -27378,7 +26558,7 @@
       </c>
       <c r="F150" s="23"/>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" ht="14.4">
       <c r="A151" s="21" t="s">
         <v>102</v>
       </c>
@@ -27394,7 +26574,7 @@
       <c r="E151" s="22"/>
       <c r="F151" s="23"/>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" ht="14.4">
       <c r="A152" s="21" t="s">
         <v>436</v>
       </c>
@@ -27410,7 +26590,7 @@
       <c r="E152" s="22"/>
       <c r="F152" s="23"/>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" ht="14.4">
       <c r="A153" s="21" t="s">
         <v>212</v>
       </c>
@@ -27426,7 +26606,7 @@
       <c r="E153" s="22"/>
       <c r="F153" s="23"/>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" ht="14.4">
       <c r="A154" s="21" t="s">
         <v>842</v>
       </c>
@@ -27444,7 +26624,7 @@
       </c>
       <c r="F154" s="23"/>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" ht="14.4">
       <c r="A155" s="21" t="s">
         <v>844</v>
       </c>
@@ -27460,7 +26640,7 @@
       <c r="E155" s="22"/>
       <c r="F155" s="23"/>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" ht="14.4">
       <c r="A156" s="21" t="s">
         <v>846</v>
       </c>
@@ -27476,7 +26656,7 @@
       <c r="E156" s="22"/>
       <c r="F156" s="23"/>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" ht="14.4">
       <c r="A157" s="21" t="s">
         <v>420</v>
       </c>
@@ -27492,7 +26672,7 @@
       <c r="E157" s="22"/>
       <c r="F157" s="23"/>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" ht="14.4">
       <c r="A158" s="21" t="s">
         <v>848</v>
       </c>
@@ -27508,7 +26688,7 @@
       <c r="E158" s="22"/>
       <c r="F158" s="23"/>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" ht="14.4">
       <c r="A159" s="21" t="s">
         <v>850</v>
       </c>
@@ -27524,7 +26704,7 @@
       <c r="E159" s="22"/>
       <c r="F159" s="23"/>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" ht="14.4">
       <c r="A160" s="21" t="s">
         <v>852</v>
       </c>
@@ -27540,7 +26720,7 @@
       <c r="E160" s="22"/>
       <c r="F160" s="23"/>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" ht="14.4">
       <c r="A161" s="21" t="s">
         <v>631</v>
       </c>
@@ -27556,7 +26736,7 @@
       <c r="E161" s="22"/>
       <c r="F161" s="23"/>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" ht="14.4">
       <c r="A162" s="21" t="s">
         <v>137</v>
       </c>
@@ -27572,7 +26752,7 @@
       <c r="E162" s="22"/>
       <c r="F162" s="23"/>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" ht="14.4">
       <c r="A163" s="21" t="s">
         <v>854</v>
       </c>
@@ -27588,7 +26768,7 @@
       <c r="E163" s="22"/>
       <c r="F163" s="23"/>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" ht="14.4">
       <c r="A164" s="21" t="s">
         <v>535</v>
       </c>
@@ -27604,7 +26784,7 @@
       <c r="E164" s="22"/>
       <c r="F164" s="23"/>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" ht="14.4">
       <c r="A165" s="21" t="s">
         <v>368</v>
       </c>
@@ -27620,7 +26800,7 @@
       <c r="E165" s="22"/>
       <c r="F165" s="23"/>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" ht="14.4">
       <c r="A166" s="21" t="s">
         <v>856</v>
       </c>
@@ -27636,7 +26816,7 @@
       <c r="E166" s="22"/>
       <c r="F166" s="23"/>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" ht="14.4">
       <c r="A167" s="21" t="s">
         <v>858</v>
       </c>
@@ -27652,7 +26832,7 @@
       <c r="E167" s="22"/>
       <c r="F167" s="23"/>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" ht="14.4">
       <c r="A168" s="21" t="s">
         <v>239</v>
       </c>
@@ -27668,7 +26848,7 @@
       <c r="E168" s="22"/>
       <c r="F168" s="23"/>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" ht="14.4">
       <c r="A169" s="21" t="s">
         <v>860</v>
       </c>
@@ -27684,7 +26864,7 @@
       <c r="E169" s="22"/>
       <c r="F169" s="23"/>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" ht="14.4">
       <c r="A170" s="21" t="s">
         <v>862</v>
       </c>
@@ -27700,7 +26880,7 @@
       <c r="E170" s="22"/>
       <c r="F170" s="23"/>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" ht="14.4">
       <c r="A171" s="21" t="s">
         <v>429</v>
       </c>
@@ -27716,7 +26896,7 @@
       <c r="E171" s="22"/>
       <c r="F171" s="23"/>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" ht="14.4">
       <c r="A172" s="25" t="s">
         <v>864</v>
       </c>
@@ -27734,7 +26914,7 @@
       </c>
       <c r="F172" s="26"/>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" ht="14.4">
       <c r="A173" s="25" t="s">
         <v>556</v>
       </c>
@@ -27752,7 +26932,7 @@
       </c>
       <c r="F173" s="26"/>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" ht="14.4">
       <c r="A174" s="25" t="s">
         <v>866</v>
       </c>
@@ -31094,7 +30274,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -31114,7 +30294,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" ht="14.4">
       <c r="A2" s="27" t="s">
         <v>868</v>
       </c>
@@ -31134,7 +30314,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" ht="14.4">
       <c r="A3" s="27" t="s">
         <v>694</v>
       </c>
@@ -31154,7 +30334,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" ht="14.4">
       <c r="A4" s="10" t="s">
         <v>472</v>
       </c>
@@ -31192,7 +30372,7 @@
       <c r="Y4" s="30"/>
       <c r="Z4" s="30"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" ht="14.4">
       <c r="A5" s="27" t="s">
         <v>52</v>
       </c>
@@ -31212,7 +30392,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" ht="14.4">
       <c r="A6" s="31" t="s">
         <v>873</v>
       </c>
@@ -31232,7 +30412,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" ht="14.4">
       <c r="A7" s="27" t="s">
         <v>70</v>
       </c>
@@ -31252,7 +30432,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" ht="14.4">
       <c r="A8" s="27" t="s">
         <v>183</v>
       </c>
@@ -31272,7 +30452,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" ht="14.4">
       <c r="A9" s="10" t="s">
         <v>876</v>
       </c>
@@ -31310,7 +30490,7 @@
       <c r="Y9" s="30"/>
       <c r="Z9" s="30"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" ht="14.4">
       <c r="A10" s="27" t="s">
         <v>878</v>
       </c>
@@ -31330,7 +30510,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" ht="14.4">
       <c r="A11" s="27" t="s">
         <v>159</v>
       </c>
@@ -31351,7 +30531,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" ht="14.4">
       <c r="A12" s="32" t="s">
         <v>18</v>
       </c>
@@ -31387,7 +30567,7 @@
       <c r="Y12" s="30"/>
       <c r="Z12" s="30"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" ht="14.4">
       <c r="A13" s="27" t="s">
         <v>881</v>
       </c>
@@ -31407,7 +30587,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" ht="14.4">
       <c r="A14" s="10" t="s">
         <v>884</v>
       </c>
@@ -31445,7 +30625,7 @@
       <c r="Y14" s="30"/>
       <c r="Z14" s="30"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" ht="14.4">
       <c r="A15" s="10" t="s">
         <v>886</v>
       </c>
@@ -31483,7 +30663,7 @@
       <c r="Y15" s="30"/>
       <c r="Z15" s="30"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" ht="14.4">
       <c r="A16" s="31" t="s">
         <v>888</v>
       </c>
@@ -31503,7 +30683,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" ht="14.4">
       <c r="A17" s="27" t="s">
         <v>891</v>
       </c>
@@ -31523,7 +30703,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" ht="14.4">
       <c r="A18" s="10" t="s">
         <v>328</v>
       </c>
@@ -31561,7 +30741,7 @@
       <c r="Y18" s="30"/>
       <c r="Z18" s="30"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" ht="14.4">
       <c r="A19" s="10" t="s">
         <v>893</v>
       </c>
@@ -31599,7 +30779,7 @@
       <c r="Y19" s="30"/>
       <c r="Z19" s="30"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" ht="14.4">
       <c r="A20" s="10" t="s">
         <v>895</v>
       </c>
@@ -31637,7 +30817,7 @@
       <c r="Y20" s="30"/>
       <c r="Z20" s="30"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" ht="14.4">
       <c r="A21" s="31" t="s">
         <v>370</v>
       </c>
@@ -31657,7 +30837,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" ht="14.4">
       <c r="A22" s="10" t="s">
         <v>898</v>
       </c>
@@ -31695,7 +30875,7 @@
       <c r="Y22" s="30"/>
       <c r="Z22" s="30"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" ht="14.4">
       <c r="A23" s="10" t="s">
         <v>900</v>
       </c>
@@ -31733,7 +30913,7 @@
       <c r="Y23" s="30"/>
       <c r="Z23" s="30"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" ht="14.4">
       <c r="A24" s="1" t="s">
         <v>902</v>
       </c>
@@ -31753,7 +30933,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" ht="14.4">
       <c r="A25" s="10" t="s">
         <v>904</v>
       </c>
@@ -31791,7 +30971,7 @@
       <c r="Y25" s="30"/>
       <c r="Z25" s="30"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" ht="14.4">
       <c r="A26" s="27" t="s">
         <v>523</v>
       </c>
@@ -31811,7 +30991,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" ht="14.4">
       <c r="A27" s="10" t="s">
         <v>429</v>
       </c>
@@ -31831,7 +31011,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" ht="14.4">
       <c r="A28" s="27" t="s">
         <v>907</v>
       </c>
@@ -35883,7 +35063,7 @@
     <col min="8" max="8" width="30.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" ht="14.4">
       <c r="A1" s="31" t="s">
         <v>303</v>
       </c>
@@ -35924,7 +35104,7 @@
       <c r="Z1" s="15"/>
       <c r="AA1" s="15"/>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" ht="14.4">
       <c r="A2" s="1" t="s">
         <v>908</v>
       </c>
@@ -35940,7 +35120,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" ht="14.4">
       <c r="A3" s="31" t="s">
         <v>382</v>
       </c>
@@ -35977,7 +35157,7 @@
       <c r="Z3" s="15"/>
       <c r="AA3" s="15"/>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" ht="14.4">
       <c r="A4" s="38" t="s">
         <v>393</v>
       </c>
@@ -36016,7 +35196,7 @@
       <c r="Z4" s="42"/>
       <c r="AA4" s="42"/>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" ht="14.4">
       <c r="A5" s="1" t="s">
         <v>523</v>
       </c>
@@ -36034,7 +35214,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" ht="14.4">
       <c r="A6" s="1" t="s">
         <v>698</v>
       </c>
@@ -36050,7 +35230,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" ht="14.4">
       <c r="A7" s="1" t="s">
         <v>452</v>
       </c>
@@ -36066,7 +35246,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" ht="14.4">
       <c r="A8" s="1" t="s">
         <v>918</v>
       </c>
@@ -36082,7 +35262,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" ht="14.4">
       <c r="A9" s="3" t="s">
         <v>762</v>
       </c>
@@ -36098,7 +35278,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" ht="14.4">
       <c r="A10" s="1" t="s">
         <v>920</v>
       </c>
@@ -36114,7 +35294,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" ht="14.4">
       <c r="A11" s="38" t="s">
         <v>112</v>
       </c>
@@ -36151,7 +35331,7 @@
       <c r="Z11" s="42"/>
       <c r="AA11" s="42"/>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" ht="14.4">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
@@ -36167,7 +35347,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" ht="14.4">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -36183,7 +35363,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" ht="14.4">
       <c r="A14" s="1" t="s">
         <v>922</v>
       </c>
@@ -36201,7 +35381,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" ht="14.4">
       <c r="A15" s="1" t="s">
         <v>924</v>
       </c>
@@ -36219,7 +35399,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" ht="14.4">
       <c r="A16" s="38" t="s">
         <v>257</v>
       </c>
@@ -36258,7 +35438,7 @@
       <c r="Z16" s="42"/>
       <c r="AA16" s="42"/>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" ht="14.4">
       <c r="A17" s="1" t="s">
         <v>54</v>
       </c>
@@ -36276,7 +35456,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" ht="14.4">
       <c r="A18" s="1" t="s">
         <v>137</v>
       </c>
@@ -36292,7 +35472,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" ht="14.4">
       <c r="A19" s="1" t="s">
         <v>895</v>
       </c>
@@ -36308,7 +35488,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" ht="14.4">
       <c r="A20" s="1" t="s">
         <v>420</v>
       </c>
@@ -36324,7 +35504,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" ht="14.4">
       <c r="A21" s="31" t="s">
         <v>904</v>
       </c>
@@ -36361,7 +35541,7 @@
       <c r="Z21" s="15"/>
       <c r="AA21" s="15"/>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" ht="14.4">
       <c r="A22" s="1" t="s">
         <v>926</v>
       </c>
@@ -36377,7 +35557,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" ht="14.4">
       <c r="A23" s="1" t="s">
         <v>281</v>
       </c>
@@ -36395,7 +35575,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" ht="14.4">
       <c r="A24" s="14" t="s">
         <v>578</v>
       </c>
@@ -36432,7 +35612,7 @@
       <c r="Z24" s="15"/>
       <c r="AA24" s="15"/>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" ht="14.4">
       <c r="A25" s="1" t="s">
         <v>928</v>
       </c>
@@ -36448,7 +35628,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" ht="14.4">
       <c r="A26" s="1" t="s">
         <v>930</v>
       </c>
@@ -36464,7 +35644,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" ht="14.4">
       <c r="A27" s="31" t="s">
         <v>141</v>
       </c>
@@ -36503,7 +35683,7 @@
       <c r="Z27" s="15"/>
       <c r="AA27" s="15"/>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" ht="14.4">
       <c r="A28" s="1" t="s">
         <v>932</v>
       </c>
@@ -36521,7 +35701,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" ht="14.4">
       <c r="A29" s="31" t="s">
         <v>136</v>
       </c>
@@ -36558,7 +35738,7 @@
       <c r="Z29" s="15"/>
       <c r="AA29" s="15"/>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" ht="14.4">
       <c r="A30" s="1" t="s">
         <v>734</v>
       </c>
@@ -36574,7 +35754,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" ht="14.4">
       <c r="A31" s="1" t="s">
         <v>220</v>
       </c>
@@ -36590,7 +35770,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" ht="14.4">
       <c r="A32" s="1" t="s">
         <v>934</v>
       </c>
@@ -36606,7 +35786,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" ht="14.4">
       <c r="A33" s="1" t="s">
         <v>211</v>
       </c>
@@ -36622,7 +35802,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" ht="14.4">
       <c r="A34" s="1" t="s">
         <v>338</v>
       </c>
@@ -36638,7 +35818,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" ht="14.4">
       <c r="A35" s="1" t="s">
         <v>392</v>
       </c>
@@ -36656,7 +35836,7 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" ht="14.4">
       <c r="A36" s="1" t="s">
         <v>776</v>
       </c>
@@ -36672,7 +35852,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" ht="14.4">
       <c r="A37" s="1" t="s">
         <v>385</v>
       </c>
@@ -36703,7 +35883,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" ht="14.4">
       <c r="A39" s="38" t="s">
         <v>21</v>
       </c>
@@ -36740,7 +35920,7 @@
       <c r="Z39" s="42"/>
       <c r="AA39" s="42"/>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" ht="14.4">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -36756,7 +35936,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" ht="14.4">
       <c r="A41" s="1" t="s">
         <v>57</v>
       </c>
@@ -36772,7 +35952,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" ht="14.4">
       <c r="A42" s="1" t="s">
         <v>234</v>
       </c>
@@ -36788,7 +35968,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" ht="14.4">
       <c r="A43" s="1" t="s">
         <v>128</v>
       </c>
@@ -36804,7 +35984,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" ht="14.4">
       <c r="A44" s="1" t="s">
         <v>357</v>
       </c>
@@ -36820,7 +36000,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" ht="14.4">
       <c r="A45" s="31" t="s">
         <v>584</v>
       </c>
@@ -36857,7 +36037,7 @@
       <c r="Z45" s="15"/>
       <c r="AA45" s="15"/>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" ht="14.4">
       <c r="A46" s="1" t="s">
         <v>380</v>
       </c>
@@ -36873,7 +36053,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" ht="14.4">
       <c r="A47" s="1" t="s">
         <v>558</v>
       </c>
@@ -36889,7 +36069,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:27" ht="14.4">
       <c r="A48" s="1" t="s">
         <v>937</v>
       </c>
@@ -36907,7 +36087,7 @@
       </c>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:27" ht="14.4">
       <c r="A49" s="1" t="s">
         <v>604</v>
       </c>
@@ -36923,7 +36103,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:27">
+    <row r="50" spans="1:27" ht="14.4">
       <c r="A50" s="1" t="s">
         <v>939</v>
       </c>
@@ -36939,7 +36119,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:27">
+    <row r="51" spans="1:27" ht="14.4">
       <c r="A51" s="31" t="s">
         <v>230</v>
       </c>
@@ -36978,7 +36158,7 @@
       <c r="Z51" s="15"/>
       <c r="AA51" s="15"/>
     </row>
-    <row r="52" spans="1:27">
+    <row r="52" spans="1:27" ht="14.4">
       <c r="A52" s="3" t="s">
         <v>941</v>
       </c>
@@ -36994,7 +36174,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:27">
+    <row r="53" spans="1:27" ht="14.4">
       <c r="A53" s="31" t="s">
         <v>212</v>
       </c>
@@ -37031,7 +36211,7 @@
       <c r="Z53" s="15"/>
       <c r="AA53" s="15"/>
     </row>
-    <row r="54" spans="1:27">
+    <row r="54" spans="1:27" ht="14.4">
       <c r="A54" s="44" t="s">
         <v>943</v>
       </c>
@@ -40880,7 +40060,7 @@
     <col min="9" max="9" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -40901,7 +40081,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="14.4">
       <c r="A2" s="48" t="s">
         <v>513</v>
       </c>
@@ -40922,7 +40102,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="14.4">
       <c r="A3" s="48" t="s">
         <v>946</v>
       </c>
@@ -40943,7 +40123,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="14.4">
       <c r="A4" s="48" t="s">
         <v>211</v>
       </c>
@@ -40964,7 +40144,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="14.4">
       <c r="A5" s="48" t="s">
         <v>322</v>
       </c>
@@ -40985,7 +40165,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="14.4">
       <c r="A6" s="48" t="s">
         <v>578</v>
       </c>
@@ -41006,7 +40186,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" ht="14.4">
       <c r="A7" s="48" t="s">
         <v>81</v>
       </c>
@@ -41025,7 +40205,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="14.4">
       <c r="A8" s="48" t="s">
         <v>437</v>
       </c>
@@ -41046,7 +40226,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="14.4">
       <c r="A9" s="48" t="s">
         <v>948</v>
       </c>
@@ -41065,7 +40245,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="14.4">
       <c r="A10" s="48" t="s">
         <v>393</v>
       </c>
@@ -41086,7 +40266,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" ht="14.4">
       <c r="A11" s="48" t="s">
         <v>950</v>
       </c>
@@ -41105,7 +40285,7 @@
       <c r="F11" s="50"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="14.4">
       <c r="A12" s="3" t="s">
         <v>342</v>
       </c>
@@ -41120,7 +40300,7 @@
       <c r="F12" s="50"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" ht="14.4">
       <c r="A13" s="48" t="s">
         <v>24</v>
       </c>
@@ -41140,7 +40320,7 @@
       <c r="G13" s="2"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="14.4">
       <c r="A14" s="48" t="s">
         <v>952</v>
       </c>
@@ -41159,7 +40339,7 @@
       <c r="F14" s="50"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" ht="14.4">
       <c r="A15" s="48" t="s">
         <v>257</v>
       </c>
@@ -41181,7 +40361,7 @@
       <c r="G15" s="2"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" ht="14.4">
       <c r="A16" s="48" t="s">
         <v>954</v>
       </c>
@@ -41201,7 +40381,7 @@
       <c r="G16" s="2"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" ht="14.4">
       <c r="A17" s="51" t="s">
         <v>956</v>
       </c>
@@ -41219,7 +40399,7 @@
       <c r="G17" s="2"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" ht="14.4">
       <c r="A18" s="51" t="s">
         <v>957</v>
       </c>
@@ -41237,7 +40417,7 @@
       <c r="G18" s="2"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" ht="14.4">
       <c r="A19" s="31" t="s">
         <v>266</v>
       </c>
@@ -41258,7 +40438,7 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" ht="14.4">
       <c r="A20" s="51" t="s">
         <v>958</v>
       </c>
@@ -41273,7 +40453,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" ht="14.4">
       <c r="A21" s="31" t="s">
         <v>959</v>
       </c>
@@ -41294,7 +40474,7 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" ht="14.4">
       <c r="A22" s="54"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -41303,7 +40483,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" ht="14.4">
       <c r="A23" s="48" t="s">
         <v>852</v>
       </c>
@@ -41320,7 +40500,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" ht="14.4">
       <c r="A24" s="31" t="s">
         <v>519</v>
       </c>
@@ -41337,7 +40517,7 @@
       <c r="F24" s="50"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" ht="14.4">
       <c r="A25" s="48" t="s">
         <v>876</v>
       </c>
@@ -41354,7 +40534,7 @@
       <c r="F25" s="50"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" ht="14.4">
       <c r="A26" s="48" t="s">
         <v>57</v>
       </c>
@@ -41371,7 +40551,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" ht="14.4">
       <c r="A27" s="31" t="s">
         <v>878</v>
       </c>
@@ -41388,7 +40568,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" ht="14.4">
       <c r="A28" s="10" t="s">
         <v>778</v>
       </c>
@@ -41405,7 +40585,7 @@
       <c r="F28" s="50"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" ht="14.4">
       <c r="A29" s="31" t="s">
         <v>961</v>
       </c>
@@ -41422,7 +40602,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" ht="14.4">
       <c r="A30" s="48" t="s">
         <v>230</v>
       </c>
@@ -41439,7 +40619,7 @@
       <c r="F30" s="50"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" ht="14.4">
       <c r="A31" s="10" t="s">
         <v>298</v>
       </c>
@@ -41456,7 +40636,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" ht="14.4">
       <c r="A32" s="10" t="s">
         <v>644</v>
       </c>
@@ -41473,7 +40653,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" ht="14.4">
       <c r="A33" s="10" t="s">
         <v>148</v>
       </c>
@@ -41490,7 +40670,7 @@
       <c r="F33" s="50"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" ht="14.4">
       <c r="A34" s="10" t="s">
         <v>963</v>
       </c>
@@ -41507,7 +40687,7 @@
       <c r="F34" s="50"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" ht="14.4">
       <c r="A35" s="31" t="s">
         <v>141</v>
       </c>
@@ -41524,7 +40704,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" ht="14.4">
       <c r="A36" s="31" t="s">
         <v>342</v>
       </c>
@@ -41543,7 +40723,7 @@
       </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" ht="14.4">
       <c r="A37" s="31" t="s">
         <v>150</v>
       </c>
@@ -41560,7 +40740,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" ht="14.4">
       <c r="A38" s="48" t="s">
         <v>357</v>
       </c>
@@ -41577,7 +40757,7 @@
       <c r="F38" s="50"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" ht="14.4">
       <c r="A39" s="10" t="s">
         <v>676</v>
       </c>
@@ -41594,7 +40774,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" ht="14.4">
       <c r="A40" s="31" t="s">
         <v>596</v>
       </c>
@@ -41611,7 +40791,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" ht="14.4">
       <c r="A41" s="31" t="s">
         <v>426</v>
       </c>
@@ -41628,7 +40808,7 @@
       <c r="F41" s="50"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" ht="14.4">
       <c r="A42" s="31" t="s">
         <v>766</v>
       </c>
@@ -41645,7 +40825,7 @@
       <c r="F42" s="50"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" ht="14.4">
       <c r="A43" s="48" t="s">
         <v>965</v>
       </c>

--- a/slots.xlsx
+++ b/slots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohit\Desktop\College\ISTE\ISTE-NITK_Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B4AE17-DE86-46B1-8959-2C3DB8D83FA7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523CD87E-2F58-4DAB-977D-BF1703359B71}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3228" yWindow="240" windowWidth="7500" windowHeight="6000" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Crypt" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2209" uniqueCount="988">
   <si>
     <t>Nam</t>
   </si>
@@ -2945,9 +2945,6 @@
   </si>
   <si>
     <t>chikuk302@gmail.com</t>
-  </si>
-  <si>
-    <t>Initial Time</t>
   </si>
   <si>
     <t>Hari Shankar</t>
@@ -9821,7 +9818,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -9848,9 +9845,7 @@
       <c r="E1" s="39"/>
       <c r="F1" s="41"/>
       <c r="G1" s="42"/>
-      <c r="H1" s="39" t="s">
-        <v>967</v>
-      </c>
+      <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="41"/>
       <c r="K1" s="42"/>
@@ -9885,9 +9880,7 @@
       </c>
       <c r="E2" s="55"/>
       <c r="F2" s="2"/>
-      <c r="H2" s="56">
-        <v>0.58333333333333337</v>
-      </c>
+      <c r="H2" s="56"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
@@ -9906,9 +9899,7 @@
       </c>
       <c r="E3" s="55"/>
       <c r="F3" s="2"/>
-      <c r="H3" s="56">
-        <v>0.58333333333333337</v>
-      </c>
+      <c r="H3" s="56"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -9929,42 +9920,38 @@
         <v>25</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="H4" s="56">
-        <v>0.58333333333333337</v>
-      </c>
+      <c r="H4" s="56"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="14.4">
       <c r="A5" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B5" s="1">
         <v>9497276861</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="55"/>
       <c r="F5" s="2"/>
-      <c r="H5" s="56">
-        <v>0.58333333333333337</v>
-      </c>
+      <c r="H5" s="56"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="14.4">
       <c r="A6" s="51" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B6" s="57">
         <v>9381570119</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
@@ -9973,21 +9960,19 @@
         <v>25</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="H6" s="56">
-        <v>0.58333333333333337</v>
-      </c>
+      <c r="H6" s="56"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:26" ht="14.4">
       <c r="A7" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B7" s="1">
         <v>9620990777</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
@@ -9996,9 +9981,7 @@
         <v>25</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="H7" s="56">
-        <v>0.61458333333333337</v>
-      </c>
+      <c r="H7" s="56"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
@@ -10019,9 +10002,7 @@
         <v>25</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="H8" s="56">
-        <v>0.61458333333333337</v>
-      </c>
+      <c r="H8" s="56"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
@@ -10040,9 +10021,7 @@
       </c>
       <c r="E9" s="55"/>
       <c r="F9" s="2"/>
-      <c r="H9" s="56">
-        <v>0.61458333333333337</v>
-      </c>
+      <c r="H9" s="56"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
@@ -10063,9 +10042,7 @@
         <v>25</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="H10" s="56">
-        <v>0.61458333333333337</v>
-      </c>
+      <c r="H10" s="56"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
@@ -10084,9 +10061,7 @@
       </c>
       <c r="E11" s="55"/>
       <c r="F11" s="2"/>
-      <c r="H11" s="56">
-        <v>0.61458333333333337</v>
-      </c>
+      <c r="H11" s="56"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
@@ -10105,9 +10080,7 @@
       </c>
       <c r="E12" s="55"/>
       <c r="F12" s="2"/>
-      <c r="H12" s="56">
-        <v>0.61458333333333337</v>
-      </c>
+      <c r="H12" s="56"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
@@ -10128,9 +10101,7 @@
         <v>25</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="H13" s="56">
-        <v>0.64236111111111116</v>
-      </c>
+      <c r="H13" s="56"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
@@ -10152,9 +10123,7 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="56">
-        <v>0.64236111111111116</v>
-      </c>
+      <c r="H14" s="56"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
@@ -10174,42 +10143,38 @@
       <c r="E15" s="55"/>
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="56">
-        <v>0.64236111111111116</v>
-      </c>
+      <c r="H15" s="56"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="14.4">
       <c r="A16" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B16" s="1">
         <v>9591150022</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="55"/>
       <c r="F16" s="2"/>
-      <c r="H16" s="56">
-        <v>0.64236111111111116</v>
-      </c>
+      <c r="H16" s="56"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="14.4">
       <c r="A17" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B17" s="1">
         <v>6354254151</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>9</v>
@@ -10218,9 +10183,7 @@
         <v>25</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="H17" s="56">
-        <v>0.64236111111111116</v>
-      </c>
+      <c r="H17" s="56"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
@@ -10239,21 +10202,19 @@
       </c>
       <c r="E18" s="55"/>
       <c r="F18" s="2"/>
-      <c r="H18" s="56">
-        <v>0.64236111111111116</v>
-      </c>
+      <c r="H18" s="56"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" ht="14.4">
       <c r="A19" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B19" s="1">
         <v>9573226722</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>9</v>
@@ -10261,9 +10222,7 @@
       <c r="E19" s="55"/>
       <c r="F19" s="2"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="56">
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="H19" s="56"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
@@ -10283,9 +10242,7 @@
       <c r="E20" s="55"/>
       <c r="F20" s="2"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="56">
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="H20" s="56"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
@@ -10304,21 +10261,19 @@
       </c>
       <c r="E21" s="55"/>
       <c r="F21" s="2"/>
-      <c r="H21" s="56">
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="H21" s="56"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="14.4">
       <c r="A22" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B22" s="1">
         <v>6377331976</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>9</v>
@@ -10327,9 +10282,7 @@
         <v>25</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="H22" s="56">
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="H22" s="56"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
@@ -10348,21 +10301,19 @@
       </c>
       <c r="E23" s="55"/>
       <c r="F23" s="2"/>
-      <c r="H23" s="56">
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="H23" s="56"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" ht="14.4">
       <c r="A24" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B24" s="1">
         <v>9148172953</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>9</v>
@@ -10371,9 +10322,7 @@
         <v>25</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="H24" s="56">
-        <v>0.6875</v>
-      </c>
+      <c r="H24" s="56"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
@@ -10392,30 +10341,26 @@
       </c>
       <c r="E25" s="55"/>
       <c r="F25" s="2"/>
-      <c r="H25" s="56">
-        <v>0.6875</v>
-      </c>
+      <c r="H25" s="56"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="14.4">
       <c r="A26" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B26" s="1">
         <v>9496077108</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="55"/>
       <c r="F26" s="2"/>
-      <c r="H26" s="56">
-        <v>0.6875</v>
-      </c>
+      <c r="H26" s="56"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
@@ -10434,9 +10379,7 @@
       </c>
       <c r="E27" s="55"/>
       <c r="F27" s="2"/>
-      <c r="H27" s="56">
-        <v>0.6875</v>
-      </c>
+      <c r="H27" s="56"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
@@ -10457,9 +10400,7 @@
         <v>25</v>
       </c>
       <c r="F28" s="2"/>
-      <c r="H28" s="56">
-        <v>0.6875</v>
-      </c>
+      <c r="H28" s="56"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
@@ -10478,9 +10419,7 @@
       </c>
       <c r="E29" s="55"/>
       <c r="F29" s="2"/>
-      <c r="H29" s="56">
-        <v>0.70486111111111116</v>
-      </c>
+      <c r="H29" s="56"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
@@ -10499,9 +10438,7 @@
       </c>
       <c r="E30" s="55"/>
       <c r="F30" s="2"/>
-      <c r="H30" s="56">
-        <v>0.70486111111111116</v>
-      </c>
+      <c r="H30" s="56"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
@@ -10522,9 +10459,7 @@
         <v>25</v>
       </c>
       <c r="F31" s="2"/>
-      <c r="H31" s="56">
-        <v>0.70486111111111116</v>
-      </c>
+      <c r="H31" s="56"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
@@ -10545,30 +10480,26 @@
         <v>25</v>
       </c>
       <c r="F32" s="2"/>
-      <c r="H32" s="56">
-        <v>0.70486111111111116</v>
-      </c>
+      <c r="H32" s="56"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:26" ht="14.4">
       <c r="A33" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B33" s="1">
         <v>9686304111</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E33" s="55"/>
       <c r="F33" s="2"/>
-      <c r="H33" s="56">
-        <v>0.71875</v>
-      </c>
+      <c r="H33" s="56"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
@@ -10589,9 +10520,7 @@
         <v>25</v>
       </c>
       <c r="F34" s="58"/>
-      <c r="H34" s="56">
-        <v>0.71875</v>
-      </c>
+      <c r="H34" s="56"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
@@ -23899,7 +23828,7 @@
         <v>638</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>630</v>
